--- a/Data/National Accounts/PSA-08AFF_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-08AFF_2018PSNA_Ann.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\IAD activities\6. MAS_Series\NAP\NAP detailed series as of April 2021\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -458,7 +458,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="65">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -642,16 +642,19 @@
     <t>Unit: In million Philippine pesos</t>
   </si>
   <si>
-    <t>Annual 2000 to 2020</t>
-  </si>
-  <si>
-    <t>Annual 2001 to 2020</t>
-  </si>
-  <si>
     <t>2019 - 2020</t>
   </si>
   <si>
-    <t>As of April 2021</t>
+    <t>2020 - 2021</t>
+  </si>
+  <si>
+    <t>As of January 2022</t>
+  </si>
+  <si>
+    <t>Annual 2000 to 2021</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2021</t>
   </si>
 </sst>
 </file>
@@ -23576,54 +23579,54 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:V258"/>
+  <dimension ref="A1:W258"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.7265625" style="1" customWidth="1"/>
-    <col min="2" max="22" width="10.26953125" style="9" customWidth="1"/>
-    <col min="23" max="16384" width="7.81640625" style="9"/>
+    <col min="2" max="23" width="10.26953125" style="9" customWidth="1"/>
+    <col min="24" max="16384" width="7.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>23</v>
@@ -23648,8 +23651,9 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
@@ -23716,11 +23720,14 @@
       <c r="V10" s="6">
         <v>2020</v>
       </c>
+      <c r="W10" s="6">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -23787,8 +23794,11 @@
       <c r="V12" s="8">
         <v>330328.98356238334</v>
       </c>
+      <c r="W12" s="8">
+        <v>344853.29466590576</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -23855,8 +23865,11 @@
       <c r="V13" s="8">
         <v>86826.61039780578</v>
       </c>
+      <c r="W13" s="8">
+        <v>104754.05608550132</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -23923,8 +23936,11 @@
       <c r="V14" s="8">
         <v>80324.855241535319</v>
       </c>
+      <c r="W14" s="8">
+        <v>91470.876340461808</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
@@ -23991,8 +24007,11 @@
       <c r="V15" s="8">
         <v>28007.300864791894</v>
       </c>
+      <c r="W15" s="8">
+        <v>26811.296417058402</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -24059,8 +24078,11 @@
       <c r="V16" s="8">
         <v>187560.94951796386</v>
       </c>
+      <c r="W16" s="8">
+        <v>179497.53502409358</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -24127,8 +24149,11 @@
       <c r="V17" s="8">
         <v>35520.456429394944</v>
       </c>
+      <c r="W17" s="8">
+        <v>37074.724247573882</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -24195,8 +24220,11 @@
       <c r="V18" s="8">
         <v>29978.517946870757</v>
       </c>
+      <c r="W18" s="8">
+        <v>26682.640668876782</v>
+      </c>
     </row>
-    <row r="19" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -24263,8 +24291,11 @@
       <c r="V19" s="8">
         <v>5616.9485208135611</v>
       </c>
+      <c r="W19" s="8">
+        <v>5752.3302584845751</v>
+      </c>
     </row>
-    <row r="20" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -24331,8 +24362,11 @@
       <c r="V20" s="8">
         <v>27042.646142857335</v>
       </c>
+      <c r="W20" s="8">
+        <v>23683.438713553231</v>
+      </c>
     </row>
-    <row r="21" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -24399,8 +24433,11 @@
       <c r="V21" s="8">
         <v>8637.1395902714321</v>
       </c>
+      <c r="W21" s="8">
+        <v>10966.97471815674</v>
+      </c>
     </row>
-    <row r="22" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -24467,8 +24504,11 @@
       <c r="V22" s="8">
         <v>1617.7821138485467</v>
       </c>
+      <c r="W22" s="8">
+        <v>1562.085982253805</v>
+      </c>
     </row>
-    <row r="23" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -24535,8 +24575,11 @@
       <c r="V23" s="8">
         <v>1771.3400194775331</v>
       </c>
+      <c r="W23" s="8">
+        <v>1507.650276771898</v>
+      </c>
     </row>
-    <row r="24" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -24603,8 +24646,11 @@
       <c r="V24" s="8">
         <v>1890.777240754157</v>
       </c>
+      <c r="W24" s="8">
+        <v>1372.62983362708</v>
+      </c>
     </row>
-    <row r="25" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -24671,8 +24717,11 @@
       <c r="V25" s="8">
         <v>97469.903436583409</v>
       </c>
+      <c r="W25" s="8">
+        <v>95954.335021575098</v>
+      </c>
     </row>
-    <row r="26" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -24739,8 +24788,11 @@
       <c r="V26" s="8">
         <v>239393.38691458129</v>
       </c>
+      <c r="W26" s="8">
+        <v>267298.24955679104</v>
+      </c>
     </row>
-    <row r="27" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -24807,8 +24859,11 @@
       <c r="V27" s="8">
         <v>188148.39441469841</v>
       </c>
+      <c r="W27" s="8">
+        <v>201770.6434488754</v>
+      </c>
     </row>
-    <row r="28" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -24875,8 +24930,11 @@
       <c r="V28" s="8">
         <v>56552.839349176225</v>
       </c>
+      <c r="W28" s="8">
+        <v>65743.710338421588</v>
+      </c>
     </row>
-    <row r="29" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -24943,8 +25001,11 @@
       <c r="V29" s="8">
         <v>1809.3193780259144</v>
       </c>
+      <c r="W29" s="8">
+        <v>1242.855871803652</v>
+      </c>
     </row>
-    <row r="30" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -25011,8 +25072,11 @@
       <c r="V30" s="8">
         <v>224185.62612143889</v>
       </c>
+      <c r="W30" s="8">
+        <v>248179.89070808183</v>
+      </c>
     </row>
-    <row r="31" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -25079,11 +25143,14 @@
       <c r="V31" s="8">
         <v>194326.41534000268</v>
       </c>
+      <c r="W31" s="8">
+        <v>217596.86017455638</v>
+      </c>
     </row>
-    <row r="32" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
     </row>
-    <row r="33" spans="1:22" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>1</v>
       </c>
@@ -25150,8 +25217,11 @@
       <c r="V33" s="10">
         <v>1827010.1925432752</v>
       </c>
+      <c r="W33" s="10">
+        <v>1953776.0783524239</v>
+      </c>
     </row>
-    <row r="34" spans="1:22" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -25174,51 +25244,52 @@
       <c r="T34" s="13"/>
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
     </row>
-    <row r="35" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
     </row>
-    <row r="38" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="14" t="s">
         <v>23</v>
@@ -25243,8 +25314,9 @@
       <c r="T46" s="14"/>
       <c r="U46" s="14"/>
       <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
     </row>
-    <row r="47" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>22</v>
       </c>
@@ -25311,11 +25383,14 @@
       <c r="V47" s="5">
         <v>2020</v>
       </c>
+      <c r="W47" s="5">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="48" spans="1:22" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -25382,8 +25457,11 @@
       <c r="V49" s="8">
         <v>369204.6278790356</v>
       </c>
+      <c r="W49" s="8">
+        <v>381565.32181581273</v>
+      </c>
     </row>
-    <row r="50" spans="1:22" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -25450,8 +25528,11 @@
       <c r="V50" s="8">
         <v>102515.2588864272</v>
       </c>
+      <c r="W50" s="8">
+        <v>104751.8024937365</v>
+      </c>
     </row>
-    <row r="51" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
@@ -25518,8 +25599,11 @@
       <c r="V51" s="8">
         <v>82000.061467543084</v>
       </c>
+      <c r="W51" s="8">
+        <v>82903.912052324333</v>
+      </c>
     </row>
-    <row r="52" spans="1:22" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>18</v>
       </c>
@@ -25586,8 +25670,11 @@
       <c r="V52" s="8">
         <v>30910.18057146536</v>
       </c>
+      <c r="W52" s="8">
+        <v>33385.942469070687</v>
+      </c>
     </row>
-    <row r="53" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
@@ -25654,8 +25741,11 @@
       <c r="V53" s="8">
         <v>133619.30924288067</v>
       </c>
+      <c r="W53" s="8">
+        <v>134772.68039287365</v>
+      </c>
     </row>
-    <row r="54" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
@@ -25722,8 +25812,11 @@
       <c r="V54" s="8">
         <v>34431.037031215194</v>
       </c>
+      <c r="W54" s="8">
+        <v>34513.292037551022</v>
+      </c>
     </row>
-    <row r="55" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>15</v>
       </c>
@@ -25790,8 +25883,11 @@
       <c r="V55" s="8">
         <v>27757.193918246165</v>
       </c>
+      <c r="W55" s="8">
+        <v>29090.572702363766</v>
+      </c>
     </row>
-    <row r="56" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>14</v>
       </c>
@@ -25858,8 +25954,11 @@
       <c r="V56" s="8">
         <v>5904.4756796928996</v>
       </c>
+      <c r="W56" s="8">
+        <v>5985.9557670455179</v>
+      </c>
     </row>
-    <row r="57" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>13</v>
       </c>
@@ -25926,8 +26025,11 @@
       <c r="V57" s="8">
         <v>20019.554984015376</v>
       </c>
+      <c r="W57" s="8">
+        <v>19703.217554034673</v>
+      </c>
     </row>
-    <row r="58" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -25994,8 +26096,11 @@
       <c r="V58" s="8">
         <v>10044.75660761295</v>
       </c>
+      <c r="W58" s="8">
+        <v>10093.930679829358</v>
+      </c>
     </row>
-    <row r="59" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -26062,8 +26167,11 @@
       <c r="V59" s="8">
         <v>1808.6232981080998</v>
       </c>
+      <c r="W59" s="8">
+        <v>1960.2868010980887</v>
+      </c>
     </row>
-    <row r="60" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
@@ -26130,8 +26238,11 @@
       <c r="V60" s="8">
         <v>1826.0381597649189</v>
       </c>
+      <c r="W60" s="8">
+        <v>1624.0307906977678</v>
+      </c>
     </row>
-    <row r="61" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -26198,8 +26309,11 @@
       <c r="V61" s="8">
         <v>1386.7847470873489</v>
       </c>
+      <c r="W61" s="8">
+        <v>1382.6933899869305</v>
+      </c>
     </row>
-    <row r="62" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -26266,8 +26380,11 @@
       <c r="V62" s="8">
         <v>93269.259373099427</v>
       </c>
+      <c r="W62" s="8">
+        <v>92816.701380602812</v>
+      </c>
     </row>
-    <row r="63" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -26334,8 +26451,11 @@
       <c r="V63" s="8">
         <v>216495.21996940885</v>
       </c>
+      <c r="W63" s="8">
+        <v>179018.96182675779</v>
+      </c>
     </row>
-    <row r="64" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -26402,8 +26522,11 @@
       <c r="V64" s="8">
         <v>175506.76035419569</v>
       </c>
+      <c r="W64" s="8">
+        <v>174978.18270135822</v>
+      </c>
     </row>
-    <row r="65" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -26470,8 +26593,11 @@
       <c r="V65" s="8">
         <v>68623.079495248589</v>
       </c>
+      <c r="W65" s="8">
+        <v>69261.090623336029</v>
+      </c>
     </row>
-    <row r="66" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>4</v>
       </c>
@@ -26538,8 +26664,11 @@
       <c r="V66" s="8">
         <v>2896.7144721793179</v>
       </c>
+      <c r="W66" s="8">
+        <v>3069.6661727072901</v>
+      </c>
     </row>
-    <row r="67" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
@@ -26606,8 +26735,11 @@
       <c r="V67" s="8">
         <v>223202.90452314107</v>
       </c>
+      <c r="W67" s="8">
+        <v>223751.52221683855</v>
+      </c>
     </row>
-    <row r="68" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
@@ -26674,11 +26806,14 @@
       <c r="V68" s="8">
         <v>179122.64604744466</v>
       </c>
+      <c r="W68" s="8">
+        <v>190936.65693799988</v>
+      </c>
     </row>
-    <row r="69" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
     </row>
-    <row r="70" spans="1:22" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>1</v>
       </c>
@@ -26745,8 +26880,11 @@
       <c r="V70" s="10">
         <v>1780544.4867078126</v>
       </c>
+      <c r="W70" s="10">
+        <v>1775566.4208060254</v>
+      </c>
     </row>
-    <row r="71" spans="1:22" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -26769,51 +26907,52 @@
       <c r="T71" s="13"/>
       <c r="U71" s="13"/>
       <c r="V71" s="13"/>
+      <c r="W71" s="13"/>
     </row>
-    <row r="72" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
     </row>
-    <row r="74" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
     </row>
-    <row r="75" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="14" t="s">
         <v>23</v>
@@ -26837,8 +26976,10 @@
       <c r="S83" s="14"/>
       <c r="T83" s="14"/>
       <c r="U83" s="14"/>
+      <c r="V83" s="14"/>
+      <c r="W83" s="14"/>
     </row>
-    <row r="84" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>22</v>
       </c>
@@ -26900,13 +27041,17 @@
         <v>32</v>
       </c>
       <c r="U84" s="5" t="s">
-        <v>62</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="V84" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W84" s="5"/>
     </row>
-    <row r="85" spans="1:22" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
     </row>
-    <row r="86" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>21</v>
       </c>
@@ -26970,9 +27115,12 @@
       <c r="U86" s="15">
         <v>9.3944990238383497</v>
       </c>
-      <c r="V86" s="1"/>
+      <c r="V86" s="15">
+        <v>4.396923015015858</v>
+      </c>
+      <c r="W86" s="15"/>
     </row>
-    <row r="87" spans="1:22" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>20</v>
       </c>
@@ -27036,9 +27184,12 @@
       <c r="U87" s="15">
         <v>-7.5549465338831254</v>
       </c>
-      <c r="V87" s="1"/>
+      <c r="V87" s="15">
+        <v>20.647409366274871</v>
+      </c>
+      <c r="W87" s="15"/>
     </row>
-    <row r="88" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>19</v>
       </c>
@@ -27102,9 +27253,12 @@
       <c r="U88" s="15">
         <v>18.902497907421775</v>
       </c>
-      <c r="V88" s="1"/>
+      <c r="V88" s="15">
+        <v>13.876179503107238</v>
+      </c>
+      <c r="W88" s="15"/>
     </row>
-    <row r="89" spans="1:22" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>18</v>
       </c>
@@ -27168,9 +27322,12 @@
       <c r="U89" s="15">
         <v>1.2201517931717802</v>
       </c>
-      <c r="V89" s="1"/>
+      <c r="V89" s="15">
+        <v>-4.2703309880067479</v>
+      </c>
+      <c r="W89" s="15"/>
     </row>
-    <row r="90" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>17</v>
       </c>
@@ -27234,9 +27391,12 @@
       <c r="U90" s="15">
         <v>21.476588538344842</v>
       </c>
-      <c r="V90" s="1"/>
+      <c r="V90" s="15">
+        <v>-4.2990902501791766</v>
+      </c>
+      <c r="W90" s="15"/>
     </row>
-    <row r="91" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>16</v>
       </c>
@@ -27300,9 +27460,12 @@
       <c r="U91" s="15">
         <v>11.096799604044463</v>
       </c>
-      <c r="V91" s="1"/>
+      <c r="V91" s="15">
+        <v>4.3756977652255102</v>
+      </c>
+      <c r="W91" s="15"/>
     </row>
-    <row r="92" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>15</v>
       </c>
@@ -27366,9 +27529,12 @@
       <c r="U92" s="15">
         <v>-1.5781432359191996</v>
       </c>
-      <c r="V92" s="1"/>
+      <c r="V92" s="15">
+        <v>-10.994130142907906</v>
+      </c>
+      <c r="W92" s="15"/>
     </row>
-    <row r="93" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>14</v>
       </c>
@@ -27432,9 +27598,12 @@
       <c r="U93" s="15">
         <v>3.9192985207250786E-2</v>
       </c>
-      <c r="V93" s="1"/>
+      <c r="V93" s="15">
+        <v>2.4102363973847787</v>
+      </c>
+      <c r="W93" s="15"/>
     </row>
-    <row r="94" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>13</v>
       </c>
@@ -27498,9 +27667,12 @@
       <c r="U94" s="15">
         <v>10.120768735359704</v>
       </c>
-      <c r="V94" s="1"/>
+      <c r="V94" s="15">
+        <v>-12.421888788391954</v>
+      </c>
+      <c r="W94" s="15"/>
     </row>
-    <row r="95" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>12</v>
       </c>
@@ -27564,9 +27736,12 @@
       <c r="U95" s="15">
         <v>-14.975003288916028</v>
       </c>
-      <c r="V95" s="1"/>
+      <c r="V95" s="15">
+        <v>26.974614726726799</v>
+      </c>
+      <c r="W95" s="15"/>
     </row>
-    <row r="96" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>11</v>
       </c>
@@ -27630,9 +27805,12 @@
       <c r="U96" s="15">
         <v>5.6725249211897051</v>
       </c>
-      <c r="V96" s="1"/>
+      <c r="V96" s="15">
+        <v>-3.4427461595706461</v>
+      </c>
+      <c r="W96" s="15"/>
     </row>
-    <row r="97" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
@@ -27696,9 +27874,12 @@
       <c r="U97" s="15">
         <v>2.5180076925028487</v>
       </c>
-      <c r="V97" s="1"/>
+      <c r="V97" s="15">
+        <v>-14.886455440859521</v>
+      </c>
+      <c r="W97" s="15"/>
     </row>
-    <row r="98" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
@@ -27762,9 +27943,12 @@
       <c r="U98" s="15">
         <v>42.191426474312209</v>
       </c>
-      <c r="V98" s="1"/>
+      <c r="V98" s="15">
+        <v>-27.403937172440692</v>
+      </c>
+      <c r="W98" s="15"/>
     </row>
-    <row r="99" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
@@ -27828,9 +28012,12 @@
       <c r="U99" s="15">
         <v>9.17493784041217</v>
       </c>
-      <c r="V99" s="1"/>
+      <c r="V99" s="15">
+        <v>-1.5549091171454705</v>
+      </c>
+      <c r="W99" s="15"/>
     </row>
-    <row r="100" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>7</v>
       </c>
@@ -27894,9 +28081,12 @@
       <c r="U100" s="15">
         <v>0.20703778411407825</v>
       </c>
-      <c r="V100" s="1"/>
+      <c r="V100" s="15">
+        <v>11.65648851117453</v>
+      </c>
+      <c r="W100" s="15"/>
     </row>
-    <row r="101" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>6</v>
       </c>
@@ -27960,9 +28150,12 @@
       <c r="U101" s="15">
         <v>4.7662088053434388</v>
       </c>
-      <c r="V101" s="1"/>
+      <c r="V101" s="15">
+        <v>7.2401622541365782</v>
+      </c>
+      <c r="W101" s="15"/>
     </row>
-    <row r="102" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>5</v>
       </c>
@@ -28026,9 +28219,12 @@
       <c r="U102" s="15">
         <v>6.5686783027269655</v>
       </c>
-      <c r="V102" s="1"/>
+      <c r="V102" s="15">
+        <v>16.251829430699033</v>
+      </c>
+      <c r="W102" s="15"/>
     </row>
-    <row r="103" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>4</v>
       </c>
@@ -28092,9 +28288,12 @@
       <c r="U103" s="15">
         <v>-31.103405710405625</v>
       </c>
-      <c r="V103" s="1"/>
+      <c r="V103" s="15">
+        <v>-31.308099227915804</v>
+      </c>
+      <c r="W103" s="15"/>
     </row>
-    <row r="104" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
@@ -28158,9 +28357,12 @@
       <c r="U104" s="15">
         <v>-3.7765222529059059</v>
       </c>
-      <c r="V104" s="1"/>
+      <c r="V104" s="15">
+        <v>10.702855933165623</v>
+      </c>
+      <c r="W104" s="15"/>
     </row>
-    <row r="105" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>2</v>
       </c>
@@ -28224,13 +28426,15 @@
       <c r="U105" s="15">
         <v>12.826381260559131</v>
       </c>
-      <c r="V105" s="1"/>
+      <c r="V105" s="15">
+        <v>11.974926205394482</v>
+      </c>
+      <c r="W105" s="15"/>
     </row>
-    <row r="106" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
-      <c r="V106" s="1"/>
     </row>
-    <row r="107" spans="1:22" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>1</v>
       </c>
@@ -28294,9 +28498,12 @@
       <c r="U107" s="15">
         <v>6.1265814729238173</v>
       </c>
-      <c r="V107" s="1"/>
+      <c r="V107" s="15">
+        <v>6.9384334212544871</v>
+      </c>
+      <c r="W107" s="15"/>
     </row>
-    <row r="108" spans="1:22" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -28318,53 +28525,53 @@
       <c r="S108" s="13"/>
       <c r="T108" s="13"/>
       <c r="U108" s="13"/>
+      <c r="V108" s="13"/>
+      <c r="W108" s="13"/>
     </row>
-    <row r="109" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
-      <c r="V110" s="1"/>
     </row>
-    <row r="111" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
-      <c r="V111" s="1"/>
     </row>
-    <row r="112" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="115" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="118" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="14" t="s">
         <v>23</v>
@@ -28388,8 +28595,10 @@
       <c r="S120" s="14"/>
       <c r="T120" s="14"/>
       <c r="U120" s="14"/>
+      <c r="V120" s="14"/>
+      <c r="W120" s="14"/>
     </row>
-    <row r="121" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>22</v>
       </c>
@@ -28451,13 +28660,17 @@
         <v>32</v>
       </c>
       <c r="U121" s="5" t="s">
-        <v>62</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="V121" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W121" s="5"/>
     </row>
-    <row r="122" spans="1:22" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
     </row>
-    <row r="123" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>21</v>
       </c>
@@ -28521,9 +28734,12 @@
       <c r="U123" s="15">
         <v>3.1349639968068601</v>
       </c>
-      <c r="V123" s="1"/>
+      <c r="V123" s="15">
+        <v>3.3479249726054121</v>
+      </c>
+      <c r="W123" s="15"/>
     </row>
-    <row r="124" spans="1:22" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>20</v>
       </c>
@@ -28587,9 +28803,12 @@
       <c r="U124" s="15">
         <v>2.4285900952156396</v>
       </c>
-      <c r="V124" s="1"/>
+      <c r="V124" s="15">
+        <v>2.1816689843090558</v>
+      </c>
+      <c r="W124" s="15"/>
     </row>
-    <row r="125" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>19</v>
       </c>
@@ -28653,9 +28872,12 @@
       <c r="U125" s="15">
         <v>-2.8464497194992333</v>
       </c>
-      <c r="V125" s="1"/>
+      <c r="V125" s="15">
+        <v>1.1022559844531514</v>
+      </c>
+      <c r="W125" s="15"/>
     </row>
-    <row r="126" spans="1:22" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>18</v>
       </c>
@@ -28719,9 +28941,12 @@
       <c r="U126" s="15">
         <v>21.290813329002845</v>
       </c>
-      <c r="V126" s="1"/>
+      <c r="V126" s="15">
+        <v>8.0095355375918444</v>
+      </c>
+      <c r="W126" s="15"/>
     </row>
-    <row r="127" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>17</v>
       </c>
@@ -28785,9 +29010,12 @@
       <c r="U127" s="15">
         <v>-1.2819800755326298</v>
       </c>
-      <c r="V127" s="1"/>
+      <c r="V127" s="15">
+        <v>0.86317700377907158</v>
+      </c>
+      <c r="W127" s="15"/>
     </row>
-    <row r="128" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>16</v>
       </c>
@@ -28851,9 +29079,12 @@
       <c r="U128" s="15">
         <v>-7.1432281882763959E-2</v>
       </c>
-      <c r="V128" s="1"/>
+      <c r="V128" s="15">
+        <v>0.23889784748934062</v>
+      </c>
+      <c r="W128" s="15"/>
     </row>
-    <row r="129" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>15</v>
       </c>
@@ -28917,9 +29148,12 @@
       <c r="U129" s="15">
         <v>-0.10971325113472119</v>
       </c>
-      <c r="V129" s="1"/>
+      <c r="V129" s="15">
+        <v>4.8037232727660779</v>
+      </c>
+      <c r="W129" s="15"/>
     </row>
-    <row r="130" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>14</v>
       </c>
@@ -28983,9 +29217,12 @@
       <c r="U130" s="15">
         <v>0.84769906049598376</v>
       </c>
-      <c r="V130" s="1"/>
+      <c r="V130" s="15">
+        <v>1.3799715973570699</v>
+      </c>
+      <c r="W130" s="15"/>
     </row>
-    <row r="131" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>13</v>
       </c>
@@ -29049,9 +29286,12 @@
       <c r="U131" s="15">
         <v>-0.97123174618482722</v>
       </c>
-      <c r="V131" s="1"/>
+      <c r="V131" s="15">
+        <v>-1.580142167162478</v>
+      </c>
+      <c r="W131" s="15"/>
     </row>
-    <row r="132" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
@@ -29115,9 +29355,12 @@
       <c r="U132" s="15">
         <v>3.1290273052037634</v>
       </c>
-      <c r="V132" s="1"/>
+      <c r="V132" s="15">
+        <v>0.48954966394248345</v>
+      </c>
+      <c r="W132" s="15"/>
     </row>
-    <row r="133" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
@@ -29181,9 +29424,12 @@
       <c r="U133" s="15">
         <v>9.8906652745739336</v>
       </c>
-      <c r="V133" s="1"/>
+      <c r="V133" s="15">
+        <v>8.3855772038674843</v>
+      </c>
+      <c r="W133" s="15"/>
     </row>
-    <row r="134" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>10</v>
       </c>
@@ -29247,9 +29493,12 @@
       <c r="U134" s="15">
         <v>-1.7077789116703173</v>
       </c>
-      <c r="V134" s="1"/>
+      <c r="V134" s="15">
+        <v>-11.062603921330833</v>
+      </c>
+      <c r="W134" s="15"/>
     </row>
-    <row r="135" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>9</v>
       </c>
@@ -29313,9 +29562,12 @@
       <c r="U135" s="15">
         <v>-1.6357069736487801</v>
       </c>
-      <c r="V135" s="1"/>
+      <c r="V135" s="15">
+        <v>-0.29502466832084906</v>
+      </c>
+      <c r="W135" s="15"/>
     </row>
-    <row r="136" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
@@ -29379,9 +29631,12 @@
       <c r="U136" s="15">
         <v>-1.3123238905326673</v>
       </c>
-      <c r="V136" s="1"/>
+      <c r="V136" s="15">
+        <v>-0.48521666789083895</v>
+      </c>
+      <c r="W136" s="15"/>
     </row>
-    <row r="137" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
@@ -29445,9 +29700,12 @@
       <c r="U137" s="15">
         <v>-6.8975402827821171</v>
       </c>
-      <c r="V137" s="1"/>
+      <c r="V137" s="15">
+        <v>-17.310432141617966</v>
+      </c>
+      <c r="W137" s="15"/>
     </row>
-    <row r="138" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>6</v>
       </c>
@@ -29511,9 +29769,12 @@
       <c r="U138" s="15">
         <v>-2.4285980028149794</v>
       </c>
-      <c r="V138" s="1"/>
+      <c r="V138" s="15">
+        <v>-0.30117224645405827</v>
+      </c>
+      <c r="W138" s="15"/>
     </row>
-    <row r="139" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>5</v>
       </c>
@@ -29577,9 +29838,12 @@
       <c r="U139" s="15">
         <v>-3.2234573501180819</v>
       </c>
-      <c r="V139" s="1"/>
+      <c r="V139" s="15">
+        <v>0.9297325809046697</v>
+      </c>
+      <c r="W139" s="15"/>
     </row>
-    <row r="140" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>4</v>
       </c>
@@ -29643,9 +29907,12 @@
       <c r="U140" s="15">
         <v>-4.3408058451012295</v>
       </c>
-      <c r="V140" s="1"/>
+      <c r="V140" s="15">
+        <v>5.9706160958920265</v>
+      </c>
+      <c r="W140" s="15"/>
     </row>
-    <row r="141" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>3</v>
       </c>
@@ -29709,9 +29976,12 @@
       <c r="U141" s="15">
         <v>-1.2989359014352289</v>
       </c>
-      <c r="V141" s="1"/>
+      <c r="V141" s="15">
+        <v>0.24579325921835959</v>
+      </c>
+      <c r="W141" s="15"/>
     </row>
-    <row r="142" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>2</v>
       </c>
@@ -29775,13 +30045,15 @@
       <c r="U142" s="15">
         <v>5.0060321039817097</v>
       </c>
-      <c r="V142" s="1"/>
+      <c r="V142" s="15">
+        <v>6.595487031509137</v>
+      </c>
+      <c r="W142" s="15"/>
     </row>
-    <row r="143" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
-      <c r="V143" s="1"/>
     </row>
-    <row r="144" spans="1:22" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
         <v>1</v>
       </c>
@@ -29845,9 +30117,12 @@
       <c r="U144" s="15">
         <v>-0.18559021204445969</v>
       </c>
-      <c r="V144" s="1"/>
+      <c r="V144" s="15">
+        <v>-0.27958110223865162</v>
+      </c>
+      <c r="W144" s="15"/>
     </row>
-    <row r="145" spans="1:22" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="13"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
@@ -29869,48 +30144,48 @@
       <c r="S145" s="13"/>
       <c r="T145" s="13"/>
       <c r="U145" s="13"/>
+      <c r="V145" s="13"/>
+      <c r="W145" s="13"/>
     </row>
-    <row r="146" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
-      <c r="V147" s="1"/>
     </row>
-    <row r="148" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
-      <c r="V148" s="1"/>
     </row>
-    <row r="149" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="151" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="154" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="14" t="s">
         <v>23</v>
@@ -29935,8 +30210,9 @@
       <c r="T156" s="14"/>
       <c r="U156" s="14"/>
       <c r="V156" s="14"/>
+      <c r="W156" s="14"/>
     </row>
-    <row r="157" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>22</v>
       </c>
@@ -30003,11 +30279,14 @@
       <c r="V157" s="5">
         <v>2020</v>
       </c>
+      <c r="W157" s="5">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="158" spans="1:22" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
     </row>
-    <row r="159" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>21</v>
       </c>
@@ -30074,8 +30353,11 @@
       <c r="V159" s="15">
         <v>89.470434176304721</v>
       </c>
+      <c r="W159" s="15">
+        <v>90.378573457566887</v>
+      </c>
     </row>
-    <row r="160" spans="1:22" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>20</v>
       </c>
@@ -30142,8 +30424,11 @@
       <c r="V160" s="15">
         <v>84.696279696272057</v>
       </c>
+      <c r="W160" s="15">
+        <v>100.00215136323307</v>
+      </c>
     </row>
-    <row r="161" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>19</v>
       </c>
@@ -30210,8 +30495,11 @@
       <c r="V161" s="15">
         <v>97.957067109430355</v>
       </c>
+      <c r="W161" s="15">
+        <v>110.33360679376685</v>
+      </c>
     </row>
-    <row r="162" spans="1:22" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
         <v>18</v>
       </c>
@@ -30278,8 +30566,11 @@
       <c r="V162" s="15">
         <v>90.608661440971161</v>
       </c>
+      <c r="W162" s="15">
+        <v>80.307142570250491</v>
+      </c>
     </row>
-    <row r="163" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>17</v>
       </c>
@@ -30346,8 +30637,11 @@
       <c r="V163" s="15">
         <v>140.36964461254109</v>
       </c>
+      <c r="W163" s="15">
+        <v>133.18540115166013</v>
+      </c>
     </row>
-    <row r="164" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>16</v>
       </c>
@@ -30414,8 +30708,11 @@
       <c r="V164" s="15">
         <v>103.16406211405157</v>
       </c>
+      <c r="W164" s="15">
+        <v>107.42158182776646</v>
+      </c>
     </row>
-    <row r="165" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>15</v>
       </c>
@@ -30482,8 +30779,11 @@
       <c r="V165" s="15">
         <v>108.0026966528645</v>
       </c>
+      <c r="W165" s="15">
+        <v>91.722637920802001</v>
+      </c>
     </row>
-    <row r="166" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>14</v>
       </c>
@@ -30550,8 +30850,11 @@
       <c r="V166" s="15">
         <v>95.130352388981422</v>
       </c>
+      <c r="W166" s="15">
+        <v>96.097105998558803</v>
+      </c>
     </row>
-    <row r="167" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>13</v>
       </c>
@@ -30618,8 +30921,11 @@
       <c r="V167" s="15">
         <v>135.08115522272871</v>
       </c>
+      <c r="W167" s="15">
+        <v>120.20086896266098</v>
+      </c>
     </row>
-    <row r="168" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>12</v>
       </c>
@@ -30686,8 +30992,11 @@
       <c r="V168" s="15">
         <v>85.986549278111127</v>
       </c>
+      <c r="W168" s="15">
+        <v>108.64919787959293</v>
+      </c>
     </row>
-    <row r="169" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>11</v>
       </c>
@@ -30754,8 +31063,11 @@
       <c r="V169" s="15">
         <v>89.448262418206085</v>
       </c>
+      <c r="W169" s="15">
+        <v>79.686604091746943</v>
+      </c>
     </row>
-    <row r="170" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>10</v>
       </c>
@@ -30822,8 +31134,11 @@
       <c r="V170" s="15">
         <v>97.004545606296233</v>
       </c>
+      <c r="W170" s="15">
+        <v>92.83384806541342</v>
+      </c>
     </row>
-    <row r="171" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>9</v>
       </c>
@@ -30890,8 +31205,11 @@
       <c r="V171" s="15">
         <v>136.34251780785294</v>
       </c>
+      <c r="W171" s="15">
+        <v>99.272177300280177</v>
+      </c>
     </row>
-    <row r="172" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>8</v>
       </c>
@@ -30958,8 +31276,11 @@
       <c r="V172" s="15">
         <v>104.50378194457446</v>
       </c>
+      <c r="W172" s="15">
+        <v>103.38046234600189</v>
+      </c>
     </row>
-    <row r="173" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>7</v>
       </c>
@@ -31026,8 +31347,11 @@
       <c r="V173" s="15">
         <v>110.57675404953883</v>
       </c>
+      <c r="W173" s="15">
+        <v>149.31281403333344</v>
+      </c>
     </row>
-    <row r="174" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>6</v>
       </c>
@@ -31094,8 +31418,11 @@
       <c r="V174" s="15">
         <v>107.20293283004611</v>
       </c>
+      <c r="W174" s="15">
+        <v>115.31188650715664</v>
+      </c>
     </row>
-    <row r="175" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>5</v>
       </c>
@@ -31162,8 +31489,11 @@
       <c r="V175" s="15">
         <v>82.41081537748812</v>
       </c>
+      <c r="W175" s="15">
+        <v>94.921563819947508</v>
+      </c>
     </row>
-    <row r="176" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>4</v>
       </c>
@@ -31230,8 +31560,11 @@
       <c r="V176" s="15">
         <v>62.461088084552863</v>
       </c>
+      <c r="W176" s="15">
+        <v>40.488307258098885</v>
+      </c>
     </row>
-    <row r="177" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>3</v>
       </c>
@@ -31298,8 +31631,11 @@
       <c r="V177" s="15">
         <v>100.44028172500592</v>
       </c>
+      <c r="W177" s="15">
+        <v>110.9176323133881</v>
+      </c>
     </row>
-    <row r="178" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>2</v>
       </c>
@@ -31366,11 +31702,14 @@
       <c r="V178" s="15">
         <v>108.48791017107405</v>
       </c>
+      <c r="W178" s="15">
+        <v>113.96285221711695</v>
+      </c>
     </row>
-    <row r="179" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="12"/>
     </row>
-    <row r="180" spans="1:22" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
         <v>1</v>
       </c>
@@ -31437,8 +31776,11 @@
       <c r="V180" s="15">
         <v>102.60963464728572</v>
       </c>
+      <c r="W180" s="15">
+        <v>110.03677786750998</v>
+      </c>
     </row>
-    <row r="181" spans="1:22" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="13"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -31461,45 +31803,46 @@
       <c r="T181" s="13"/>
       <c r="U181" s="13"/>
       <c r="V181" s="13"/>
+      <c r="W181" s="13"/>
     </row>
-    <row r="182" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="188" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="191" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="14" t="s">
         <v>23</v>
@@ -31524,8 +31867,9 @@
       <c r="T193" s="14"/>
       <c r="U193" s="14"/>
       <c r="V193" s="14"/>
+      <c r="W193" s="14"/>
     </row>
-    <row r="194" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>22</v>
       </c>
@@ -31592,11 +31936,14 @@
       <c r="V194" s="5">
         <v>2020</v>
       </c>
+      <c r="W194" s="5">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="195" spans="1:22" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
     </row>
-    <row r="196" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>21</v>
       </c>
@@ -31663,8 +32010,11 @@
       <c r="V196" s="15">
         <v>18.080303268727331</v>
       </c>
+      <c r="W196" s="15">
+        <v>17.650604820421023</v>
+      </c>
     </row>
-    <row r="197" spans="1:22" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>20</v>
       </c>
@@ -31731,8 +32081,11 @@
       <c r="V197" s="15">
         <v>4.7523878494043581</v>
       </c>
+      <c r="W197" s="15">
+        <v>5.3616203640817472</v>
+      </c>
     </row>
-    <row r="198" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>19</v>
       </c>
@@ -31799,8 +32152,11 @@
       <c r="V198" s="15">
         <v>4.3965192733664908</v>
       </c>
+      <c r="W198" s="15">
+        <v>4.6817481979612099</v>
+      </c>
     </row>
-    <row r="199" spans="1:22" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
         <v>18</v>
       </c>
@@ -31867,8 +32223,11 @@
       <c r="V199" s="15">
         <v>1.5329581071359295</v>
       </c>
+      <c r="W199" s="15">
+        <v>1.3722809238030886</v>
+      </c>
     </row>
-    <row r="200" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>17</v>
       </c>
@@ -31935,8 +32294,11 @@
       <c r="V200" s="15">
         <v>10.266004551231928</v>
       </c>
+      <c r="W200" s="15">
+        <v>9.1872112169302369</v>
+      </c>
     </row>
-    <row r="201" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>16</v>
       </c>
@@ -32003,8 +32365,11 @@
       <c r="V201" s="15">
         <v>1.9441849079095159</v>
       </c>
+      <c r="W201" s="15">
+        <v>1.8975933147281738</v>
+      </c>
     </row>
-    <row r="202" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>15</v>
       </c>
@@ -32071,8 +32436,11 @@
       <c r="V202" s="15">
         <v>1.640851160503894</v>
       </c>
+      <c r="W202" s="15">
+        <v>1.3656959446129395</v>
+      </c>
     </row>
-    <row r="203" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>14</v>
       </c>
@@ -32139,8 +32507,11 @@
       <c r="V203" s="15">
         <v>0.30743936425414969</v>
       </c>
+      <c r="W203" s="15">
+        <v>0.29442116331649365</v>
+      </c>
     </row>
-    <row r="204" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>13</v>
       </c>
@@ -32207,8 +32578,11 @@
       <c r="V204" s="15">
         <v>1.4801584716510436</v>
       </c>
+      <c r="W204" s="15">
+        <v>1.2121879767063659</v>
+      </c>
     </row>
-    <row r="205" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>12</v>
       </c>
@@ -32275,8 +32649,11 @@
       <c r="V205" s="15">
         <v>0.47274720335567311</v>
       </c>
+      <c r="W205" s="15">
+        <v>0.56132198769702146</v>
+      </c>
     </row>
-    <row r="206" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>11</v>
       </c>
@@ -32343,8 +32720,11 @@
       <c r="V206" s="15">
         <v>8.8548061770609268E-2</v>
       </c>
+      <c r="W206" s="15">
+        <v>7.995215007295399E-2</v>
+      </c>
     </row>
-    <row r="207" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>10</v>
       </c>
@@ -32411,8 +32791,11 @@
       <c r="V207" s="15">
         <v>9.6952935824170361E-2</v>
       </c>
+      <c r="W207" s="15">
+        <v>7.7165970731060754E-2</v>
+      </c>
     </row>
-    <row r="208" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>9</v>
       </c>
@@ -32479,8 +32862,11 @@
       <c r="V208" s="15">
         <v>0.10349024041962872</v>
       </c>
+      <c r="W208" s="15">
+        <v>7.0255227752844041E-2</v>
+      </c>
     </row>
-    <row r="209" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>8</v>
       </c>
@@ -32547,8 +32933,11 @@
       <c r="V209" s="15">
         <v>5.3349403213181423</v>
       </c>
+      <c r="W209" s="15">
+        <v>4.9112247859279385</v>
+      </c>
     </row>
-    <row r="210" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>7</v>
       </c>
@@ -32615,8 +33004,11 @@
       <c r="V210" s="15">
         <v>13.103013212057432</v>
       </c>
+      <c r="W210" s="15">
+        <v>13.681109750417139</v>
+      </c>
     </row>
-    <row r="211" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>6</v>
       </c>
@@ -32683,8 +33075,11 @@
       <c r="V211" s="15">
         <v>10.298157896578996</v>
       </c>
+      <c r="W211" s="15">
+        <v>10.3272143458233</v>
+      </c>
     </row>
-    <row r="212" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>5</v>
       </c>
@@ -32751,8 +33146,11 @@
       <c r="V212" s="15">
         <v>3.0953762370888742</v>
       </c>
+      <c r="W212" s="15">
+        <v>3.3649562540381703</v>
+      </c>
     </row>
-    <row r="213" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>4</v>
       </c>
@@ -32819,8 +33217,11 @@
       <c r="V213" s="15">
         <v>9.903170685146892E-2</v>
       </c>
+      <c r="W213" s="15">
+        <v>6.3613015103129153E-2</v>
+      </c>
     </row>
-    <row r="214" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>3</v>
       </c>
@@ -32887,8 +33288,11 @@
       <c r="V214" s="15">
         <v>12.270628102482727</v>
       </c>
+      <c r="W214" s="15">
+        <v>12.702575973668715</v>
+      </c>
     </row>
-    <row r="215" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>2</v>
       </c>
@@ -32955,11 +33359,14 @@
       <c r="V215" s="15">
         <v>10.636307128067639</v>
       </c>
+      <c r="W215" s="15">
+        <v>11.137246616206449</v>
+      </c>
     </row>
-    <row r="216" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="12"/>
     </row>
-    <row r="217" spans="1:22" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
         <v>1</v>
       </c>
@@ -33026,8 +33433,11 @@
       <c r="V217" s="15">
         <v>100</v>
       </c>
+      <c r="W217" s="15">
+        <v>100</v>
+      </c>
     </row>
-    <row r="218" spans="1:22" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="13"/>
       <c r="B218" s="13"/>
       <c r="C218" s="13"/>
@@ -33050,51 +33460,52 @@
       <c r="T218" s="13"/>
       <c r="U218" s="13"/>
       <c r="V218" s="13"/>
+      <c r="W218" s="13"/>
     </row>
-    <row r="219" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="12"/>
     </row>
-    <row r="221" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="12"/>
     </row>
-    <row r="222" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="225" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="228" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="14" t="s">
         <v>23</v>
@@ -33119,8 +33530,9 @@
       <c r="T230" s="14"/>
       <c r="U230" s="14"/>
       <c r="V230" s="14"/>
+      <c r="W230" s="14"/>
     </row>
-    <row r="231" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>22</v>
       </c>
@@ -33187,11 +33599,14 @@
       <c r="V231" s="5">
         <v>2020</v>
       </c>
+      <c r="W231" s="5">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="232" spans="1:22" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
     </row>
-    <row r="233" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>21</v>
       </c>
@@ -33258,8 +33673,11 @@
       <c r="V233" s="15">
         <v>20.735490218595256</v>
       </c>
+      <c r="W233" s="15">
+        <v>21.489780238274591</v>
+      </c>
     </row>
-    <row r="234" spans="1:22" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>20</v>
       </c>
@@ -33326,8 +33744,11 @@
       <c r="V234" s="15">
         <v>5.7575230302712423</v>
       </c>
+      <c r="W234" s="15">
+        <v>5.8996273677097371</v>
+      </c>
     </row>
-    <row r="235" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>19</v>
       </c>
@@ -33394,8 +33815,11 @@
       <c r="V235" s="15">
         <v>4.6053362934592768</v>
       </c>
+      <c r="W235" s="15">
+        <v>4.6691529576623658</v>
+      </c>
     </row>
-    <row r="236" spans="1:22" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="11" t="s">
         <v>18</v>
       </c>
@@ -33462,8 +33886,11 @@
       <c r="V236" s="15">
         <v>1.7359959721431955</v>
       </c>
+      <c r="W236" s="15">
+        <v>1.8802981447416089</v>
+      </c>
     </row>
-    <row r="237" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>17</v>
       </c>
@@ -33530,8 +33957,11 @@
       <c r="V237" s="15">
         <v>7.5044072327527083</v>
       </c>
+      <c r="W237" s="15">
+        <v>7.5904048879057457</v>
+      </c>
     </row>
-    <row r="238" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>16</v>
       </c>
@@ -33598,8 +34028,11 @@
       <c r="V238" s="15">
         <v>1.9337364097471901</v>
       </c>
+      <c r="W238" s="15">
+        <v>1.9437905354103044</v>
+      </c>
     </row>
-    <row r="239" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>15</v>
       </c>
@@ -33666,8 +34099,11 @@
       <c r="V239" s="15">
         <v>1.5589160577261736</v>
       </c>
+      <c r="W239" s="15">
+        <v>1.6383826795484218</v>
+      </c>
     </row>
-    <row r="240" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>14</v>
       </c>
@@ -33734,8 +34170,11 @@
       <c r="V240" s="15">
         <v>0.33161067997858029</v>
       </c>
+      <c r="W240" s="15">
+        <v>0.33712936316559589</v>
+      </c>
     </row>
-    <row r="241" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>13</v>
       </c>
@@ -33802,8 +34241,11 @@
       <c r="V241" s="15">
         <v>1.124350171167646</v>
       </c>
+      <c r="W241" s="15">
+        <v>1.1096863132323891</v>
+      </c>
     </row>
-    <row r="242" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>12</v>
       </c>
@@ -33870,8 +34312,11 @@
       <c r="V242" s="15">
         <v>0.56413960350889536</v>
       </c>
+      <c r="W242" s="15">
+        <v>0.56849073971826858</v>
+      </c>
     </row>
-    <row r="243" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>11</v>
       </c>
@@ -33938,8 +34383,11 @@
       <c r="V243" s="15">
         <v>0.1015769789303161</v>
       </c>
+      <c r="W243" s="15">
+        <v>0.11040346213622404</v>
+      </c>
     </row>
-    <row r="244" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>10</v>
       </c>
@@ -34006,8 +34454,11 @@
       <c r="V244" s="15">
         <v>0.10255504276342024</v>
       </c>
+      <c r="W244" s="15">
+        <v>9.1465504847773174E-2</v>
+      </c>
     </row>
-    <row r="245" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>9</v>
       </c>
@@ -34074,8 +34525,11 @@
       <c r="V245" s="15">
         <v>7.7885430970134492E-2</v>
       </c>
+      <c r="W245" s="15">
+        <v>7.7873368959030631E-2</v>
+      </c>
     </row>
-    <row r="246" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>8</v>
       </c>
@@ -34142,8 +34596,11 @@
       <c r="V246" s="15">
         <v>5.2382436984516021</v>
       </c>
+      <c r="W246" s="15">
+        <v>5.2274418063430321</v>
+      </c>
     </row>
-    <row r="247" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>7</v>
       </c>
@@ -34210,8 +34667,11 @@
       <c r="V247" s="15">
         <v>12.158933493973167</v>
       </c>
+      <c r="W247" s="15">
+        <v>10.082357929786227</v>
+      </c>
     </row>
-    <row r="248" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>6</v>
       </c>
@@ -34278,8 +34738,11 @@
       <c r="V248" s="15">
         <v>9.8569152112960587</v>
       </c>
+      <c r="W248" s="15">
+        <v>9.8547810237324818</v>
+      </c>
     </row>
-    <row r="249" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>5</v>
       </c>
@@ -34346,8 +34809,11 @@
       <c r="V249" s="15">
         <v>3.8540502642610823</v>
       </c>
+      <c r="W249" s="15">
+        <v>3.9007884927162948</v>
+      </c>
     </row>
-    <row r="250" spans="1:22" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>4</v>
       </c>
@@ -34414,8 +34880,11 @@
       <c r="V250" s="15">
         <v>0.16268700354324081</v>
       </c>
+      <c r="W250" s="15">
+        <v>0.17288377031335178</v>
+      </c>
     </row>
-    <row r="251" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>3</v>
       </c>
@@ -34482,8 +34951,11 @@
       <c r="V251" s="15">
         <v>12.535654469147147</v>
       </c>
+      <c r="W251" s="15">
+        <v>12.601698229642441</v>
+      </c>
     </row>
-    <row r="252" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>2</v>
       </c>
@@ -34550,11 +35022,14 @@
       <c r="V252" s="15">
         <v>10.059992737313655</v>
       </c>
+      <c r="W252" s="15">
+        <v>10.753563184154126</v>
+      </c>
     </row>
-    <row r="253" spans="1:22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="12"/>
     </row>
-    <row r="254" spans="1:22" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:23" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="11" t="s">
         <v>1</v>
       </c>
@@ -34621,8 +35096,11 @@
       <c r="V254" s="15">
         <v>100</v>
       </c>
+      <c r="W254" s="15">
+        <v>100</v>
+      </c>
     </row>
-    <row r="255" spans="1:22" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:23" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="13"/>
       <c r="B255" s="13"/>
       <c r="C255" s="13"/>
@@ -34645,8 +35123,9 @@
       <c r="T255" s="13"/>
       <c r="U255" s="13"/>
       <c r="V255" s="13"/>
+      <c r="W255" s="13"/>
     </row>
-    <row r="256" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>0</v>
       </c>

--- a/Data/National Accounts/PSA-08AFF_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-08AFF_2018PSNA_Ann.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D2B6D5-1A29-4097-9052-48B339556507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFF" sheetId="1" r:id="rId1"/>
@@ -648,23 +649,22 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2021</t>
   </si>
   <si>
     <t>Annual 2001 to 2021</t>
   </si>
+  <si>
+    <t>As of April 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -745,7 +745,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -773,13 +773,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23575,14 +23574,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:W258"/>
+  <dimension ref="A1:W256"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -23606,7 +23605,7 @@
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -23617,7 +23616,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -23795,7 +23794,7 @@
         <v>330328.98356238334</v>
       </c>
       <c r="W12" s="8">
-        <v>344853.29466590576</v>
+        <v>345840.42592162965</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -23866,7 +23865,7 @@
         <v>86826.61039780578</v>
       </c>
       <c r="W13" s="8">
-        <v>104754.05608550132</v>
+        <v>104357.01093047486</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23934,10 +23933,10 @@
         <v>67555.22941500922</v>
       </c>
       <c r="V14" s="8">
-        <v>80324.855241535319</v>
+        <v>80312.822199239294</v>
       </c>
       <c r="W14" s="8">
-        <v>91470.876340461808</v>
+        <v>91168.245879529655</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -24008,7 +24007,7 @@
         <v>28007.300864791894</v>
       </c>
       <c r="W15" s="8">
-        <v>26811.296417058402</v>
+        <v>26373.910445372014</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24079,7 +24078,7 @@
         <v>187560.94951796386</v>
       </c>
       <c r="W16" s="8">
-        <v>179497.53502409358</v>
+        <v>178611.95779758133</v>
       </c>
     </row>
     <row r="17" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24150,7 +24149,7 @@
         <v>35520.456429394944</v>
       </c>
       <c r="W17" s="8">
-        <v>37074.724247573882</v>
+        <v>37454.117835392623</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24218,10 +24217,10 @@
         <v>30459.207875675296</v>
       </c>
       <c r="V18" s="8">
-        <v>29978.517946870757</v>
+        <v>29978.517946870761</v>
       </c>
       <c r="W18" s="8">
-        <v>26682.640668876782</v>
+        <v>26489.84309479285</v>
       </c>
     </row>
     <row r="19" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24292,7 +24291,7 @@
         <v>5616.9485208135611</v>
       </c>
       <c r="W19" s="8">
-        <v>5752.3302584845751</v>
+        <v>5676.1421915527008</v>
       </c>
     </row>
     <row r="20" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24360,10 +24359,10 @@
         <v>24557.262406917762</v>
       </c>
       <c r="V20" s="8">
-        <v>27042.646142857335</v>
+        <v>27042.646142857331</v>
       </c>
       <c r="W20" s="8">
-        <v>23683.438713553231</v>
+        <v>23740.18181979574</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24431,10 +24430,10 @@
         <v>10158.353336514134</v>
       </c>
       <c r="V21" s="8">
-        <v>8637.1395902714321</v>
+        <v>8639.6543879453784</v>
       </c>
       <c r="W21" s="8">
-        <v>10966.97471815674</v>
+        <v>11000.352547833956</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24502,10 +24501,10 @@
         <v>1530.9392058674516</v>
       </c>
       <c r="V22" s="8">
-        <v>1617.7821138485467</v>
+        <v>1617.7821138485465</v>
       </c>
       <c r="W22" s="8">
-        <v>1562.085982253805</v>
+        <v>1591.8452583462824</v>
       </c>
     </row>
     <row r="23" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24573,10 +24572,10 @@
         <v>1727.8330503559632</v>
       </c>
       <c r="V23" s="8">
-        <v>1771.3400194775331</v>
+        <v>1771.5236727851957</v>
       </c>
       <c r="W23" s="8">
-        <v>1507.650276771898</v>
+        <v>1506.5762435550848</v>
       </c>
     </row>
     <row r="24" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24644,10 +24643,10 @@
         <v>1329.7406796152636</v>
       </c>
       <c r="V24" s="8">
-        <v>1890.777240754157</v>
+        <v>2675.5244837357277</v>
       </c>
       <c r="W24" s="8">
-        <v>1372.62983362708</v>
+        <v>1522.1661159086398</v>
       </c>
     </row>
     <row r="25" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24718,7 +24717,7 @@
         <v>97469.903436583409</v>
       </c>
       <c r="W25" s="8">
-        <v>95954.335021575098</v>
+        <v>96081.741505805345</v>
       </c>
     </row>
     <row r="26" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24786,10 +24785,10 @@
         <v>238898.77618209823</v>
       </c>
       <c r="V26" s="8">
-        <v>239393.38691458129</v>
+        <v>239393.38691458132</v>
       </c>
       <c r="W26" s="8">
-        <v>267298.24955679104</v>
+        <v>267859.60717039392</v>
       </c>
     </row>
     <row r="27" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24857,10 +24856,10 @@
         <v>179588.81643248143</v>
       </c>
       <c r="V27" s="8">
-        <v>188148.39441469841</v>
+        <v>188148.39441469838</v>
       </c>
       <c r="W27" s="8">
-        <v>201770.6434488754</v>
+        <v>201451.25100121193</v>
       </c>
     </row>
     <row r="28" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24928,10 +24927,10 @@
         <v>53067.036440602184</v>
       </c>
       <c r="V28" s="8">
-        <v>56552.839349176225</v>
+        <v>56552.839349176211</v>
       </c>
       <c r="W28" s="8">
-        <v>65743.710338421588</v>
+        <v>66121.803884301538</v>
       </c>
     </row>
     <row r="29" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24999,10 +24998,10 @@
         <v>2626.1376149026573</v>
       </c>
       <c r="V29" s="8">
-        <v>1809.3193780259144</v>
+        <v>1932.2654730713966</v>
       </c>
       <c r="W29" s="8">
-        <v>1242.855871803652</v>
+        <v>1371.8322925945586</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25070,10 +25069,10 @@
         <v>232984.3312363642</v>
       </c>
       <c r="V30" s="8">
-        <v>224185.62612143889</v>
+        <v>224700.67805955582</v>
       </c>
       <c r="W30" s="8">
-        <v>248179.89070808183</v>
+        <v>248266.14937397069</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25144,7 +25143,7 @@
         <v>194326.41534000268</v>
       </c>
       <c r="W31" s="8">
-        <v>217596.86017455638</v>
+        <v>217859.48258625247</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25215,10 +25214,10 @@
         <v>1721538.720258696</v>
       </c>
       <c r="V33" s="10">
-        <v>1827010.1925432752</v>
+        <v>1828423.603228105</v>
       </c>
       <c r="W33" s="10">
-        <v>1953776.0783524239</v>
+        <v>1954344.6438962957</v>
       </c>
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -25269,7 +25268,7 @@
     </row>
     <row r="40" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -25280,7 +25279,7 @@
     </row>
     <row r="43" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -25455,10 +25454,10 @@
         <v>357982.02042371046</v>
       </c>
       <c r="V49" s="8">
-        <v>369204.6278790356</v>
+        <v>369204.62787903554</v>
       </c>
       <c r="W49" s="8">
-        <v>381565.32181581273</v>
+        <v>381565.32181581261</v>
       </c>
     </row>
     <row r="50" spans="1:23" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25597,10 +25596,10 @@
         <v>84402.537252414681</v>
       </c>
       <c r="V51" s="8">
-        <v>82000.061467543084</v>
+        <v>81985.88490082002</v>
       </c>
       <c r="W51" s="8">
-        <v>82903.912052324333</v>
+        <v>82889.304113794686</v>
       </c>
     </row>
     <row r="52" spans="1:23" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -25884,7 +25883,7 @@
         <v>27757.193918246165</v>
       </c>
       <c r="W55" s="8">
-        <v>29090.572702363766</v>
+        <v>29090.57270236377</v>
       </c>
     </row>
     <row r="56" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25952,7 +25951,7 @@
         <v>5854.8442202443848</v>
       </c>
       <c r="V56" s="8">
-        <v>5904.4756796928996</v>
+        <v>5904.4756796929005</v>
       </c>
       <c r="W56" s="8">
         <v>5985.9557670455179</v>
@@ -26094,10 +26093,10 @@
         <v>9739.9896712747359</v>
       </c>
       <c r="V58" s="8">
-        <v>10044.75660761295</v>
+        <v>10047.161695840674</v>
       </c>
       <c r="W58" s="8">
-        <v>10093.930679829358</v>
+        <v>10096.288009446189</v>
       </c>
     </row>
     <row r="59" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26236,10 +26235,10 @@
         <v>1857.7646730802444</v>
       </c>
       <c r="V60" s="8">
-        <v>1826.0381597649189</v>
+        <v>1826.2033100288477</v>
       </c>
       <c r="W60" s="8">
-        <v>1624.0307906977678</v>
+        <v>1624.1777540216349</v>
       </c>
     </row>
     <row r="61" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26307,10 +26306,10 @@
         <v>1409.8456913789209</v>
       </c>
       <c r="V61" s="8">
-        <v>1386.7847470873489</v>
+        <v>1761.7047428999299</v>
       </c>
       <c r="W61" s="8">
-        <v>1382.6933899869305</v>
+        <v>1775.1934449203527</v>
       </c>
     </row>
     <row r="62" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26449,10 +26448,10 @@
         <v>232534.37194567628</v>
       </c>
       <c r="V63" s="8">
-        <v>216495.21996940885</v>
+        <v>216495.21996940882</v>
       </c>
       <c r="W63" s="8">
-        <v>179018.96182675779</v>
+        <v>179029.14039923021</v>
       </c>
     </row>
     <row r="64" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26520,7 +26519,7 @@
         <v>179875.20601503618</v>
       </c>
       <c r="V64" s="8">
-        <v>175506.76035419569</v>
+        <v>175506.76035419566</v>
       </c>
       <c r="W64" s="8">
         <v>174978.18270135822</v>
@@ -26594,7 +26593,7 @@
         <v>68623.079495248589</v>
       </c>
       <c r="W65" s="8">
-        <v>69261.090623336029</v>
+        <v>69263.169057375897</v>
       </c>
     </row>
     <row r="66" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26662,10 +26661,10 @@
         <v>3028.1610646737558</v>
       </c>
       <c r="V66" s="8">
-        <v>2896.7144721793179</v>
+        <v>2592.7209691580465</v>
       </c>
       <c r="W66" s="8">
-        <v>3069.6661727072901</v>
+        <v>2690.7030694747882</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26733,10 +26732,10 @@
         <v>226140.32235786878</v>
       </c>
       <c r="V67" s="8">
-        <v>223202.90452314107</v>
+        <v>222989.66174292218</v>
       </c>
       <c r="W67" s="8">
-        <v>223751.52221683855</v>
+        <v>223529.49133291474</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26878,10 +26877,10 @@
         <v>1783855.1472581751</v>
       </c>
       <c r="V70" s="10">
-        <v>1780544.4867078126</v>
+        <v>1780390.5640921537</v>
       </c>
       <c r="W70" s="10">
-        <v>1775566.4208060254</v>
+        <v>1775358.0802347257</v>
       </c>
     </row>
     <row r="71" spans="1:23" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -26932,7 +26931,7 @@
     </row>
     <row r="77" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -26943,7 +26942,7 @@
     </row>
     <row r="80" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -27116,7 +27115,7 @@
         <v>9.3944990238383497</v>
       </c>
       <c r="V86" s="15">
-        <v>4.396923015015858</v>
+        <v>4.6957557862363331</v>
       </c>
       <c r="W86" s="15"/>
     </row>
@@ -27185,7 +27184,7 @@
         <v>-7.5549465338831254</v>
       </c>
       <c r="V87" s="15">
-        <v>20.647409366274871</v>
+        <v>20.190124263001394</v>
       </c>
       <c r="W87" s="15"/>
     </row>
@@ -27251,10 +27250,10 @@
         <v>-19.122216711801684</v>
       </c>
       <c r="U88" s="15">
-        <v>18.902497907421775</v>
+        <v>18.884685752241154</v>
       </c>
       <c r="V88" s="15">
-        <v>13.876179503107238</v>
+        <v>13.516426621592672</v>
       </c>
       <c r="W88" s="15"/>
     </row>
@@ -27323,7 +27322,7 @@
         <v>1.2201517931717802</v>
       </c>
       <c r="V89" s="15">
-        <v>-4.2703309880067479</v>
+        <v>-5.8320165420625187</v>
       </c>
       <c r="W89" s="15"/>
     </row>
@@ -27392,7 +27391,7 @@
         <v>21.476588538344842</v>
       </c>
       <c r="V90" s="15">
-        <v>-4.2990902501791766</v>
+        <v>-4.7712446238844706</v>
       </c>
       <c r="W90" s="15"/>
     </row>
@@ -27461,7 +27460,7 @@
         <v>11.096799604044463</v>
       </c>
       <c r="V91" s="15">
-        <v>4.3756977652255102</v>
+        <v>5.4437966185521276</v>
       </c>
       <c r="W91" s="15"/>
     </row>
@@ -27530,7 +27529,7 @@
         <v>-1.5781432359191996</v>
       </c>
       <c r="V92" s="15">
-        <v>-10.994130142907906</v>
+        <v>-11.637249240475114</v>
       </c>
       <c r="W92" s="15"/>
     </row>
@@ -27599,7 +27598,7 @@
         <v>3.9192985207250786E-2</v>
       </c>
       <c r="V93" s="15">
-        <v>2.4102363973847787</v>
+        <v>1.05384036403035</v>
       </c>
       <c r="W93" s="15"/>
     </row>
@@ -27665,10 +27664,10 @@
         <v>17.320564419015838</v>
       </c>
       <c r="U94" s="15">
-        <v>10.120768735359704</v>
+        <v>10.120768735359675</v>
       </c>
       <c r="V94" s="15">
-        <v>-12.421888788391954</v>
+        <v>-12.212060556558583</v>
       </c>
       <c r="W94" s="15"/>
     </row>
@@ -27734,10 +27733,10 @@
         <v>6.9462385952154193</v>
       </c>
       <c r="U95" s="15">
-        <v>-14.975003288916028</v>
+        <v>-14.950247331029558</v>
       </c>
       <c r="V95" s="15">
-        <v>26.974614726726799</v>
+        <v>27.323988366738149</v>
       </c>
       <c r="W95" s="15"/>
     </row>
@@ -27806,7 +27805,7 @@
         <v>5.6725249211897051</v>
       </c>
       <c r="V96" s="15">
-        <v>-3.4427461595706461</v>
+        <v>-1.6032353974147213</v>
       </c>
       <c r="W96" s="15"/>
     </row>
@@ -27872,10 +27871,10 @@
         <v>-3.1617718060071809</v>
       </c>
       <c r="U97" s="15">
-        <v>2.5180076925028487</v>
+        <v>2.5286368043620655</v>
       </c>
       <c r="V97" s="15">
-        <v>-14.886455440859521</v>
+        <v>-14.955906788056609</v>
       </c>
       <c r="W97" s="15"/>
     </row>
@@ -27941,10 +27940,10 @@
         <v>-1.7904034651111118</v>
       </c>
       <c r="U98" s="15">
-        <v>42.191426474312209</v>
+        <v>101.20648520054618</v>
       </c>
       <c r="V98" s="15">
-        <v>-27.403937172440692</v>
+        <v>-43.10774858680044</v>
       </c>
       <c r="W98" s="15"/>
     </row>
@@ -28013,7 +28012,7 @@
         <v>9.17493784041217</v>
       </c>
       <c r="V99" s="15">
-        <v>-1.5549091171454705</v>
+        <v>-1.4241954509385977</v>
       </c>
       <c r="W99" s="15"/>
     </row>
@@ -28082,7 +28081,7 @@
         <v>0.20703778411407825</v>
       </c>
       <c r="V100" s="15">
-        <v>11.65648851117453</v>
+        <v>11.89098020738966</v>
       </c>
       <c r="W100" s="15"/>
     </row>
@@ -28148,10 +28147,10 @@
         <v>5.6413914376512508</v>
       </c>
       <c r="U101" s="15">
-        <v>4.7662088053434388</v>
+        <v>4.7662088053434246</v>
       </c>
       <c r="V101" s="15">
-        <v>7.2401622541365782</v>
+        <v>7.0704066478466387</v>
       </c>
       <c r="W101" s="15"/>
     </row>
@@ -28217,10 +28216,10 @@
         <v>-1.3813461167944752</v>
       </c>
       <c r="U102" s="15">
-        <v>6.5686783027269655</v>
+        <v>6.5686783027269087</v>
       </c>
       <c r="V102" s="15">
-        <v>16.251829430699033</v>
+        <v>16.920396297068891</v>
       </c>
       <c r="W102" s="15"/>
     </row>
@@ -28286,10 +28285,10 @@
         <v>-8.9546616470160103</v>
       </c>
       <c r="U103" s="15">
-        <v>-31.103405710405625</v>
+        <v>-26.421773858830335</v>
       </c>
       <c r="V103" s="15">
-        <v>-31.308099227915804</v>
+        <v>-29.003943210039978</v>
       </c>
       <c r="W103" s="15"/>
     </row>
@@ -28355,10 +28354,10 @@
         <v>5.614593945565403</v>
       </c>
       <c r="U104" s="15">
-        <v>-3.7765222529059059</v>
+        <v>-3.5554550526423867</v>
       </c>
       <c r="V104" s="15">
-        <v>10.702855933165623</v>
+        <v>10.487494527350265</v>
       </c>
       <c r="W104" s="15"/>
     </row>
@@ -28427,7 +28426,7 @@
         <v>12.826381260559131</v>
       </c>
       <c r="V105" s="15">
-        <v>11.974926205394482</v>
+        <v>12.110071193911139</v>
       </c>
       <c r="W105" s="15"/>
     </row>
@@ -28496,10 +28495,10 @@
         <v>-2.3304999357333713</v>
       </c>
       <c r="U107" s="15">
-        <v>6.1265814729238173</v>
+        <v>6.2086830642616775</v>
       </c>
       <c r="V107" s="15">
-        <v>6.9384334212544871</v>
+        <v>6.8868636592677603</v>
       </c>
       <c r="W107" s="15"/>
     </row>
@@ -28551,7 +28550,7 @@
     </row>
     <row r="114" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -28562,7 +28561,7 @@
     </row>
     <row r="117" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="118" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -28870,10 +28869,10 @@
         <v>1.0475454822189505</v>
       </c>
       <c r="U125" s="15">
-        <v>-2.8464497194992333</v>
+        <v>-2.8632460945663354</v>
       </c>
       <c r="V125" s="15">
-        <v>1.1022559844531514</v>
+        <v>1.1019204269949086</v>
       </c>
       <c r="W125" s="15"/>
     </row>
@@ -29149,7 +29148,7 @@
         <v>-0.10971325113472119</v>
       </c>
       <c r="V129" s="15">
-        <v>4.8037232727660779</v>
+        <v>4.8037232727661063</v>
       </c>
       <c r="W129" s="15"/>
     </row>
@@ -29215,10 +29214,10 @@
         <v>-1.6908096625949298</v>
       </c>
       <c r="U130" s="15">
-        <v>0.84769906049598376</v>
+        <v>0.84769906049599797</v>
       </c>
       <c r="V130" s="15">
-        <v>1.3799715973570699</v>
+        <v>1.3799715973570557</v>
       </c>
       <c r="W130" s="15"/>
     </row>
@@ -29353,10 +29352,10 @@
         <v>2.5417432129338096</v>
       </c>
       <c r="U132" s="15">
-        <v>3.1290273052037634</v>
+        <v>3.1537202290044917</v>
       </c>
       <c r="V132" s="15">
-        <v>0.48954966394248345</v>
+        <v>0.48895713130457352</v>
       </c>
       <c r="W132" s="15"/>
     </row>
@@ -29491,10 +29490,10 @@
         <v>4.1203832195593861</v>
       </c>
       <c r="U134" s="15">
-        <v>-1.7077789116703173</v>
+        <v>-1.6988891816457397</v>
       </c>
       <c r="V134" s="15">
-        <v>-11.062603921330833</v>
+        <v>-11.062599377504228</v>
       </c>
       <c r="W134" s="15"/>
     </row>
@@ -29560,10 +29559,10 @@
         <v>4.1258484826051074</v>
       </c>
       <c r="U135" s="15">
-        <v>-1.6357069736487801</v>
+        <v>24.957273953638719</v>
       </c>
       <c r="V135" s="15">
-        <v>-0.29502466832084906</v>
+        <v>0.76566190076886187</v>
       </c>
       <c r="W135" s="15"/>
     </row>
@@ -29698,10 +29697,10 @@
         <v>-0.83974700968624916</v>
       </c>
       <c r="U137" s="15">
-        <v>-6.8975402827821171</v>
+        <v>-6.8975402827821313</v>
       </c>
       <c r="V137" s="15">
-        <v>-17.310432141617966</v>
+        <v>-17.305730618658757</v>
       </c>
       <c r="W137" s="15"/>
     </row>
@@ -29770,7 +29769,7 @@
         <v>-2.4285980028149794</v>
       </c>
       <c r="V138" s="15">
-        <v>-0.30117224645405827</v>
+        <v>-0.30117224645404406</v>
       </c>
       <c r="W138" s="15"/>
     </row>
@@ -29839,7 +29838,7 @@
         <v>-3.2234573501180819</v>
       </c>
       <c r="V139" s="15">
-        <v>0.9297325809046697</v>
+        <v>0.93276134914876252</v>
       </c>
       <c r="W139" s="15"/>
     </row>
@@ -29905,10 +29904,10 @@
         <v>4.9830546411687777</v>
       </c>
       <c r="U140" s="15">
-        <v>-4.3408058451012295</v>
+        <v>-14.379687414765115</v>
       </c>
       <c r="V140" s="15">
-        <v>5.9706160958920265</v>
+        <v>3.7791224540664814</v>
       </c>
       <c r="W140" s="15"/>
     </row>
@@ -29974,10 +29973,10 @@
         <v>2.5121225698022869</v>
       </c>
       <c r="U141" s="15">
-        <v>-1.2989359014352289</v>
+        <v>-1.3932325655575255</v>
       </c>
       <c r="V141" s="15">
-        <v>0.24579325921835959</v>
+        <v>0.24208727246508488</v>
       </c>
       <c r="W141" s="15"/>
     </row>
@@ -30115,10 +30114,10 @@
         <v>1.204950181773043</v>
       </c>
       <c r="U144" s="15">
-        <v>-0.18559021204445969</v>
+        <v>-0.19421886196009552</v>
       </c>
       <c r="V144" s="15">
-        <v>-0.27958110223865162</v>
+        <v>-0.28266179112188183</v>
       </c>
       <c r="W144" s="15"/>
     </row>
@@ -30165,7 +30164,7 @@
     </row>
     <row r="150" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="151" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -30176,7 +30175,7 @@
     </row>
     <row r="153" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="154" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -30351,10 +30350,10 @@
         <v>84.350950823780252</v>
       </c>
       <c r="V159" s="15">
-        <v>89.470434176304721</v>
+        <v>89.470434176304735</v>
       </c>
       <c r="W159" s="15">
-        <v>90.378573457566887</v>
+        <v>90.637279162536714</v>
       </c>
     </row>
     <row r="160" spans="1:23" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -30425,7 +30424,7 @@
         <v>84.696279696272057</v>
       </c>
       <c r="W160" s="15">
-        <v>100.00215136323307</v>
+        <v>99.623117164704411</v>
       </c>
     </row>
     <row r="161" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -30493,10 +30492,10 @@
         <v>80.039334851958515</v>
       </c>
       <c r="V161" s="15">
-        <v>97.957067109430355</v>
+        <v>97.959328360479788</v>
       </c>
       <c r="W161" s="15">
-        <v>110.33360679376685</v>
+        <v>109.98794941548698</v>
       </c>
     </row>
     <row r="162" spans="1:23" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -30567,7 +30566,7 @@
         <v>90.608661440971161</v>
       </c>
       <c r="W162" s="15">
-        <v>80.307142570250491</v>
+        <v>78.997052336639172</v>
       </c>
     </row>
     <row r="163" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -30638,7 +30637,7 @@
         <v>140.36964461254109</v>
       </c>
       <c r="W163" s="15">
-        <v>133.18540115166013</v>
+        <v>132.52831158133273</v>
       </c>
     </row>
     <row r="164" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -30709,7 +30708,7 @@
         <v>103.16406211405157</v>
       </c>
       <c r="W164" s="15">
-        <v>107.42158182776646</v>
+        <v>108.52084986457373</v>
       </c>
     </row>
     <row r="165" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -30780,7 +30779,7 @@
         <v>108.0026966528645</v>
       </c>
       <c r="W165" s="15">
-        <v>91.722637920802001</v>
+        <v>91.059888596281922</v>
       </c>
     </row>
     <row r="166" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -30848,10 +30847,10 @@
         <v>95.899185738748869</v>
       </c>
       <c r="V166" s="15">
-        <v>95.130352388981422</v>
+        <v>95.130352388981393</v>
       </c>
       <c r="W166" s="15">
-        <v>96.097105998558803</v>
+        <v>94.824325679143271</v>
       </c>
     </row>
     <row r="167" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -30922,7 +30921,7 @@
         <v>135.08115522272871</v>
       </c>
       <c r="W167" s="15">
-        <v>120.20086896266098</v>
+        <v>120.48885799839535</v>
       </c>
     </row>
     <row r="168" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -30990,10 +30989,10 @@
         <v>104.29531939313283</v>
       </c>
       <c r="V168" s="15">
-        <v>85.986549278111127</v>
+        <v>85.990995760743289</v>
       </c>
       <c r="W168" s="15">
-        <v>108.64919787959293</v>
+        <v>108.95442500790307</v>
       </c>
     </row>
     <row r="169" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -31061,10 +31060,10 @@
         <v>93.018777322886635</v>
       </c>
       <c r="V169" s="15">
-        <v>89.448262418206085</v>
+        <v>89.44826241820607</v>
       </c>
       <c r="W169" s="15">
-        <v>79.686604091746943</v>
+        <v>81.204712364261326</v>
       </c>
     </row>
     <row r="170" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -31132,10 +31131,10 @@
         <v>93.006023604224879</v>
       </c>
       <c r="V170" s="15">
-        <v>97.004545606296233</v>
+        <v>97.005829693584971</v>
       </c>
       <c r="W170" s="15">
-        <v>92.83384806541342</v>
+        <v>92.759320205232683</v>
       </c>
     </row>
     <row r="171" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -31203,10 +31202,10 @@
         <v>94.318171679816288</v>
       </c>
       <c r="V171" s="15">
-        <v>136.34251780785294</v>
+        <v>151.87133340695704</v>
       </c>
       <c r="W171" s="15">
-        <v>99.272177300280177</v>
+        <v>85.746492601370235</v>
       </c>
     </row>
     <row r="172" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -31277,7 +31276,7 @@
         <v>104.50378194457446</v>
       </c>
       <c r="W172" s="15">
-        <v>103.38046234600189</v>
+        <v>103.51772911193424</v>
       </c>
     </row>
     <row r="173" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -31345,10 +31344,10 @@
         <v>102.73697354209158</v>
       </c>
       <c r="V173" s="15">
-        <v>110.57675404953883</v>
+        <v>110.57675404953886</v>
       </c>
       <c r="W173" s="15">
-        <v>149.31281403333344</v>
+        <v>149.61788152089329</v>
       </c>
     </row>
     <row r="174" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -31419,7 +31418,7 @@
         <v>107.20293283004611</v>
       </c>
       <c r="W174" s="15">
-        <v>115.31188650715664</v>
+        <v>115.1293537806575</v>
       </c>
     </row>
     <row r="175" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -31487,10 +31486,10 @@
         <v>74.838441427746815</v>
       </c>
       <c r="V175" s="15">
-        <v>82.41081537748812</v>
+        <v>82.410815377488106</v>
       </c>
       <c r="W175" s="15">
-        <v>94.921563819947508</v>
+        <v>95.464595085922028</v>
       </c>
     </row>
     <row r="176" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -31558,10 +31557,10 @@
         <v>86.723841923038165</v>
       </c>
       <c r="V176" s="15">
-        <v>62.461088084552863</v>
+        <v>74.526549368668682</v>
       </c>
       <c r="W176" s="15">
-        <v>40.488307258098885</v>
+        <v>50.984157566755719</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -31629,10 +31628,10 @@
         <v>103.02644340785218</v>
       </c>
       <c r="V177" s="15">
-        <v>100.44028172500592</v>
+        <v>100.76730746316223</v>
       </c>
       <c r="W177" s="15">
-        <v>110.9176323133881</v>
+        <v>111.06639571071824</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -31703,7 +31702,7 @@
         <v>108.48791017107405</v>
       </c>
       <c r="W178" s="15">
-        <v>113.96285221711695</v>
+        <v>114.10039647703418</v>
       </c>
     </row>
     <row r="179" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -31774,10 +31773,10 @@
         <v>96.5066430928957</v>
       </c>
       <c r="V180" s="15">
-        <v>102.60963464728572</v>
+        <v>102.69789337826805</v>
       </c>
       <c r="W180" s="15">
-        <v>110.03677786750998</v>
+        <v>110.08171622695437</v>
       </c>
     </row>
     <row r="181" spans="1:23" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -31822,7 +31821,7 @@
     </row>
     <row r="187" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -31833,7 +31832,7 @@
     </row>
     <row r="190" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="191" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -32008,10 +32007,10 @@
         <v>17.540194388436596</v>
       </c>
       <c r="V196" s="15">
-        <v>18.080303268727331</v>
+        <v>18.066326806281836</v>
       </c>
       <c r="W196" s="15">
-        <v>17.650604820421023</v>
+        <v>17.695979417025544</v>
       </c>
     </row>
     <row r="197" spans="1:23" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -32079,10 +32078,10 @@
         <v>5.4557237773203493</v>
       </c>
       <c r="V197" s="15">
-        <v>4.7523878494043581</v>
+        <v>4.7487141516064604</v>
       </c>
       <c r="W197" s="15">
-        <v>5.3616203640817472</v>
+        <v>5.3397445151957754</v>
       </c>
     </row>
     <row r="198" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -32150,10 +32149,10 @@
         <v>3.9241190813795743</v>
       </c>
       <c r="V198" s="15">
-        <v>4.3965192733664908</v>
+        <v>4.3924625594116149</v>
       </c>
       <c r="W198" s="15">
-        <v>4.6817481979612099</v>
+        <v>4.6649011557025739</v>
       </c>
     </row>
     <row r="199" spans="1:23" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -32221,10 +32220,10 @@
         <v>1.607264962257398</v>
       </c>
       <c r="V199" s="15">
-        <v>1.5329581071359295</v>
+        <v>1.5317730976205213</v>
       </c>
       <c r="W199" s="15">
-        <v>1.3722809238030886</v>
+        <v>1.3495015082289399</v>
       </c>
     </row>
     <row r="200" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -32292,10 +32291,10 @@
         <v>8.968773172814414</v>
       </c>
       <c r="V200" s="15">
-        <v>10.266004551231928</v>
+        <v>10.258068709396587</v>
       </c>
       <c r="W200" s="15">
-        <v>9.1872112169302369</v>
+        <v>9.1392251799298876</v>
       </c>
     </row>
     <row r="201" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -32363,10 +32362,10 @@
         <v>1.8572064970643558</v>
       </c>
       <c r="V201" s="15">
-        <v>1.9441849079095159</v>
+        <v>1.9426820112518308</v>
       </c>
       <c r="W201" s="15">
-        <v>1.8975933147281738</v>
+        <v>1.9164540887078085</v>
       </c>
     </row>
     <row r="202" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -32434,10 +32433,10 @@
         <v>1.7693013533322204</v>
       </c>
       <c r="V202" s="15">
-        <v>1.640851160503894</v>
+        <v>1.6395827473427553</v>
       </c>
       <c r="W202" s="15">
-        <v>1.3656959446129395</v>
+        <v>1.3554335555667987</v>
       </c>
     </row>
     <row r="203" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -32505,10 +32504,10 @@
         <v>0.32614706061579818</v>
       </c>
       <c r="V203" s="15">
-        <v>0.30743936425414969</v>
+        <v>0.30720170702766947</v>
       </c>
       <c r="W203" s="15">
-        <v>0.29442116331649365</v>
+        <v>0.29043711452225807</v>
       </c>
     </row>
     <row r="204" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -32576,10 +32575,10 @@
         <v>1.4264716859361455</v>
       </c>
       <c r="V204" s="15">
-        <v>1.4801584716510436</v>
+        <v>1.4790142773869905</v>
       </c>
       <c r="W204" s="15">
-        <v>1.2121879767063659</v>
+        <v>1.2147387562342089</v>
       </c>
     </row>
     <row r="205" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -32647,10 +32646,10 @@
         <v>0.59007405508646571</v>
       </c>
       <c r="V205" s="15">
-        <v>0.47274720335567311</v>
+        <v>0.4725192987386489</v>
       </c>
       <c r="W205" s="15">
-        <v>0.56132198769702146</v>
+        <v>0.5628665641031978</v>
       </c>
     </row>
     <row r="206" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -32718,10 +32717,10 @@
         <v>8.8928537467771684E-2</v>
       </c>
       <c r="V206" s="15">
-        <v>8.8548061770609268E-2</v>
+        <v>8.8479612218543433E-2</v>
       </c>
       <c r="W206" s="15">
-        <v>7.995215007295399E-2</v>
+        <v>8.1451614141745579E-2</v>
       </c>
     </row>
     <row r="207" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -32789,10 +32788,10 @@
         <v>0.10036562233676169</v>
       </c>
       <c r="V207" s="15">
-        <v>9.6952935824170361E-2</v>
+        <v>9.6888033476353524E-2</v>
       </c>
       <c r="W207" s="15">
-        <v>7.7165970731060754E-2</v>
+        <v>7.7088565123881445E-2</v>
       </c>
     </row>
     <row r="208" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -32860,10 +32859,10 @@
         <v>7.7241404097808677E-2</v>
       </c>
       <c r="V208" s="15">
-        <v>0.10349024041962872</v>
+        <v>0.14632957477753269</v>
       </c>
       <c r="W208" s="15">
-        <v>7.0255227752844041E-2</v>
+        <v>7.7886268456415164E-2</v>
       </c>
     </row>
     <row r="209" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -32931,10 +32930,10 @@
         <v>5.185979400246377</v>
       </c>
       <c r="V209" s="15">
-        <v>5.3349403213181423</v>
+        <v>5.3308162979573801</v>
       </c>
       <c r="W209" s="15">
-        <v>4.9112247859279385</v>
+        <v>4.9163151343793263</v>
       </c>
     </row>
     <row r="210" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -33002,10 +33001,10 @@
         <v>13.877049256620777</v>
       </c>
       <c r="V210" s="15">
-        <v>13.103013212057432</v>
+        <v>13.092884301642643</v>
       </c>
       <c r="W210" s="15">
-        <v>13.681109750417139</v>
+        <v>13.705853161926104</v>
       </c>
     </row>
     <row r="211" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -33073,10 +33072,10 @@
         <v>10.431877849688712</v>
       </c>
       <c r="V211" s="15">
-        <v>10.298157896578996</v>
+        <v>10.290197199517662</v>
       </c>
       <c r="W211" s="15">
-        <v>10.3272143458233</v>
+        <v>10.30786722446185</v>
       </c>
     </row>
     <row r="212" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -33144,10 +33143,10 @@
         <v>3.0825351655539754</v>
       </c>
       <c r="V212" s="15">
-        <v>3.0953762370888742</v>
+        <v>3.0929834448281817</v>
       </c>
       <c r="W212" s="15">
-        <v>3.3649562540381703</v>
+        <v>3.3833236164772478</v>
       </c>
     </row>
     <row r="213" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -33215,10 +33214,10 @@
         <v>0.15254595113074348</v>
       </c>
       <c r="V213" s="15">
-        <v>9.903170685146892E-2</v>
+        <v>0.10567931138385862</v>
       </c>
       <c r="W213" s="15">
-        <v>6.3613015103129153E-2</v>
+        <v>7.0193980211166518E-2</v>
       </c>
     </row>
     <row r="214" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -33286,10 +33285,10 @@
         <v>13.533493524987552</v>
       </c>
       <c r="V214" s="15">
-        <v>12.270628102482727</v>
+        <v>12.289311823739528</v>
       </c>
       <c r="W214" s="15">
-        <v>12.702575973668715</v>
+        <v>12.703294178401043</v>
       </c>
     </row>
     <row r="215" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -33357,10 +33356,10 @@
         <v>10.004707253626197</v>
       </c>
       <c r="V215" s="15">
-        <v>10.636307128067639</v>
+        <v>10.628085034393395</v>
       </c>
       <c r="W215" s="15">
-        <v>11.137246616206449</v>
+        <v>11.147444401204236</v>
       </c>
     </row>
     <row r="216" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -33485,7 +33484,7 @@
     </row>
     <row r="224" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="225" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -33496,7 +33495,7 @@
     </row>
     <row r="227" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="228" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -33671,10 +33670,10 @@
         <v>20.067886171920225</v>
       </c>
       <c r="V233" s="15">
-        <v>20.735490218595256</v>
+        <v>20.737282893166658</v>
       </c>
       <c r="W233" s="15">
-        <v>21.489780238274591</v>
+        <v>21.492302091832912</v>
       </c>
     </row>
     <row r="234" spans="1:23" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -33742,10 +33741,10 @@
         <v>5.6105796494208358</v>
       </c>
       <c r="V234" s="15">
-        <v>5.7575230302712423</v>
+        <v>5.7580207935274688</v>
       </c>
       <c r="W234" s="15">
-        <v>5.8996273677097371</v>
+        <v>5.9003196966263234</v>
       </c>
     </row>
     <row r="235" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -33813,10 +33812,10 @@
         <v>4.7314681005429868</v>
       </c>
       <c r="V235" s="15">
-        <v>4.6053362934592768</v>
+        <v>4.6049381834724441</v>
       </c>
       <c r="W235" s="15">
-        <v>4.6691529576623658</v>
+        <v>4.6688780723512204</v>
       </c>
     </row>
     <row r="236" spans="1:23" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -33884,10 +33883,10 @@
         <v>1.4286111915477393</v>
       </c>
       <c r="V236" s="15">
-        <v>1.7359959721431955</v>
+        <v>1.7361460566506035</v>
       </c>
       <c r="W236" s="15">
-        <v>1.8802981447416089</v>
+        <v>1.8805188001654645</v>
       </c>
     </row>
     <row r="237" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -33955,10 +33954,10 @@
         <v>7.587753272591967</v>
       </c>
       <c r="V237" s="15">
-        <v>7.5044072327527083</v>
+        <v>7.5050560218518703</v>
       </c>
       <c r="W237" s="15">
-        <v>7.5904048879057457</v>
+        <v>7.5912956317553082</v>
       </c>
     </row>
     <row r="238" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34026,10 +34025,10 @@
         <v>1.9315273182825978</v>
       </c>
       <c r="V238" s="15">
-        <v>1.9337364097471901</v>
+        <v>1.9339035897874501</v>
       </c>
       <c r="W238" s="15">
-        <v>1.9437905354103044</v>
+        <v>1.9440186417484808</v>
       </c>
     </row>
     <row r="239" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34097,10 +34096,10 @@
         <v>1.5577319004209591</v>
       </c>
       <c r="V239" s="15">
-        <v>1.5589160577261736</v>
+        <v>1.5590508328940706</v>
       </c>
       <c r="W239" s="15">
-        <v>1.6383826795484218</v>
+        <v>1.6385749458789525</v>
       </c>
     </row>
     <row r="240" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34168,10 +34167,10 @@
         <v>0.32821298462733428</v>
       </c>
       <c r="V240" s="15">
-        <v>0.33161067997858029</v>
+        <v>0.33163934918424354</v>
       </c>
       <c r="W240" s="15">
-        <v>0.33712936316559589</v>
+        <v>0.33716892573322987</v>
       </c>
     </row>
     <row r="241" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34239,10 +34238,10 @@
         <v>1.1332701669321406</v>
       </c>
       <c r="V241" s="15">
-        <v>1.124350171167646</v>
+        <v>1.1244473761982461</v>
       </c>
       <c r="W241" s="15">
-        <v>1.1096863132323891</v>
+        <v>1.1098165363592256</v>
       </c>
     </row>
     <row r="242" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34310,10 +34309,10 @@
         <v>0.54600787996970024</v>
       </c>
       <c r="V242" s="15">
-        <v>0.56413960350889536</v>
+        <v>0.56432346354092611</v>
       </c>
       <c r="W242" s="15">
-        <v>0.56849073971826858</v>
+        <v>0.56869023335908253</v>
       </c>
     </row>
     <row r="243" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34381,10 +34380,10 @@
         <v>9.2263034122507789E-2</v>
       </c>
       <c r="V243" s="15">
-        <v>0.1015769789303161</v>
+        <v>0.10158576070809172</v>
       </c>
       <c r="W243" s="15">
-        <v>0.11040346213622404</v>
+        <v>0.11041641812557122</v>
       </c>
     </row>
     <row r="244" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34452,10 +34451,10 @@
         <v>0.10414324705319655</v>
       </c>
       <c r="V244" s="15">
-        <v>0.10255504276342024</v>
+        <v>0.10257318516850569</v>
       </c>
       <c r="W244" s="15">
-        <v>9.1465504847773174E-2</v>
+        <v>9.1484516397215901E-2</v>
       </c>
     </row>
     <row r="245" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34523,10 +34522,10 @@
         <v>7.9033642027823009E-2</v>
       </c>
       <c r="V245" s="15">
-        <v>7.7885430970134492E-2</v>
+        <v>9.8950465051371922E-2</v>
       </c>
       <c r="W245" s="15">
-        <v>7.7873368959030631E-2</v>
+        <v>9.9990726641785349E-2</v>
       </c>
     </row>
     <row r="246" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34594,10 +34593,10 @@
         <v>5.2980496015172216</v>
       </c>
       <c r="V246" s="15">
-        <v>5.2382436984516021</v>
+        <v>5.2386965677196082</v>
       </c>
       <c r="W246" s="15">
-        <v>5.2274418063430321</v>
+        <v>5.2280552534129461</v>
       </c>
     </row>
     <row r="247" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34665,10 +34664,10 @@
         <v>13.035496312752008</v>
       </c>
       <c r="V247" s="15">
-        <v>12.158933493973167</v>
+        <v>12.159984687393735</v>
       </c>
       <c r="W247" s="15">
-        <v>10.082357929786227</v>
+        <v>10.084114432597179</v>
       </c>
     </row>
     <row r="248" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34736,10 +34735,10 @@
         <v>10.083509655563029</v>
       </c>
       <c r="V248" s="15">
-        <v>9.8569152112960587</v>
+        <v>9.8577673850843528</v>
       </c>
       <c r="W248" s="15">
-        <v>9.8547810237324818</v>
+        <v>9.8559374950558603</v>
       </c>
     </row>
     <row r="249" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34807,10 +34806,10 @@
         <v>3.9750309515815649</v>
       </c>
       <c r="V249" s="15">
-        <v>3.8540502642610823</v>
+        <v>3.8543834639025096</v>
       </c>
       <c r="W249" s="15">
-        <v>3.9007884927162948</v>
+        <v>3.9013633265587973</v>
       </c>
     </row>
     <row r="250" spans="1:23" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34878,10 +34877,10 @@
         <v>0.16975375323092273</v>
       </c>
       <c r="V250" s="15">
-        <v>0.16268700354324081</v>
+        <v>0.14562652832751402</v>
       </c>
       <c r="W250" s="15">
-        <v>0.17288377031335178</v>
+        <v>0.15155833065062807</v>
       </c>
     </row>
     <row r="251" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34949,10 +34948,10 @@
         <v>12.6770563577122</v>
       </c>
       <c r="V251" s="15">
-        <v>12.535654469147147</v>
+        <v>12.524760928320678</v>
       </c>
       <c r="W251" s="15">
-        <v>12.601698229642441</v>
+        <v>12.590670796021117</v>
       </c>
     </row>
     <row r="252" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -35020,10 +35019,10 @@
         <v>9.5626148081830635</v>
       </c>
       <c r="V252" s="15">
-        <v>10.059992737313655</v>
+        <v>10.060862468049635</v>
       </c>
       <c r="W252" s="15">
-        <v>10.753563184154126</v>
+        <v>10.75482512872871</v>
       </c>
     </row>
     <row r="253" spans="1:23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -35130,12 +35129,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:1" s="16" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
-    </row>
-    <row r="258" spans="1:1" s="16" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-08AFF_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-08AFF_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186C9E90-B512-472D-A45B-B129B3EC7C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E5A527-77B2-4FE3-B8E3-8F41AC874EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFF" sheetId="1" r:id="rId1"/>
@@ -652,13 +652,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2022</t>
   </si>
   <si>
     <t>Annual 2001 to 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -23582,10 +23582,10 @@
   </sheetPr>
   <dimension ref="A1:X256"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="U1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A184" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="W1" sqref="W1:X1048576"/>
+      <selection pane="topRight" activeCell="V184" sqref="V1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23607,7 +23607,7 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -23618,7 +23618,7 @@
     </row>
     <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -23803,7 +23803,7 @@
         <v>345840.42592162965</v>
       </c>
       <c r="X12" s="8">
-        <v>356571.48197710933</v>
+        <v>357179.83892840211</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -23874,10 +23874,10 @@
         <v>86826.61039780578</v>
       </c>
       <c r="W13" s="8">
-        <v>104357.01093047486</v>
+        <v>104207.75546279758</v>
       </c>
       <c r="X13" s="8">
-        <v>126721.43013388329</v>
+        <v>126689.8479333912</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -23951,7 +23951,7 @@
         <v>91168.245879529655</v>
       </c>
       <c r="X14" s="8">
-        <v>98411.219076355395</v>
+        <v>98114.213561903831</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -24025,7 +24025,7 @@
         <v>26373.910445372014</v>
       </c>
       <c r="X15" s="8">
-        <v>38253.465030196472</v>
+        <v>37859.515695861701</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -24099,7 +24099,7 @@
         <v>178611.95779758133</v>
       </c>
       <c r="X16" s="8">
-        <v>138452.04893941595</v>
+        <v>138718.93219190009</v>
       </c>
     </row>
     <row r="17" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -24173,7 +24173,7 @@
         <v>37454.117835392623</v>
       </c>
       <c r="X17" s="8">
-        <v>37717.000633434058</v>
+        <v>37584.062590927904</v>
       </c>
     </row>
     <row r="18" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -24247,7 +24247,7 @@
         <v>26489.84309479285</v>
       </c>
       <c r="X18" s="8">
-        <v>30483.777160112786</v>
+        <v>30251.798575179804</v>
       </c>
     </row>
     <row r="19" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -24321,7 +24321,7 @@
         <v>5676.1421915527008</v>
       </c>
       <c r="X19" s="8">
-        <v>6734.8850658065967</v>
+        <v>6474.9008879042985</v>
       </c>
     </row>
     <row r="20" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -24392,10 +24392,10 @@
         <v>27042.646142857331</v>
       </c>
       <c r="W20" s="8">
-        <v>23740.18181979574</v>
+        <v>23740.156032172017</v>
       </c>
       <c r="X20" s="8">
-        <v>24654.898914686022</v>
+        <v>24496.647324262281</v>
       </c>
     </row>
     <row r="21" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -24469,7 +24469,7 @@
         <v>11000.352547833956</v>
       </c>
       <c r="X21" s="8">
-        <v>10472.393915842164</v>
+        <v>10496.642977801548</v>
       </c>
     </row>
     <row r="22" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -24543,7 +24543,7 @@
         <v>1591.8452583462824</v>
       </c>
       <c r="X22" s="8">
-        <v>1714.193955076591</v>
+        <v>1716.0826899361323</v>
       </c>
     </row>
     <row r="23" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -24617,7 +24617,7 @@
         <v>1506.5762435550848</v>
       </c>
       <c r="X23" s="8">
-        <v>1689.8434818589617</v>
+        <v>1689.1264763330616</v>
       </c>
     </row>
     <row r="24" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -24691,7 +24691,7 @@
         <v>1522.1661159086398</v>
       </c>
       <c r="X24" s="8">
-        <v>1463.0178545154668</v>
+        <v>1407.2953550406928</v>
       </c>
     </row>
     <row r="25" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -24762,10 +24762,10 @@
         <v>97469.903436583409</v>
       </c>
       <c r="W25" s="8">
-        <v>96081.741505805345</v>
+        <v>96277.787208325477</v>
       </c>
       <c r="X25" s="8">
-        <v>103248.91388956382</v>
+        <v>103352.24337818011</v>
       </c>
     </row>
     <row r="26" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -24836,10 +24836,10 @@
         <v>239393.38691458132</v>
       </c>
       <c r="W26" s="8">
-        <v>267859.60717039392</v>
+        <v>267856.99901409377</v>
       </c>
       <c r="X26" s="8">
-        <v>299679.73303076974</v>
+        <v>299676.36287433829</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -24910,10 +24910,10 @@
         <v>188148.39441469838</v>
       </c>
       <c r="W27" s="8">
-        <v>201451.25100121193</v>
+        <v>201537.43066244532</v>
       </c>
       <c r="X27" s="8">
-        <v>236088.00228752455</v>
+        <v>236142.04416248604</v>
       </c>
     </row>
     <row r="28" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -24987,7 +24987,7 @@
         <v>66121.803884301538</v>
       </c>
       <c r="X28" s="8">
-        <v>75065.490113102045</v>
+        <v>75083.115500963642</v>
       </c>
     </row>
     <row r="29" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -25058,10 +25058,10 @@
         <v>1932.2654730713966</v>
       </c>
       <c r="W29" s="8">
-        <v>1371.8322925945586</v>
+        <v>1383.4624608284107</v>
       </c>
       <c r="X29" s="8">
-        <v>1178.8418894681802</v>
+        <v>1206.9313653727734</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -25135,7 +25135,7 @@
         <v>248266.14937397069</v>
       </c>
       <c r="X30" s="8">
-        <v>269359.42320154497</v>
+        <v>269643.56183451181</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -25209,7 +25209,7 @@
         <v>217859.48258625247</v>
       </c>
       <c r="X31" s="8">
-        <v>245412.11459627654</v>
+        <v>245414.87836510679</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -25283,10 +25283,10 @@
         <v>1828423.603228105</v>
       </c>
       <c r="W33" s="10">
-        <v>1954344.6438962957</v>
+        <v>1954486.610016682</v>
       </c>
       <c r="X33" s="10">
-        <v>2103372.175146543</v>
+        <v>2103198.0426698038</v>
       </c>
     </row>
     <row r="34" spans="1:24" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -25338,7 +25338,7 @@
     </row>
     <row r="40" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -25349,7 +25349,7 @@
     </row>
     <row r="43" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -25605,10 +25605,10 @@
         <v>102515.2588864272</v>
       </c>
       <c r="W50" s="8">
-        <v>104751.8024937365</v>
+        <v>104595.9596207038</v>
       </c>
       <c r="X50" s="8">
-        <v>105422.34269737592</v>
+        <v>105247.6872728677</v>
       </c>
     </row>
     <row r="51" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -26123,7 +26123,7 @@
         <v>20019.554984015376</v>
       </c>
       <c r="W57" s="8">
-        <v>19703.217554034673</v>
+        <v>19703.198060002815</v>
       </c>
       <c r="X57" s="8">
         <v>19704.792108007317</v>
@@ -26348,7 +26348,7 @@
         <v>1624.1777540216349</v>
       </c>
       <c r="X60" s="8">
-        <v>1735.4696454060922</v>
+        <v>1735.4696454060925</v>
       </c>
     </row>
     <row r="61" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -26493,10 +26493,10 @@
         <v>93269.259373099427</v>
       </c>
       <c r="W62" s="8">
-        <v>92816.701380602812</v>
+        <v>92805.217502777421</v>
       </c>
       <c r="X62" s="8">
-        <v>92155.458028825145</v>
+        <v>92143.956043625483</v>
       </c>
     </row>
     <row r="63" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -26567,10 +26567,10 @@
         <v>216495.21996940882</v>
       </c>
       <c r="W63" s="8">
-        <v>179029.14039923021</v>
+        <v>179028.02112954867</v>
       </c>
       <c r="X63" s="8">
-        <v>183068.48809208136</v>
+        <v>183067.35521554653</v>
       </c>
     </row>
     <row r="64" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -26641,10 +26641,10 @@
         <v>175506.76035419566</v>
       </c>
       <c r="W64" s="8">
-        <v>174978.18270135822</v>
+        <v>174980.03439215332</v>
       </c>
       <c r="X64" s="8">
-        <v>186752.71466271736</v>
+        <v>186754.67682011292</v>
       </c>
     </row>
     <row r="65" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -26789,10 +26789,10 @@
         <v>2592.7209691580465</v>
       </c>
       <c r="W66" s="8">
-        <v>2690.7030694747882</v>
+        <v>2709.5537773236611</v>
       </c>
       <c r="X66" s="8">
-        <v>2653.6421861854951</v>
+        <v>2706.7157979275776</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -26866,7 +26866,7 @@
         <v>223529.49133291474</v>
       </c>
       <c r="X67" s="8">
-        <v>215652.9920663322</v>
+        <v>215554.73903348591</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -27014,10 +27014,10 @@
         <v>1780390.5640921537</v>
       </c>
       <c r="W70" s="10">
-        <v>1775358.0802347257</v>
+        <v>1775210.3171187984</v>
       </c>
       <c r="X70" s="10">
-        <v>1783729.4637728932</v>
+        <v>1783498.9562229416</v>
       </c>
     </row>
     <row r="71" spans="1:24" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -27069,7 +27069,7 @@
     </row>
     <row r="77" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -27080,7 +27080,7 @@
     </row>
     <row r="80" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -27260,7 +27260,7 @@
         <v>4.6957557862363331</v>
       </c>
       <c r="W86" s="14">
-        <v>3.1028923315955694</v>
+        <v>3.2787991677242729</v>
       </c>
       <c r="X86" s="14"/>
     </row>
@@ -27329,10 +27329,10 @@
         <v>-7.5549465338831254</v>
       </c>
       <c r="V87" s="14">
-        <v>20.190124263001394</v>
+        <v>20.018223659035115</v>
       </c>
       <c r="W87" s="14">
-        <v>21.430682044264501</v>
+        <v>21.574298736930174</v>
       </c>
       <c r="X87" s="14"/>
     </row>
@@ -27404,7 +27404,7 @@
         <v>13.516426621592672</v>
       </c>
       <c r="W88" s="14">
-        <v>7.9446227433142269</v>
+        <v>7.6188453724914496</v>
       </c>
       <c r="X88" s="14"/>
     </row>
@@ -27476,7 +27476,7 @@
         <v>-5.8320165420625187</v>
       </c>
       <c r="W89" s="14">
-        <v>45.042825975429196</v>
+        <v>43.54911750489066</v>
       </c>
       <c r="X89" s="14"/>
     </row>
@@ -27548,7 +27548,7 @@
         <v>-4.7712446238844706</v>
       </c>
       <c r="W90" s="14">
-        <v>-22.484445808313737</v>
+        <v>-22.335025099994425</v>
       </c>
       <c r="X90" s="14"/>
     </row>
@@ -27620,7 +27620,7 @@
         <v>5.4437966185521276</v>
       </c>
       <c r="W91" s="14">
-        <v>0.70187956153921505</v>
+        <v>0.34694384234698816</v>
       </c>
       <c r="X91" s="14"/>
     </row>
@@ -27692,7 +27692,7 @@
         <v>-11.637249240475114</v>
       </c>
       <c r="W92" s="14">
-        <v>15.077228094661791</v>
+        <v>14.201501560144948</v>
       </c>
       <c r="X92" s="14"/>
     </row>
@@ -27764,7 +27764,7 @@
         <v>1.05384036403035</v>
       </c>
       <c r="W93" s="14">
-        <v>18.652507962706238</v>
+        <v>14.072210832567222</v>
       </c>
       <c r="X93" s="14"/>
     </row>
@@ -27833,10 +27833,10 @@
         <v>10.120768735359675</v>
       </c>
       <c r="V94" s="14">
-        <v>-12.212060556558583</v>
+        <v>-12.212155915657647</v>
       </c>
       <c r="W94" s="14">
-        <v>3.8530332321530238</v>
+        <v>3.1865472622213815</v>
       </c>
       <c r="X94" s="14"/>
     </row>
@@ -27908,7 +27908,7 @@
         <v>27.323988366738149</v>
       </c>
       <c r="W95" s="14">
-        <v>-4.7994701051263178</v>
+        <v>-4.5790311523387572</v>
       </c>
       <c r="X95" s="14"/>
     </row>
@@ -27980,7 +27980,7 @@
         <v>-1.6032353974147213</v>
       </c>
       <c r="W96" s="14">
-        <v>7.6859667162254794</v>
+        <v>7.8046173733567628</v>
       </c>
       <c r="X96" s="14"/>
     </row>
@@ -28052,7 +28052,7 @@
         <v>-14.955906788056609</v>
       </c>
       <c r="W97" s="14">
-        <v>12.164484810368378</v>
+        <v>12.116893091796726</v>
       </c>
       <c r="X97" s="14"/>
     </row>
@@ -28124,7 +28124,7 @@
         <v>-43.10774858680044</v>
       </c>
       <c r="W98" s="14">
-        <v>-3.88579543158896</v>
+        <v>-7.5465325149072839</v>
       </c>
       <c r="X98" s="14"/>
     </row>
@@ -28193,10 +28193,10 @@
         <v>9.17493784041217</v>
       </c>
       <c r="V99" s="14">
-        <v>-1.4241954509385977</v>
+        <v>-1.2230608487609231</v>
       </c>
       <c r="W99" s="14">
-        <v>7.4594530359604505</v>
+        <v>7.3479629881261701</v>
       </c>
       <c r="X99" s="14"/>
     </row>
@@ -28265,10 +28265,10 @@
         <v>0.20703778411407825</v>
       </c>
       <c r="V100" s="14">
-        <v>11.89098020738966</v>
+        <v>11.889890721863864</v>
       </c>
       <c r="W100" s="14">
-        <v>11.879404362798908</v>
+        <v>11.879235553807675</v>
       </c>
       <c r="X100" s="14"/>
     </row>
@@ -28337,10 +28337,10 @@
         <v>4.7662088053434246</v>
       </c>
       <c r="V101" s="14">
-        <v>7.0704066478466387</v>
+        <v>7.1162107385493272</v>
       </c>
       <c r="W101" s="14">
-        <v>17.19361439264739</v>
+        <v>17.170315899283224</v>
       </c>
       <c r="X101" s="14"/>
     </row>
@@ -28412,7 +28412,7 @@
         <v>16.920396297068891</v>
       </c>
       <c r="W102" s="14">
-        <v>13.526077183934618</v>
+        <v>13.552733123165254</v>
       </c>
       <c r="X102" s="14"/>
     </row>
@@ -28481,10 +28481,10 @@
         <v>-26.421773858830335</v>
       </c>
       <c r="V103" s="14">
-        <v>-29.003943210039978</v>
+        <v>-28.402050333728027</v>
       </c>
       <c r="W103" s="14">
-        <v>-14.068075534318709</v>
+        <v>-12.760092915707403</v>
       </c>
       <c r="X103" s="14"/>
     </row>
@@ -28556,7 +28556,7 @@
         <v>10.487494527350265</v>
       </c>
       <c r="W104" s="14">
-        <v>8.4962343359186008</v>
+        <v>8.6106835404047217</v>
       </c>
       <c r="X104" s="14"/>
     </row>
@@ -28628,7 +28628,7 @@
         <v>12.110071193911139</v>
       </c>
       <c r="W105" s="14">
-        <v>12.646973949878799</v>
+        <v>12.648242551455112</v>
       </c>
       <c r="X105" s="14"/>
     </row>
@@ -28700,10 +28700,10 @@
         <v>6.2086830642616775</v>
       </c>
       <c r="V107" s="14">
-        <v>6.8868636592677603</v>
+        <v>6.8946280591658962</v>
       </c>
       <c r="W107" s="14">
-        <v>7.6254478305902751</v>
+        <v>7.6087209751645588</v>
       </c>
       <c r="X107" s="14"/>
     </row>
@@ -28756,7 +28756,7 @@
     </row>
     <row r="114" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -28767,7 +28767,7 @@
     </row>
     <row r="117" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -29016,10 +29016,10 @@
         <v>2.4285900952156396</v>
       </c>
       <c r="V124" s="14">
-        <v>2.1816689843090558</v>
+        <v>2.0296497876298929</v>
       </c>
       <c r="W124" s="14">
-        <v>0.64012283099330602</v>
+        <v>0.623090657160418</v>
       </c>
       <c r="X124" s="14"/>
     </row>
@@ -29520,10 +29520,10 @@
         <v>-0.97123174618482722</v>
       </c>
       <c r="V131" s="14">
-        <v>-1.580142167162478</v>
+        <v>-1.5802395421134747</v>
       </c>
       <c r="W131" s="14">
-        <v>7.9913545507395156E-3</v>
+        <v>8.090300872211742E-3</v>
       </c>
       <c r="X131" s="14"/>
     </row>
@@ -29739,7 +29739,7 @@
         <v>-11.062599377504228</v>
       </c>
       <c r="W134" s="14">
-        <v>6.8521989732273312</v>
+        <v>6.8521989732273596</v>
       </c>
       <c r="X134" s="14"/>
     </row>
@@ -29880,10 +29880,10 @@
         <v>-1.3123238905326673</v>
       </c>
       <c r="V136" s="14">
-        <v>-0.48521666789083895</v>
+        <v>-0.49752927539149994</v>
       </c>
       <c r="W136" s="14">
-        <v>-0.71241850005655749</v>
+        <v>-0.71252616711140604</v>
       </c>
       <c r="X136" s="14"/>
     </row>
@@ -29952,10 +29952,10 @@
         <v>-6.8975402827821313</v>
       </c>
       <c r="V137" s="14">
-        <v>-17.305730618658757</v>
+        <v>-17.306247613759936</v>
       </c>
       <c r="W137" s="14">
-        <v>2.2562515151686995</v>
+        <v>2.2562580206787288</v>
       </c>
       <c r="X137" s="14"/>
     </row>
@@ -30024,10 +30024,10 @@
         <v>-2.4285980028149794</v>
       </c>
       <c r="V138" s="14">
-        <v>-0.30117224645404406</v>
+        <v>-0.30011719262513736</v>
       </c>
       <c r="W138" s="14">
-        <v>6.7291429020355054</v>
+        <v>6.7291348232170662</v>
       </c>
       <c r="X138" s="14"/>
     </row>
@@ -30168,10 +30168,10 @@
         <v>-14.379687414765115</v>
       </c>
       <c r="V140" s="14">
-        <v>3.7791224540664814</v>
+        <v>4.5061851836510698</v>
       </c>
       <c r="W140" s="14">
-        <v>-1.377368008746032</v>
+        <v>-0.10473973315586704</v>
       </c>
       <c r="X140" s="14"/>
     </row>
@@ -30243,7 +30243,7 @@
         <v>0.24208727246508488</v>
       </c>
       <c r="W141" s="14">
-        <v>-3.523695786007778</v>
+        <v>-3.5676510745293939</v>
       </c>
       <c r="X141" s="14"/>
     </row>
@@ -30387,10 +30387,10 @@
         <v>-0.19421886196009552</v>
       </c>
       <c r="V144" s="14">
-        <v>-0.28266179112188183</v>
+        <v>-0.2909612687144687</v>
       </c>
       <c r="W144" s="14">
-        <v>0.47153211689332863</v>
+        <v>0.46691025982745771</v>
       </c>
       <c r="X144" s="14"/>
     </row>
@@ -30438,7 +30438,7 @@
     </row>
     <row r="150" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="151" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -30449,7 +30449,7 @@
     </row>
     <row r="153" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="154" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -30634,7 +30634,7 @@
         <v>90.637279162536714</v>
       </c>
       <c r="X159" s="14">
-        <v>94.404375065146951</v>
+        <v>94.565441108580615</v>
       </c>
     </row>
     <row r="160" spans="1:24" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -30705,10 +30705,10 @@
         <v>84.696279696272057</v>
       </c>
       <c r="W160" s="14">
-        <v>99.623117164704411</v>
+        <v>99.628853581616383</v>
       </c>
       <c r="X160" s="14">
-        <v>120.20358008704879</v>
+        <v>120.37304687268997</v>
       </c>
     </row>
     <row r="161" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -30782,7 +30782,7 @@
         <v>109.98794941548698</v>
       </c>
       <c r="X161" s="14">
-        <v>116.99273078156298</v>
+        <v>116.63964617882159</v>
       </c>
     </row>
     <row r="162" spans="1:24" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -30856,7 +30856,7 @@
         <v>78.997052336639172</v>
       </c>
       <c r="X162" s="14">
-        <v>138.92647232396803</v>
+        <v>137.49575248590102</v>
       </c>
     </row>
     <row r="163" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -30930,7 +30930,7 @@
         <v>132.52831158133273</v>
       </c>
       <c r="X163" s="14">
-        <v>103.33742492316524</v>
+        <v>103.53662044448902</v>
       </c>
     </row>
     <row r="164" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -31004,7 +31004,7 @@
         <v>108.52084986457373</v>
       </c>
       <c r="X164" s="14">
-        <v>114.12607555851631</v>
+        <v>113.72382466823183</v>
       </c>
     </row>
     <row r="165" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -31078,7 +31078,7 @@
         <v>91.059888596281922</v>
       </c>
       <c r="X165" s="14">
-        <v>102.40561483823008</v>
+        <v>101.62631805048001</v>
       </c>
     </row>
     <row r="166" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -31152,7 +31152,7 @@
         <v>94.824325679143271</v>
       </c>
       <c r="X166" s="14">
-        <v>114.36170369822793</v>
+        <v>109.94704283483144</v>
       </c>
     </row>
     <row r="167" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -31223,10 +31223,10 @@
         <v>135.08115522272871</v>
       </c>
       <c r="W167" s="14">
-        <v>120.48885799839535</v>
+        <v>120.48884632776526</v>
       </c>
       <c r="X167" s="14">
-        <v>125.12133484862882</v>
+        <v>124.31822264345396</v>
       </c>
     </row>
     <row r="168" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -31300,7 +31300,7 @@
         <v>108.95442500790307</v>
       </c>
       <c r="X168" s="14">
-        <v>106.647963353416</v>
+        <v>106.89490909399657</v>
       </c>
     </row>
     <row r="169" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -31374,7 +31374,7 @@
         <v>81.204712364261326</v>
       </c>
       <c r="X169" s="14">
-        <v>83.960198833688153</v>
+        <v>84.052707942054553</v>
       </c>
     </row>
     <row r="170" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -31448,7 +31448,7 @@
         <v>92.759320205232683</v>
       </c>
       <c r="X170" s="14">
-        <v>97.370961591410946</v>
+        <v>97.329646807957474</v>
       </c>
     </row>
     <row r="171" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -31522,7 +31522,7 @@
         <v>85.746492601370235</v>
       </c>
       <c r="X171" s="14">
-        <v>83.005327496203904</v>
+        <v>79.843873038532593</v>
       </c>
     </row>
     <row r="172" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -31593,10 +31593,10 @@
         <v>104.50378194457446</v>
       </c>
       <c r="W172" s="14">
-        <v>103.51772911193424</v>
+        <v>103.74178284259085</v>
       </c>
       <c r="X172" s="14">
-        <v>112.03776325138418</v>
+        <v>112.16388769899142</v>
       </c>
     </row>
     <row r="173" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -31667,10 +31667,10 @@
         <v>110.57675404953886</v>
       </c>
       <c r="W173" s="14">
-        <v>149.61788152089329</v>
+        <v>149.61736007810001</v>
       </c>
       <c r="X173" s="14">
-        <v>163.69815261708735</v>
+        <v>163.69732469314062</v>
       </c>
     </row>
     <row r="174" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -31741,10 +31741,10 @@
         <v>107.20293283004611</v>
       </c>
       <c r="W174" s="14">
-        <v>115.1293537806575</v>
+        <v>115.17738658730249</v>
       </c>
       <c r="X174" s="14">
-        <v>126.41744068561928</v>
+        <v>126.44504982862858</v>
       </c>
     </row>
     <row r="175" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -31818,7 +31818,7 @@
         <v>95.464595085922028</v>
       </c>
       <c r="X175" s="14">
-        <v>103.97476041923564</v>
+        <v>103.99917370791789</v>
       </c>
     </row>
     <row r="176" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -31889,10 +31889,10 @@
         <v>74.526549368668682</v>
       </c>
       <c r="W176" s="14">
-        <v>50.984157566755719</v>
+        <v>51.058682518378141</v>
       </c>
       <c r="X176" s="14">
-        <v>44.42354344549814</v>
+        <v>44.5902508973004</v>
       </c>
     </row>
     <row r="177" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -31966,7 +31966,7 @@
         <v>111.06639571071824</v>
       </c>
       <c r="X177" s="14">
-        <v>124.90409737449566</v>
+        <v>125.09284789726813</v>
       </c>
     </row>
     <row r="178" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -32040,7 +32040,7 @@
         <v>114.10039647703418</v>
       </c>
       <c r="X178" s="14">
-        <v>123.49703141482975</v>
+        <v>123.49842220699425</v>
       </c>
     </row>
     <row r="179" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -32114,10 +32114,10 @@
         <v>102.69789337826805</v>
       </c>
       <c r="W180" s="14">
-        <v>110.08171622695437</v>
+        <v>110.09887623844212</v>
       </c>
       <c r="X180" s="14">
-        <v>117.91990982183759</v>
+        <v>117.92538679831439</v>
       </c>
     </row>
     <row r="181" spans="1:24" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -32163,7 +32163,7 @@
     </row>
     <row r="187" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="188" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -32174,7 +32174,7 @@
     </row>
     <row r="190" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="191" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -32356,10 +32356,10 @@
         <v>18.066326806281836</v>
       </c>
       <c r="W196" s="14">
-        <v>17.695979417025544</v>
+        <v>17.694694051584108</v>
       </c>
       <c r="X196" s="14">
-        <v>16.952372299603461</v>
+        <v>16.982701185619081</v>
       </c>
     </row>
     <row r="197" spans="1:24" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -32430,10 +32430,10 @@
         <v>4.7487141516064604</v>
       </c>
       <c r="W197" s="14">
-        <v>5.3397445151957754</v>
+        <v>5.3317201012652697</v>
       </c>
       <c r="X197" s="14">
-        <v>6.0246793996433148</v>
+        <v>6.0236765802886945</v>
       </c>
     </row>
     <row r="198" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -32504,10 +32504,10 @@
         <v>4.3924625594116149</v>
       </c>
       <c r="W198" s="14">
-        <v>4.6649011557025739</v>
+        <v>4.6645623158682845</v>
       </c>
       <c r="X198" s="14">
-        <v>4.6787354249135227</v>
+        <v>4.6650011825494779</v>
       </c>
     </row>
     <row r="199" spans="1:24" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -32578,10 +32578,10 @@
         <v>1.5317730976205213</v>
       </c>
       <c r="W199" s="14">
-        <v>1.3495015082289399</v>
+        <v>1.3494034858159969</v>
       </c>
       <c r="X199" s="14">
-        <v>1.8186731517227253</v>
+        <v>1.800092760061851</v>
       </c>
     </row>
     <row r="200" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -32652,10 +32652,10 @@
         <v>10.258068709396587</v>
       </c>
       <c r="W200" s="14">
-        <v>9.1392251799298876</v>
+        <v>9.1385613430248487</v>
       </c>
       <c r="X200" s="14">
-        <v>6.5823847332091834</v>
+        <v>6.5956191180080213</v>
       </c>
     </row>
     <row r="201" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -32726,10 +32726,10 @@
         <v>1.9426820112518308</v>
       </c>
       <c r="W201" s="14">
-        <v>1.9164540887078085</v>
+        <v>1.9163148851182432</v>
       </c>
       <c r="X201" s="14">
-        <v>1.7931681838857783</v>
+        <v>1.7869958904687178</v>
       </c>
     </row>
     <row r="202" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -32800,10 +32800,10 @@
         <v>1.6395827473427553</v>
       </c>
       <c r="W202" s="14">
-        <v>1.3554335555667987</v>
+        <v>1.3553351022735711</v>
       </c>
       <c r="X202" s="14">
-        <v>1.4492811838204034</v>
+        <v>1.4383713735668044</v>
       </c>
     </row>
     <row r="203" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -32874,10 +32874,10 @@
         <v>0.30720170702766947</v>
       </c>
       <c r="W203" s="14">
-        <v>0.29043711452225807</v>
+        <v>0.29041601832740382</v>
       </c>
       <c r="X203" s="14">
-        <v>0.32019464483680232</v>
+        <v>0.30785978098786393</v>
       </c>
     </row>
     <row r="204" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -32948,10 +32948,10 @@
         <v>1.4790142773869905</v>
       </c>
       <c r="W204" s="14">
-        <v>1.2147387562342089</v>
+        <v>1.214649203044138</v>
       </c>
       <c r="X204" s="14">
-        <v>1.1721605527546881</v>
+        <v>1.1647332693960759</v>
       </c>
     </row>
     <row r="205" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -33022,10 +33022,10 @@
         <v>0.4725192987386489</v>
       </c>
       <c r="W205" s="14">
-        <v>0.5628665641031978</v>
+        <v>0.56282567971852548</v>
       </c>
       <c r="X205" s="14">
-        <v>0.49788592050346708</v>
+        <v>0.49908010395811747</v>
       </c>
     </row>
     <row r="206" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -33096,10 +33096,10 @@
         <v>8.8479612218543433E-2</v>
       </c>
       <c r="W206" s="14">
-        <v>8.1451614141745579E-2</v>
+        <v>8.144569782100966E-2</v>
       </c>
       <c r="X206" s="14">
-        <v>8.1497415214079383E-2</v>
+        <v>8.1593965718878933E-2</v>
       </c>
     </row>
     <row r="207" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -33170,10 +33170,10 @@
         <v>9.6888033476353524E-2</v>
       </c>
       <c r="W207" s="14">
-        <v>7.7088565123881445E-2</v>
+        <v>7.7082965717643157E-2</v>
       </c>
       <c r="X207" s="14">
-        <v>8.0339727882024939E-2</v>
+        <v>8.0312288337282836E-2</v>
       </c>
     </row>
     <row r="208" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -33244,10 +33244,10 @@
         <v>0.14632957477753269</v>
       </c>
       <c r="W208" s="14">
-        <v>7.7886268456415164E-2</v>
+        <v>7.7880611108184963E-2</v>
       </c>
       <c r="X208" s="14">
-        <v>6.9555824299783631E-2</v>
+        <v>6.6912165496990916E-2</v>
       </c>
     </row>
     <row r="209" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -33318,10 +33318,10 @@
         <v>5.3308162979573801</v>
       </c>
       <c r="W209" s="14">
-        <v>4.9163151343793263</v>
+        <v>4.925988580065213</v>
       </c>
       <c r="X209" s="14">
-        <v>4.9087325157931412</v>
+        <v>4.91405190007616</v>
       </c>
     </row>
     <row r="210" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -33392,10 +33392,10 @@
         <v>13.092884301642643</v>
       </c>
       <c r="W210" s="14">
-        <v>13.705853161926104</v>
+        <v>13.70472417878614</v>
       </c>
       <c r="X210" s="14">
-        <v>14.24758473901039</v>
+        <v>14.248604115945662</v>
       </c>
     </row>
     <row r="211" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -33466,10 +33466,10 @@
         <v>10.290197199517662</v>
       </c>
       <c r="W211" s="14">
-        <v>10.30786722446185</v>
+        <v>10.311527826774171</v>
       </c>
       <c r="X211" s="14">
-        <v>11.224261929350481</v>
+        <v>11.227760742051988</v>
       </c>
     </row>
     <row r="212" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -33540,10 +33540,10 @@
         <v>3.0929834448281817</v>
       </c>
       <c r="W212" s="14">
-        <v>3.3833236164772478</v>
+        <v>3.3830778653294113</v>
       </c>
       <c r="X212" s="14">
-        <v>3.5688163511943483</v>
+        <v>3.5699498562509593</v>
       </c>
     </row>
     <row r="213" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -33614,10 +33614,10 @@
         <v>0.10567931138385862</v>
       </c>
       <c r="W213" s="14">
-        <v>7.0193980211166518E-2</v>
+        <v>7.0783931378102544E-2</v>
       </c>
       <c r="X213" s="14">
-        <v>5.6045330607554018E-2</v>
+        <v>5.7385531028770469E-2</v>
       </c>
     </row>
     <row r="214" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -33688,10 +33688,10 @@
         <v>12.289311823739528</v>
       </c>
       <c r="W214" s="14">
-        <v>12.703294178401043</v>
+        <v>12.702371461723736</v>
       </c>
       <c r="X214" s="14">
-        <v>12.806075234059733</v>
+        <v>12.82064533933408</v>
       </c>
     </row>
     <row r="215" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -33762,10 +33762,10 @@
         <v>10.628085034393395</v>
       </c>
       <c r="W215" s="14">
-        <v>11.147444401204236</v>
+        <v>11.14663469525601</v>
       </c>
       <c r="X215" s="14">
-        <v>11.667555437695118</v>
+        <v>11.668652850854533</v>
       </c>
     </row>
     <row r="216" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -33894,7 +33894,7 @@
     </row>
     <row r="224" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="225" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -33905,7 +33905,7 @@
     </row>
     <row r="227" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="228" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -34087,10 +34087,10 @@
         <v>20.737282893166658</v>
       </c>
       <c r="W233" s="14">
-        <v>21.492302091832912</v>
+        <v>21.494091045792292</v>
       </c>
       <c r="X233" s="14">
-        <v>21.175101381222689</v>
+        <v>21.177838148027249</v>
       </c>
     </row>
     <row r="234" spans="1:24" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -34161,10 +34161,10 @@
         <v>5.7580207935274688</v>
       </c>
       <c r="W234" s="14">
-        <v>5.9003196966263234</v>
+        <v>5.8920319813409554</v>
       </c>
       <c r="X234" s="14">
-        <v>5.9102204027279797</v>
+        <v>5.9011914139697144</v>
       </c>
     </row>
     <row r="235" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -34235,10 +34235,10 @@
         <v>4.6049381834724441</v>
       </c>
       <c r="W235" s="14">
-        <v>4.6688780723512204</v>
+        <v>4.6692666955837483</v>
       </c>
       <c r="X235" s="14">
-        <v>4.7158148690122292</v>
+        <v>4.7164243624619946</v>
       </c>
     </row>
     <row r="236" spans="1:24" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -34309,10 +34309,10 @@
         <v>1.7361460566506035</v>
       </c>
       <c r="W236" s="14">
-        <v>1.8805188001654645</v>
+        <v>1.8806753288397249</v>
       </c>
       <c r="X236" s="14">
-        <v>1.54367825266907</v>
+        <v>1.5438777646960857</v>
       </c>
     </row>
     <row r="237" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -34383,10 +34383,10 @@
         <v>7.5050560218518703</v>
       </c>
       <c r="W237" s="14">
-        <v>7.5912956317553082</v>
+        <v>7.5919275081508308</v>
       </c>
       <c r="X237" s="14">
-        <v>7.511259495093797</v>
+        <v>7.5122302845732207</v>
       </c>
     </row>
     <row r="238" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -34457,10 +34457,10 @@
         <v>1.9339035897874501</v>
       </c>
       <c r="W238" s="14">
-        <v>1.9440186417484808</v>
+        <v>1.944180455956722</v>
       </c>
       <c r="X238" s="14">
-        <v>1.8527775489027625</v>
+        <v>1.8530170103344119</v>
       </c>
     </row>
     <row r="239" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -34531,10 +34531,10 @@
         <v>1.5590508328940706</v>
       </c>
       <c r="W239" s="14">
-        <v>1.6385749458789525</v>
+        <v>1.6387113358815055</v>
       </c>
       <c r="X239" s="14">
-        <v>1.6688450801507024</v>
+        <v>1.6690607693101112</v>
       </c>
     </row>
     <row r="240" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -34605,10 +34605,10 @@
         <v>0.33163934918424354</v>
       </c>
       <c r="W240" s="14">
-        <v>0.33716892573322987</v>
+        <v>0.33719699065071024</v>
       </c>
       <c r="X240" s="14">
-        <v>0.33015705803249684</v>
+        <v>0.33019972903843198</v>
       </c>
     </row>
     <row r="241" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -34679,10 +34679,10 @@
         <v>1.1244473761982461</v>
       </c>
       <c r="W241" s="14">
-        <v>1.1098165363592256</v>
+        <v>1.1099078159922762</v>
       </c>
       <c r="X241" s="14">
-        <v>1.1046962282233266</v>
+        <v>1.1048390042087679</v>
       </c>
     </row>
     <row r="242" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -34753,10 +34753,10 @@
         <v>0.56432346354092611</v>
       </c>
       <c r="W242" s="14">
-        <v>0.56869023335908253</v>
+        <v>0.56873756940713727</v>
       </c>
       <c r="X242" s="14">
-        <v>0.55050899240122153</v>
+        <v>0.55058014269745348</v>
       </c>
     </row>
     <row r="243" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -34827,10 +34827,10 @@
         <v>0.10158576070809172</v>
       </c>
       <c r="W243" s="14">
-        <v>0.11041641812557122</v>
+        <v>0.11042560885290895</v>
       </c>
       <c r="X243" s="14">
-        <v>0.11446099445039805</v>
+        <v>0.11447578791203911</v>
       </c>
     </row>
     <row r="244" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -34901,10 +34901,10 @@
         <v>0.10257318516850569</v>
       </c>
       <c r="W244" s="14">
-        <v>9.1484516397215901E-2</v>
+        <v>9.1492131290545203E-2</v>
       </c>
       <c r="X244" s="14">
-        <v>9.7294442944014431E-2</v>
+        <v>9.7307017722142952E-2</v>
       </c>
     </row>
     <row r="245" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -34975,10 +34975,10 @@
         <v>9.8950465051371922E-2</v>
       </c>
       <c r="W245" s="14">
-        <v>9.9990726641785349E-2</v>
+        <v>9.9999049566224185E-2</v>
       </c>
       <c r="X245" s="14">
-        <v>9.8813133764084835E-2</v>
+        <v>9.8825904824750468E-2</v>
       </c>
     </row>
     <row r="246" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -35049,10 +35049,10 @@
         <v>5.2386965677196082</v>
       </c>
       <c r="W246" s="14">
-        <v>5.2280552534129461</v>
+        <v>5.2278435184740326</v>
       </c>
       <c r="X246" s="14">
-        <v>5.1664481582257755</v>
+        <v>5.1664709823417061</v>
       </c>
     </row>
     <row r="247" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -35123,10 +35123,10 @@
         <v>12.159984687393735</v>
       </c>
       <c r="W247" s="14">
-        <v>10.084114432597179</v>
+        <v>10.084890753683467</v>
       </c>
       <c r="X247" s="14">
-        <v>10.263242930621338</v>
+        <v>10.264505879119936</v>
       </c>
     </row>
     <row r="248" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -35197,10 +35197,10 @@
         <v>9.8577673850843528</v>
       </c>
       <c r="W248" s="14">
-        <v>9.8559374950558603</v>
+        <v>9.8568621816117759</v>
       </c>
       <c r="X248" s="14">
-        <v>10.469789194808914</v>
+        <v>10.471252375477597</v>
       </c>
     </row>
     <row r="249" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -35271,10 +35271,10 @@
         <v>3.8543834639025096</v>
       </c>
       <c r="W249" s="14">
-        <v>3.9013633265587973</v>
+        <v>3.9016880641946354</v>
       </c>
       <c r="X249" s="14">
-        <v>4.0474678720748596</v>
+        <v>4.047990985306547</v>
       </c>
     </row>
     <row r="250" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -35345,10 +35345,10 @@
         <v>0.14562652832751402</v>
       </c>
       <c r="W250" s="14">
-        <v>0.15155833065062807</v>
+        <v>0.15263283179433751</v>
       </c>
       <c r="X250" s="14">
-        <v>0.14876931956781089</v>
+        <v>0.1517643612004016</v>
       </c>
     </row>
     <row r="251" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -35419,10 +35419,10 @@
         <v>12.524760928320678</v>
       </c>
       <c r="W251" s="14">
-        <v>12.590670796021117</v>
+        <v>12.59171880522346</v>
       </c>
       <c r="X251" s="14">
-        <v>12.090005600411466</v>
+        <v>12.086059163722945</v>
       </c>
     </row>
     <row r="252" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -35493,10 +35493,10 @@
         <v>10.060862468049635</v>
       </c>
       <c r="W252" s="14">
-        <v>10.75482512872871</v>
+        <v>10.755720327712712</v>
       </c>
       <c r="X252" s="14">
-        <v>11.140649044695063</v>
+        <v>11.142088913054504</v>
       </c>
     </row>
     <row r="253" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/Data/National Accounts/PSA-08AFF_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-08AFF_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E5A527-77B2-4FE3-B8E3-8F41AC874EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E6B281-BE96-425C-969D-26E0F157AA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFF" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="67">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -652,13 +652,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2000 to 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2001 to 2022</t>
+    <t>As of January 2024</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Annual 2000 to 2023</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2023</t>
   </si>
 </sst>
 </file>
@@ -23580,54 +23583,54 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:X256"/>
+  <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A184" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="V184" sqref="V1:X1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.77734375" style="1" customWidth="1"/>
-    <col min="2" max="24" width="10.21875" style="9" customWidth="1"/>
-    <col min="25" max="16384" width="7.77734375" style="9"/>
+    <col min="2" max="25" width="10.21875" style="9" customWidth="1"/>
+    <col min="26" max="16384" width="7.77734375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>23</v>
@@ -23654,8 +23657,9 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
@@ -23728,11 +23732,14 @@
       <c r="X10" s="6">
         <v>2022</v>
       </c>
+      <c r="Y10" s="6">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -23805,8 +23812,11 @@
       <c r="X12" s="8">
         <v>357179.83892840211</v>
       </c>
+      <c r="Y12" s="8">
+        <v>415362.11285413319</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -23879,8 +23889,11 @@
       <c r="X13" s="8">
         <v>126689.8479333912</v>
       </c>
+      <c r="Y13" s="8">
+        <v>142219.0313550953</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -23953,8 +23966,11 @@
       <c r="X14" s="8">
         <v>98114.213561903831</v>
       </c>
+      <c r="Y14" s="8">
+        <v>91010.435712141436</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
@@ -24027,8 +24043,11 @@
       <c r="X15" s="8">
         <v>37859.515695861701</v>
       </c>
+      <c r="Y15" s="8">
+        <v>41754.016963909402</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -24101,8 +24120,11 @@
       <c r="X16" s="8">
         <v>138718.93219190009</v>
       </c>
+      <c r="Y16" s="8">
+        <v>150474.23075960058</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -24175,8 +24197,11 @@
       <c r="X17" s="8">
         <v>37584.062590927904</v>
       </c>
+      <c r="Y17" s="8">
+        <v>44251.694294036111</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -24249,8 +24274,11 @@
       <c r="X18" s="8">
         <v>30251.798575179804</v>
       </c>
+      <c r="Y18" s="8">
+        <v>34623.019666545923</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -24323,8 +24351,11 @@
       <c r="X19" s="8">
         <v>6474.9008879042985</v>
       </c>
+      <c r="Y19" s="8">
+        <v>7358.1904449824588</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -24397,8 +24428,11 @@
       <c r="X20" s="8">
         <v>24496.647324262281</v>
       </c>
+      <c r="Y20" s="8">
+        <v>28711.552520509082</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -24471,8 +24505,11 @@
       <c r="X21" s="8">
         <v>10496.642977801548</v>
       </c>
+      <c r="Y21" s="8">
+        <v>9032.4017640297188</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -24545,8 +24582,11 @@
       <c r="X22" s="8">
         <v>1716.0826899361323</v>
       </c>
+      <c r="Y22" s="8">
+        <v>2107.0510991714668</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -24619,8 +24659,11 @@
       <c r="X23" s="8">
         <v>1689.1264763330616</v>
       </c>
+      <c r="Y23" s="8">
+        <v>1541.9775760358139</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -24693,8 +24736,11 @@
       <c r="X24" s="8">
         <v>1407.2953550406928</v>
       </c>
+      <c r="Y24" s="8">
+        <v>2709.1127588553386</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -24767,8 +24813,11 @@
       <c r="X25" s="8">
         <v>103352.24337818011</v>
       </c>
+      <c r="Y25" s="8">
+        <v>121398.32565943612</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -24841,8 +24890,11 @@
       <c r="X26" s="8">
         <v>299676.36287433829</v>
       </c>
+      <c r="Y26" s="8">
+        <v>304829.54070418654</v>
+      </c>
     </row>
-    <row r="27" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -24915,8 +24967,11 @@
       <c r="X27" s="8">
         <v>236142.04416248604</v>
       </c>
+      <c r="Y27" s="8">
+        <v>259356.16815747684</v>
+      </c>
     </row>
-    <row r="28" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -24989,8 +25044,11 @@
       <c r="X28" s="8">
         <v>75083.115500963642</v>
       </c>
+      <c r="Y28" s="8">
+        <v>78127.992954693415</v>
+      </c>
     </row>
-    <row r="29" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -25063,8 +25121,11 @@
       <c r="X29" s="8">
         <v>1206.9313653727734</v>
       </c>
+      <c r="Y29" s="8">
+        <v>831.4981748970132</v>
+      </c>
     </row>
-    <row r="30" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -25137,8 +25198,11 @@
       <c r="X30" s="8">
         <v>269643.56183451181</v>
       </c>
+      <c r="Y30" s="8">
+        <v>273909.38132016605</v>
+      </c>
     </row>
-    <row r="31" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -25211,11 +25275,14 @@
       <c r="X31" s="8">
         <v>245414.87836510679</v>
       </c>
+      <c r="Y31" s="8">
+        <v>275056.93929628655</v>
+      </c>
     </row>
-    <row r="32" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:24" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>1</v>
       </c>
@@ -25288,8 +25355,11 @@
       <c r="X33" s="10">
         <v>2103198.0426698038</v>
       </c>
+      <c r="Y33" s="10">
+        <v>2284664.6740361885</v>
+      </c>
     </row>
-    <row r="34" spans="1:24" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -25314,51 +25384,52 @@
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
       <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
     </row>
-    <row r="35" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="13" t="s">
         <v>23</v>
@@ -25385,8 +25456,9 @@
       <c r="V46" s="13"/>
       <c r="W46" s="13"/>
       <c r="X46" s="13"/>
+      <c r="Y46" s="13"/>
     </row>
-    <row r="47" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>22</v>
       </c>
@@ -25459,11 +25531,14 @@
       <c r="X47" s="5">
         <v>2022</v>
       </c>
+      <c r="Y47" s="5">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="48" spans="1:24" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -25536,8 +25611,11 @@
       <c r="X49" s="8">
         <v>377706.52232064994</v>
       </c>
+      <c r="Y49" s="8">
+        <v>384034.41340672912</v>
+      </c>
     </row>
-    <row r="50" spans="1:24" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -25610,8 +25688,11 @@
       <c r="X50" s="8">
         <v>105247.6872728677</v>
       </c>
+      <c r="Y50" s="8">
+        <v>107178.80339277041</v>
+      </c>
     </row>
-    <row r="51" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
@@ -25684,8 +25765,11 @@
       <c r="X51" s="8">
         <v>84117.379275554209</v>
       </c>
+      <c r="Y51" s="8">
+        <v>84699.126066611934</v>
+      </c>
     </row>
-    <row r="52" spans="1:24" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>18</v>
       </c>
@@ -25758,8 +25842,11 @@
       <c r="X52" s="8">
         <v>27535.043818712773</v>
       </c>
+      <c r="Y52" s="8">
+        <v>25695.602579257044</v>
+      </c>
     </row>
-    <row r="53" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
@@ -25832,8 +25919,11 @@
       <c r="X53" s="8">
         <v>133980.5487144271</v>
       </c>
+      <c r="Y53" s="8">
+        <v>134256.81133281789</v>
+      </c>
     </row>
-    <row r="54" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
@@ -25906,8 +25996,11 @@
       <c r="X54" s="8">
         <v>33048.539037947798</v>
       </c>
+      <c r="Y54" s="8">
+        <v>36408.93597302647</v>
+      </c>
     </row>
-    <row r="55" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>15</v>
       </c>
@@ -25980,8 +26073,11 @@
       <c r="X55" s="8">
         <v>29767.681399372432</v>
       </c>
+      <c r="Y55" s="8">
+        <v>29966.174868119906</v>
+      </c>
     </row>
-    <row r="56" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>14</v>
       </c>
@@ -26054,8 +26150,11 @@
       <c r="X56" s="8">
         <v>5889.1087208514155</v>
       </c>
+      <c r="Y56" s="8">
+        <v>5930.3781407401457</v>
+      </c>
     </row>
-    <row r="57" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>13</v>
       </c>
@@ -26128,8 +26227,11 @@
       <c r="X57" s="8">
         <v>19704.792108007317</v>
       </c>
+      <c r="Y57" s="8">
+        <v>19686.129970004109</v>
+      </c>
     </row>
-    <row r="58" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -26202,8 +26304,11 @@
       <c r="X58" s="8">
         <v>9819.5910981798661</v>
       </c>
+      <c r="Y58" s="8">
+        <v>8966.4232086538905</v>
+      </c>
     </row>
-    <row r="59" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -26276,8 +26381,11 @@
       <c r="X59" s="8">
         <v>2041.6744825392059</v>
       </c>
+      <c r="Y59" s="8">
+        <v>2091.9232647240951</v>
+      </c>
     </row>
-    <row r="60" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
@@ -26350,8 +26458,11 @@
       <c r="X60" s="8">
         <v>1735.4696454060925</v>
       </c>
+      <c r="Y60" s="8">
+        <v>1748.443919080089</v>
+      </c>
     </row>
-    <row r="61" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -26424,8 +26535,11 @@
       <c r="X61" s="8">
         <v>1762.5589810273023</v>
       </c>
+      <c r="Y61" s="8">
+        <v>2057.5222094774399</v>
+      </c>
     </row>
-    <row r="62" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -26498,8 +26612,11 @@
       <c r="X62" s="8">
         <v>92143.956043625483</v>
       </c>
+      <c r="Y62" s="8">
+        <v>91505.377558358537</v>
+      </c>
     </row>
-    <row r="63" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -26572,8 +26689,11 @@
       <c r="X63" s="8">
         <v>183067.35521554653</v>
       </c>
+      <c r="Y63" s="8">
+        <v>188516.02489963133</v>
+      </c>
     </row>
-    <row r="64" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -26646,8 +26766,11 @@
       <c r="X64" s="8">
         <v>186754.67682011292</v>
       </c>
+      <c r="Y64" s="8">
+        <v>194206.02153830609</v>
+      </c>
     </row>
-    <row r="65" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -26720,8 +26843,11 @@
       <c r="X65" s="8">
         <v>72195.876970941026</v>
       </c>
+      <c r="Y65" s="8">
+        <v>74487.484172359793</v>
+      </c>
     </row>
-    <row r="66" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>4</v>
       </c>
@@ -26794,8 +26920,11 @@
       <c r="X66" s="8">
         <v>2706.7157979275776</v>
       </c>
+      <c r="Y66" s="8">
+        <v>2089.4645911355592</v>
+      </c>
     </row>
-    <row r="67" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
@@ -26868,8 +26997,11 @@
       <c r="X67" s="8">
         <v>215554.73903348591</v>
       </c>
+      <c r="Y67" s="8">
+        <v>203600.6154797065</v>
+      </c>
     </row>
-    <row r="68" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
@@ -26942,11 +27074,14 @@
       <c r="X68" s="8">
         <v>198719.03946575918</v>
       </c>
+      <c r="Y68" s="8">
+        <v>207899.17919949256</v>
+      </c>
     </row>
-    <row r="69" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:24" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>1</v>
       </c>
@@ -27019,8 +27154,11 @@
       <c r="X70" s="10">
         <v>1783498.9562229416</v>
       </c>
+      <c r="Y70" s="10">
+        <v>1805024.8557710028</v>
+      </c>
     </row>
-    <row r="71" spans="1:24" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -27045,51 +27183,52 @@
       <c r="V71" s="12"/>
       <c r="W71" s="12"/>
       <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
     </row>
-    <row r="72" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="13" t="s">
         <v>23</v>
@@ -27116,8 +27255,9 @@
       <c r="V83" s="13"/>
       <c r="W83" s="13"/>
       <c r="X83" s="13"/>
+      <c r="Y83" s="13"/>
     </row>
-    <row r="84" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>22</v>
       </c>
@@ -27187,12 +27327,15 @@
       <c r="W84" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="X84" s="5"/>
+      <c r="X84" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y84" s="5"/>
     </row>
-    <row r="85" spans="1:24" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
     </row>
-    <row r="86" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>21</v>
       </c>
@@ -27262,9 +27405,12 @@
       <c r="W86" s="14">
         <v>3.2787991677242729</v>
       </c>
-      <c r="X86" s="14"/>
+      <c r="X86" s="14">
+        <v>16.289349953314101</v>
+      </c>
+      <c r="Y86" s="14"/>
     </row>
-    <row r="87" spans="1:24" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>20</v>
       </c>
@@ -27334,9 +27480,12 @@
       <c r="W87" s="14">
         <v>21.574298736930174</v>
       </c>
-      <c r="X87" s="14"/>
+      <c r="X87" s="14">
+        <v>12.257638378308556</v>
+      </c>
+      <c r="Y87" s="14"/>
     </row>
-    <row r="88" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>19</v>
       </c>
@@ -27406,9 +27555,12 @@
       <c r="W88" s="14">
         <v>7.6188453724914496</v>
       </c>
-      <c r="X88" s="14"/>
+      <c r="X88" s="14">
+        <v>-7.2403147228819762</v>
+      </c>
+      <c r="Y88" s="14"/>
     </row>
-    <row r="89" spans="1:24" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>18</v>
       </c>
@@ -27478,9 +27630,12 @@
       <c r="W89" s="14">
         <v>43.54911750489066</v>
       </c>
-      <c r="X89" s="14"/>
+      <c r="X89" s="14">
+        <v>10.286717081469149</v>
+      </c>
+      <c r="Y89" s="14"/>
     </row>
-    <row r="90" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>17</v>
       </c>
@@ -27550,9 +27705,12 @@
       <c r="W90" s="14">
         <v>-22.335025099994425</v>
       </c>
-      <c r="X90" s="14"/>
+      <c r="X90" s="14">
+        <v>8.4741847287567822</v>
+      </c>
+      <c r="Y90" s="14"/>
     </row>
-    <row r="91" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>16</v>
       </c>
@@ -27622,9 +27780,12 @@
       <c r="W91" s="14">
         <v>0.34694384234698816</v>
       </c>
-      <c r="X91" s="14"/>
+      <c r="X91" s="14">
+        <v>17.740582692403379</v>
+      </c>
+      <c r="Y91" s="14"/>
     </row>
-    <row r="92" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>15</v>
       </c>
@@ -27694,9 +27855,12 @@
       <c r="W92" s="14">
         <v>14.201501560144948</v>
       </c>
-      <c r="X92" s="14"/>
+      <c r="X92" s="14">
+        <v>14.44945853550837</v>
+      </c>
+      <c r="Y92" s="14"/>
     </row>
-    <row r="93" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>14</v>
       </c>
@@ -27766,9 +27930,12 @@
       <c r="W93" s="14">
         <v>14.072210832567222</v>
       </c>
-      <c r="X93" s="14"/>
+      <c r="X93" s="14">
+        <v>13.641746373727898</v>
+      </c>
+      <c r="Y93" s="14"/>
     </row>
-    <row r="94" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>13</v>
       </c>
@@ -27838,9 +28005,12 @@
       <c r="W94" s="14">
         <v>3.1865472622213815</v>
       </c>
-      <c r="X94" s="14"/>
+      <c r="X94" s="14">
+        <v>17.206049221569273</v>
+      </c>
+      <c r="Y94" s="14"/>
     </row>
-    <row r="95" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>12</v>
       </c>
@@ -27910,9 +28080,12 @@
       <c r="W95" s="14">
         <v>-4.5790311523387572</v>
       </c>
-      <c r="X95" s="14"/>
+      <c r="X95" s="14">
+        <v>-13.949614337349843</v>
+      </c>
+      <c r="Y95" s="14"/>
     </row>
-    <row r="96" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>11</v>
       </c>
@@ -27982,9 +28155,12 @@
       <c r="W96" s="14">
         <v>7.8046173733567628</v>
       </c>
-      <c r="X96" s="14"/>
+      <c r="X96" s="14">
+        <v>22.78260899245393</v>
+      </c>
+      <c r="Y96" s="14"/>
     </row>
-    <row r="97" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
@@ -28054,9 +28230,12 @@
       <c r="W97" s="14">
         <v>12.116893091796726</v>
       </c>
-      <c r="X97" s="14"/>
+      <c r="X97" s="14">
+        <v>-8.7115383222631522</v>
+      </c>
+      <c r="Y97" s="14"/>
     </row>
-    <row r="98" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
@@ -28126,9 +28305,12 @@
       <c r="W98" s="14">
         <v>-7.5465325149072839</v>
       </c>
-      <c r="X98" s="14"/>
+      <c r="X98" s="14">
+        <v>92.50491726216228</v>
+      </c>
+      <c r="Y98" s="14"/>
     </row>
-    <row r="99" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
@@ -28198,9 +28380,12 @@
       <c r="W99" s="14">
         <v>7.3479629881261701</v>
       </c>
-      <c r="X99" s="14"/>
+      <c r="X99" s="14">
+        <v>17.460755268971667</v>
+      </c>
+      <c r="Y99" s="14"/>
     </row>
-    <row r="100" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>7</v>
       </c>
@@ -28270,9 +28455,12 @@
       <c r="W100" s="14">
         <v>11.879235553807675</v>
       </c>
-      <c r="X100" s="14"/>
+      <c r="X100" s="14">
+        <v>1.7195810108016758</v>
+      </c>
+      <c r="Y100" s="14"/>
     </row>
-    <row r="101" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>6</v>
       </c>
@@ -28342,9 +28530,12 @@
       <c r="W101" s="14">
         <v>17.170315899283224</v>
       </c>
-      <c r="X101" s="14"/>
+      <c r="X101" s="14">
+        <v>9.8305763708124374</v>
+      </c>
+      <c r="Y101" s="14"/>
     </row>
-    <row r="102" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>5</v>
       </c>
@@ -28414,9 +28605,12 @@
       <c r="W102" s="14">
         <v>13.552733123165254</v>
       </c>
-      <c r="X102" s="14"/>
+      <c r="X102" s="14">
+        <v>4.0553424473851294</v>
+      </c>
+      <c r="Y102" s="14"/>
     </row>
-    <row r="103" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>4</v>
       </c>
@@ -28486,9 +28680,12 @@
       <c r="W103" s="14">
         <v>-12.760092915707403</v>
       </c>
-      <c r="X103" s="14"/>
+      <c r="X103" s="14">
+        <v>-31.106424213261192</v>
+      </c>
+      <c r="Y103" s="14"/>
     </row>
-    <row r="104" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
@@ -28558,9 +28755,12 @@
       <c r="W104" s="14">
         <v>8.6106835404047217</v>
       </c>
-      <c r="X104" s="14"/>
+      <c r="X104" s="14">
+        <v>1.5820216350176821</v>
+      </c>
+      <c r="Y104" s="14"/>
     </row>
-    <row r="105" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>2</v>
       </c>
@@ -28630,12 +28830,15 @@
       <c r="W105" s="14">
         <v>12.648242551455112</v>
       </c>
-      <c r="X105" s="14"/>
+      <c r="X105" s="14">
+        <v>12.078347135531402</v>
+      </c>
+      <c r="Y105" s="14"/>
     </row>
-    <row r="106" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106"/>
     </row>
-    <row r="107" spans="1:24" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
         <v>1</v>
       </c>
@@ -28705,9 +28908,12 @@
       <c r="W107" s="14">
         <v>7.6087209751645588</v>
       </c>
-      <c r="X107" s="14"/>
+      <c r="X107" s="14">
+        <v>8.628128577755362</v>
+      </c>
+      <c r="Y107" s="14"/>
     </row>
-    <row r="108" spans="1:24" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -28732,51 +28938,52 @@
       <c r="V108" s="12"/>
       <c r="W108" s="12"/>
       <c r="X108" s="12"/>
+      <c r="Y108" s="12"/>
     </row>
-    <row r="109" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="115" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="13" t="s">
         <v>23</v>
@@ -28803,8 +29010,9 @@
       <c r="V120" s="13"/>
       <c r="W120" s="13"/>
       <c r="X120" s="13"/>
+      <c r="Y120" s="13"/>
     </row>
-    <row r="121" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>22</v>
       </c>
@@ -28874,12 +29082,15 @@
       <c r="W121" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="X121" s="5"/>
+      <c r="X121" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y121" s="5"/>
     </row>
-    <row r="122" spans="1:24" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
     </row>
-    <row r="123" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>21</v>
       </c>
@@ -28949,9 +29160,12 @@
       <c r="W123" s="14">
         <v>-1.0113077039599006</v>
       </c>
-      <c r="X123" s="14"/>
+      <c r="X123" s="14">
+        <v>1.6753459927565615</v>
+      </c>
+      <c r="Y123" s="14"/>
     </row>
-    <row r="124" spans="1:24" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>20</v>
       </c>
@@ -29021,9 +29235,12 @@
       <c r="W124" s="14">
         <v>0.623090657160418</v>
       </c>
-      <c r="X124" s="14"/>
+      <c r="X124" s="14">
+        <v>1.8348299805353889</v>
+      </c>
+      <c r="Y124" s="14"/>
     </row>
-    <row r="125" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>19</v>
       </c>
@@ -29093,9 +29310,12 @@
       <c r="W125" s="14">
         <v>1.481584596335324</v>
       </c>
-      <c r="X125" s="14"/>
+      <c r="X125" s="14">
+        <v>0.69158929589569595</v>
+      </c>
+      <c r="Y125" s="14"/>
     </row>
-    <row r="126" spans="1:24" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
         <v>18</v>
       </c>
@@ -29165,9 +29385,12 @@
       <c r="W126" s="14">
         <v>-17.52503664013166</v>
       </c>
-      <c r="X126" s="14"/>
+      <c r="X126" s="14">
+        <v>-6.6803643079937558</v>
+      </c>
+      <c r="Y126" s="14"/>
     </row>
-    <row r="127" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>17</v>
       </c>
@@ -29237,9 +29460,12 @@
       <c r="W127" s="14">
         <v>-0.58775389503081499</v>
       </c>
-      <c r="X127" s="14"/>
+      <c r="X127" s="14">
+        <v>0.20619606431051807</v>
+      </c>
+      <c r="Y127" s="14"/>
     </row>
-    <row r="128" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>16</v>
       </c>
@@ -29309,9 +29535,12 @@
       <c r="W128" s="14">
         <v>-4.2440257452391137</v>
       </c>
-      <c r="X128" s="14"/>
+      <c r="X128" s="14">
+        <v>10.168065012556582</v>
+      </c>
+      <c r="Y128" s="14"/>
     </row>
-    <row r="129" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>15</v>
       </c>
@@ -29381,9 +29610,12 @@
       <c r="W129" s="14">
         <v>2.3275880606972237</v>
       </c>
-      <c r="X129" s="14"/>
+      <c r="X129" s="14">
+        <v>0.66680863075771413</v>
+      </c>
+      <c r="Y129" s="14"/>
     </row>
-    <row r="130" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>14</v>
       </c>
@@ -29453,9 +29685,12 @@
       <c r="W130" s="14">
         <v>-1.6179044744579443</v>
       </c>
-      <c r="X130" s="14"/>
+      <c r="X130" s="14">
+        <v>0.70077530989721026</v>
+      </c>
+      <c r="Y130" s="14"/>
     </row>
-    <row r="131" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>13</v>
       </c>
@@ -29525,9 +29760,12 @@
       <c r="W131" s="14">
         <v>8.090300872211742E-3</v>
       </c>
-      <c r="X131" s="14"/>
+      <c r="X131" s="14">
+        <v>-9.4708626718400524E-2</v>
+      </c>
+      <c r="Y131" s="14"/>
     </row>
-    <row r="132" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
@@ -29597,9 +29835,12 @@
       <c r="W132" s="14">
         <v>-2.7405806075207266</v>
       </c>
-      <c r="X132" s="14"/>
+      <c r="X132" s="14">
+        <v>-8.6884258315411529</v>
+      </c>
+      <c r="Y132" s="14"/>
     </row>
-    <row r="133" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
@@ -29669,9 +29910,12 @@
       <c r="W133" s="14">
         <v>4.1518252020840123</v>
       </c>
-      <c r="X133" s="14"/>
+      <c r="X133" s="14">
+        <v>2.4611554199568388</v>
+      </c>
+      <c r="Y133" s="14"/>
     </row>
-    <row r="134" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>10</v>
       </c>
@@ -29741,9 +29985,12 @@
       <c r="W134" s="14">
         <v>6.8521989732273596</v>
       </c>
-      <c r="X134" s="14"/>
+      <c r="X134" s="14">
+        <v>0.74759438797103428</v>
+      </c>
+      <c r="Y134" s="14"/>
     </row>
-    <row r="135" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>9</v>
       </c>
@@ -29813,9 +30060,12 @@
       <c r="W135" s="14">
         <v>-0.71172321693748586</v>
       </c>
-      <c r="X135" s="14"/>
+      <c r="X135" s="14">
+        <v>16.734942298397243</v>
+      </c>
+      <c r="Y135" s="14"/>
     </row>
-    <row r="136" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
@@ -29885,9 +30135,12 @@
       <c r="W136" s="14">
         <v>-0.71252616711140604</v>
       </c>
-      <c r="X136" s="14"/>
+      <c r="X136" s="14">
+        <v>-0.69302264921707035</v>
+      </c>
+      <c r="Y136" s="14"/>
     </row>
-    <row r="137" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
@@ -29957,9 +30210,12 @@
       <c r="W137" s="14">
         <v>2.2562580206787288</v>
       </c>
-      <c r="X137" s="14"/>
+      <c r="X137" s="14">
+        <v>2.9763196598702422</v>
+      </c>
+      <c r="Y137" s="14"/>
     </row>
-    <row r="138" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>6</v>
       </c>
@@ -30029,9 +30285,12 @@
       <c r="W138" s="14">
         <v>6.7291348232170662</v>
       </c>
-      <c r="X138" s="14"/>
+      <c r="X138" s="14">
+        <v>3.9899106384203122</v>
+      </c>
+      <c r="Y138" s="14"/>
     </row>
-    <row r="139" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>5</v>
       </c>
@@ -30101,9 +30360,12 @@
       <c r="W139" s="14">
         <v>4.2341520803585269</v>
       </c>
-      <c r="X139" s="14"/>
+      <c r="X139" s="14">
+        <v>3.1741524551895708</v>
+      </c>
+      <c r="Y139" s="14"/>
     </row>
-    <row r="140" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>4</v>
       </c>
@@ -30173,9 +30435,12 @@
       <c r="W140" s="14">
         <v>-0.10473973315586704</v>
       </c>
-      <c r="X140" s="14"/>
+      <c r="X140" s="14">
+        <v>-22.804433596782587</v>
+      </c>
+      <c r="Y140" s="14"/>
     </row>
-    <row r="141" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>3</v>
       </c>
@@ -30245,9 +30510,12 @@
       <c r="W141" s="14">
         <v>-3.5676510745293939</v>
       </c>
-      <c r="X141" s="14"/>
+      <c r="X141" s="14">
+        <v>-5.5457484290903807</v>
+      </c>
+      <c r="Y141" s="14"/>
     </row>
-    <row r="142" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>2</v>
       </c>
@@ -30317,12 +30585,15 @@
       <c r="W142" s="14">
         <v>4.0758975529179509</v>
       </c>
-      <c r="X142" s="14"/>
+      <c r="X142" s="14">
+        <v>4.6196578638933943</v>
+      </c>
+      <c r="Y142" s="14"/>
     </row>
-    <row r="143" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:24" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
         <v>1</v>
       </c>
@@ -30392,9 +30663,12 @@
       <c r="W144" s="14">
         <v>0.46691025982745771</v>
       </c>
-      <c r="X144" s="14"/>
+      <c r="X144" s="14">
+        <v>1.2069476953128202</v>
+      </c>
+      <c r="Y144" s="14"/>
     </row>
-    <row r="145" spans="1:24" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -30419,46 +30693,47 @@
       <c r="V145" s="12"/>
       <c r="W145" s="12"/>
       <c r="X145" s="12"/>
+      <c r="Y145" s="12"/>
     </row>
-    <row r="146" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148"/>
     </row>
-    <row r="149" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="151" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="154" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="13" t="s">
         <v>23</v>
@@ -30485,8 +30760,9 @@
       <c r="V156" s="13"/>
       <c r="W156" s="13"/>
       <c r="X156" s="13"/>
+      <c r="Y156" s="13"/>
     </row>
-    <row r="157" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>22</v>
       </c>
@@ -30559,11 +30835,14 @@
       <c r="X157" s="5">
         <v>2022</v>
       </c>
+      <c r="Y157" s="5">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="158" spans="1:24" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7"/>
     </row>
-    <row r="159" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>21</v>
       </c>
@@ -30636,8 +30915,11 @@
       <c r="X159" s="14">
         <v>94.565441108580615</v>
       </c>
+      <c r="Y159" s="14">
+        <v>108.15752400142979</v>
+      </c>
     </row>
-    <row r="160" spans="1:24" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>20</v>
       </c>
@@ -30710,8 +30992,11 @@
       <c r="X160" s="14">
         <v>120.37304687268997</v>
       </c>
+      <c r="Y160" s="14">
+        <v>132.69324423591061</v>
+      </c>
     </row>
-    <row r="161" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>19</v>
       </c>
@@ -30784,8 +31069,11 @@
       <c r="X161" s="14">
         <v>116.63964617882159</v>
       </c>
+      <c r="Y161" s="14">
+        <v>107.45144600496343</v>
+      </c>
     </row>
-    <row r="162" spans="1:24" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
         <v>18</v>
       </c>
@@ -30858,8 +31146,11 @@
       <c r="X162" s="14">
         <v>137.49575248590102</v>
       </c>
+      <c r="Y162" s="14">
+        <v>162.49479589015604</v>
+      </c>
     </row>
-    <row r="163" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>17</v>
       </c>
@@ -30932,8 +31223,11 @@
       <c r="X163" s="14">
         <v>103.53662044448902</v>
       </c>
+      <c r="Y163" s="14">
+        <v>112.07940160784861</v>
+      </c>
     </row>
-    <row r="164" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>16</v>
       </c>
@@ -31006,8 +31300,11 @@
       <c r="X164" s="14">
         <v>113.72382466823183</v>
       </c>
+      <c r="Y164" s="14">
+        <v>121.5407512233259</v>
+      </c>
     </row>
-    <row r="165" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>15</v>
       </c>
@@ -31080,8 +31377,11 @@
       <c r="X165" s="14">
         <v>101.62631805048001</v>
       </c>
+      <c r="Y165" s="14">
+        <v>115.54033779393143</v>
+      </c>
     </row>
-    <row r="166" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>14</v>
       </c>
@@ -31154,8 +31454,11 @@
       <c r="X166" s="14">
         <v>109.94704283483144</v>
       </c>
+      <c r="Y166" s="14">
+        <v>124.07624388120576</v>
+      </c>
     </row>
-    <row r="167" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>13</v>
       </c>
@@ -31228,8 +31531,11 @@
       <c r="X167" s="14">
         <v>124.31822264345396</v>
       </c>
+      <c r="Y167" s="14">
+        <v>145.84660654103712</v>
+      </c>
     </row>
-    <row r="168" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>12</v>
       </c>
@@ -31302,8 +31608,11 @@
       <c r="X168" s="14">
         <v>106.89490909399657</v>
       </c>
+      <c r="Y168" s="14">
+        <v>100.73584029930853</v>
+      </c>
     </row>
-    <row r="169" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>11</v>
       </c>
@@ -31376,8 +31685,11 @@
       <c r="X169" s="14">
         <v>84.052707942054553</v>
       </c>
+      <c r="Y169" s="14">
+        <v>100.72315436720223</v>
+      </c>
     </row>
-    <row r="170" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>10</v>
       </c>
@@ -31450,8 +31762,11 @@
       <c r="X170" s="14">
         <v>97.329646807957474</v>
       </c>
+      <c r="Y170" s="14">
+        <v>88.191423196867319</v>
+      </c>
     </row>
-    <row r="171" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>9</v>
       </c>
@@ -31524,8 +31839,11 @@
       <c r="X171" s="14">
         <v>79.843873038532593</v>
       </c>
+      <c r="Y171" s="14">
+        <v>131.66870065248952</v>
+      </c>
     </row>
-    <row r="172" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>8</v>
       </c>
@@ -31598,8 +31916,11 @@
       <c r="X172" s="14">
         <v>112.16388769899142</v>
       </c>
+      <c r="Y172" s="14">
+        <v>132.66796870163509</v>
+      </c>
     </row>
-    <row r="173" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>7</v>
       </c>
@@ -31672,8 +31993,11 @@
       <c r="X173" s="14">
         <v>163.69732469314062</v>
       </c>
+      <c r="Y173" s="14">
+        <v>161.6995376740424</v>
+      </c>
     </row>
-    <row r="174" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>6</v>
       </c>
@@ -31746,8 +32070,11 @@
       <c r="X174" s="14">
         <v>126.44504982862858</v>
       </c>
+      <c r="Y174" s="14">
+        <v>133.54692408768605</v>
+      </c>
     </row>
-    <row r="175" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>5</v>
       </c>
@@ -31820,8 +32147,11 @@
       <c r="X175" s="14">
         <v>103.99917370791789</v>
       </c>
+      <c r="Y175" s="14">
+        <v>104.8874100431553</v>
+      </c>
     </row>
-    <row r="176" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>4</v>
       </c>
@@ -31894,8 +32224,11 @@
       <c r="X176" s="14">
         <v>44.5902508973004</v>
       </c>
+      <c r="Y176" s="14">
+        <v>39.794796160920811</v>
+      </c>
     </row>
-    <row r="177" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>3</v>
       </c>
@@ -31968,8 +32301,11 @@
       <c r="X177" s="14">
         <v>125.09284789726813</v>
       </c>
+      <c r="Y177" s="14">
+        <v>134.53268826069313</v>
+      </c>
     </row>
-    <row r="178" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>2</v>
       </c>
@@ -32042,11 +32378,14 @@
       <c r="X178" s="14">
         <v>123.49842220699425</v>
       </c>
+      <c r="Y178" s="14">
+        <v>132.30304244364132</v>
+      </c>
     </row>
-    <row r="179" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:24" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="s">
         <v>1</v>
       </c>
@@ -32119,8 +32458,11 @@
       <c r="X180" s="14">
         <v>117.92538679831439</v>
       </c>
+      <c r="Y180" s="14">
+        <v>126.57247720061513</v>
+      </c>
     </row>
-    <row r="181" spans="1:24" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -32145,45 +32487,46 @@
       <c r="V181" s="12"/>
       <c r="W181" s="12"/>
       <c r="X181" s="12"/>
+      <c r="Y181" s="12"/>
     </row>
-    <row r="182" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="188" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="191" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="13" t="s">
         <v>23</v>
@@ -32210,8 +32553,9 @@
       <c r="V193" s="13"/>
       <c r="W193" s="13"/>
       <c r="X193" s="13"/>
+      <c r="Y193" s="13"/>
     </row>
-    <row r="194" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>22</v>
       </c>
@@ -32284,11 +32628,14 @@
       <c r="X194" s="5">
         <v>2022</v>
       </c>
+      <c r="Y194" s="5">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="195" spans="1:24" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7"/>
     </row>
-    <row r="196" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>21</v>
       </c>
@@ -32361,8 +32708,11 @@
       <c r="X196" s="14">
         <v>16.982701185619081</v>
       </c>
+      <c r="Y196" s="14">
+        <v>18.180440988757283</v>
+      </c>
     </row>
-    <row r="197" spans="1:24" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>20</v>
       </c>
@@ -32435,8 +32785,11 @@
       <c r="X197" s="14">
         <v>6.0236765802886945</v>
       </c>
+      <c r="Y197" s="14">
+        <v>6.2249411465641895</v>
+      </c>
     </row>
-    <row r="198" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>19</v>
       </c>
@@ -32509,8 +32862,11 @@
       <c r="X198" s="14">
         <v>4.6650011825494779</v>
       </c>
+      <c r="Y198" s="14">
+        <v>3.9835358224083897</v>
+      </c>
     </row>
-    <row r="199" spans="1:24" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
         <v>18</v>
       </c>
@@ -32583,8 +32939,11 @@
       <c r="X199" s="14">
         <v>1.800092760061851</v>
       </c>
+      <c r="Y199" s="14">
+        <v>1.8275774750849949</v>
+      </c>
     </row>
-    <row r="200" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>17</v>
       </c>
@@ -32657,8 +33016,11 @@
       <c r="X200" s="14">
         <v>6.5956191180080213</v>
       </c>
+      <c r="Y200" s="14">
+        <v>6.5862720455061892</v>
+      </c>
     </row>
-    <row r="201" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>16</v>
       </c>
@@ -32731,8 +33093,11 @@
       <c r="X201" s="14">
         <v>1.7869958904687178</v>
       </c>
+      <c r="Y201" s="14">
+        <v>1.9369010602268879</v>
+      </c>
     </row>
-    <row r="202" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>15</v>
       </c>
@@ -32805,8 +33170,11 @@
       <c r="X202" s="14">
         <v>1.4383713735668044</v>
       </c>
+      <c r="Y202" s="14">
+        <v>1.5154530141781981</v>
+      </c>
     </row>
-    <row r="203" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>14</v>
       </c>
@@ -32879,8 +33247,11 @@
       <c r="X203" s="14">
         <v>0.30785978098786393</v>
       </c>
+      <c r="Y203" s="14">
+        <v>0.32206872757318727</v>
+      </c>
     </row>
-    <row r="204" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>13</v>
       </c>
@@ -32953,8 +33324,11 @@
       <c r="X204" s="14">
         <v>1.1647332693960759</v>
       </c>
+      <c r="Y204" s="14">
+        <v>1.2567075092812634</v>
+      </c>
     </row>
-    <row r="205" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>12</v>
       </c>
@@ -33027,8 +33401,11 @@
       <c r="X205" s="14">
         <v>0.49908010395811747</v>
       </c>
+      <c r="Y205" s="14">
+        <v>0.39534912351372253</v>
+      </c>
     </row>
-    <row r="206" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>11</v>
       </c>
@@ -33101,8 +33478,11 @@
       <c r="X206" s="14">
         <v>8.1593965718878933E-2</v>
       </c>
+      <c r="Y206" s="14">
+        <v>9.2225836163915387E-2</v>
+      </c>
     </row>
-    <row r="207" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>10</v>
       </c>
@@ -33175,8 +33555,11 @@
       <c r="X207" s="14">
         <v>8.0312288337282836E-2</v>
       </c>
+      <c r="Y207" s="14">
+        <v>6.7492511857842524E-2</v>
+      </c>
     </row>
-    <row r="208" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>9</v>
       </c>
@@ -33249,8 +33632,11 @@
       <c r="X208" s="14">
         <v>6.6912165496990916E-2</v>
       </c>
+      <c r="Y208" s="14">
+        <v>0.11857813488529595</v>
+      </c>
     </row>
-    <row r="209" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>8</v>
       </c>
@@ -33323,8 +33709,11 @@
       <c r="X209" s="14">
         <v>4.91405190007616</v>
       </c>
+      <c r="Y209" s="14">
+        <v>5.3136167875773435</v>
+      </c>
     </row>
-    <row r="210" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>7</v>
       </c>
@@ -33397,8 +33786,11 @@
       <c r="X210" s="14">
         <v>14.248604115945662</v>
       </c>
+      <c r="Y210" s="14">
+        <v>13.342419312925314</v>
+      </c>
     </row>
-    <row r="211" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>6</v>
       </c>
@@ -33471,8 +33863,11 @@
       <c r="X211" s="14">
         <v>11.227760742051988</v>
       </c>
+      <c r="Y211" s="14">
+        <v>11.35204527407897</v>
+      </c>
     </row>
-    <row r="212" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>5</v>
       </c>
@@ -33545,8 +33940,11 @@
       <c r="X212" s="14">
         <v>3.5699498562509593</v>
       </c>
+      <c r="Y212" s="14">
+        <v>3.4196700217134746</v>
+      </c>
     </row>
-    <row r="213" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>4</v>
       </c>
@@ -33619,8 +34017,11 @@
       <c r="X213" s="14">
         <v>5.7385531028770469E-2</v>
       </c>
+      <c r="Y213" s="14">
+        <v>3.639475781047781E-2</v>
+      </c>
     </row>
-    <row r="214" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>3</v>
       </c>
@@ -33693,8 +34094,11 @@
       <c r="X214" s="14">
         <v>12.82064533933408</v>
       </c>
+      <c r="Y214" s="14">
+        <v>11.989040861574917</v>
+      </c>
     </row>
-    <row r="215" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>2</v>
       </c>
@@ -33767,11 +34171,14 @@
       <c r="X215" s="14">
         <v>11.668652850854533</v>
       </c>
+      <c r="Y215" s="14">
+        <v>12.039269588318136</v>
+      </c>
     </row>
-    <row r="216" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216"/>
     </row>
-    <row r="217" spans="1:24" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="11" t="s">
         <v>1</v>
       </c>
@@ -33844,8 +34251,11 @@
       <c r="X217" s="14">
         <v>100</v>
       </c>
+      <c r="Y217" s="14">
+        <v>100</v>
+      </c>
     </row>
-    <row r="218" spans="1:24" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -33870,51 +34280,52 @@
       <c r="V218" s="12"/>
       <c r="W218" s="12"/>
       <c r="X218" s="12"/>
+      <c r="Y218" s="12"/>
     </row>
-    <row r="219" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220"/>
     </row>
-    <row r="221" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="225" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="228" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
       <c r="B230" s="13" t="s">
         <v>23</v>
@@ -33941,8 +34352,9 @@
       <c r="V230" s="13"/>
       <c r="W230" s="13"/>
       <c r="X230" s="13"/>
+      <c r="Y230" s="13"/>
     </row>
-    <row r="231" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
         <v>22</v>
       </c>
@@ -34015,11 +34427,14 @@
       <c r="X231" s="5">
         <v>2022</v>
       </c>
+      <c r="Y231" s="5">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="232" spans="1:24" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="7"/>
     </row>
-    <row r="233" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>21</v>
       </c>
@@ -34092,8 +34507,11 @@
       <c r="X233" s="14">
         <v>21.177838148027249</v>
       </c>
+      <c r="Y233" s="14">
+        <v>21.275851807740992</v>
+      </c>
     </row>
-    <row r="234" spans="1:24" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>20</v>
       </c>
@@ -34166,8 +34584,11 @@
       <c r="X234" s="14">
         <v>5.9011914139697144</v>
       </c>
+      <c r="Y234" s="14">
+        <v>5.9378020779104332</v>
+      </c>
     </row>
-    <row r="235" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>19</v>
       </c>
@@ -34240,8 +34661,11 @@
       <c r="X235" s="14">
         <v>4.7164243624619946</v>
       </c>
+      <c r="Y235" s="14">
+        <v>4.6924077414121443</v>
+      </c>
     </row>
-    <row r="236" spans="1:24" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="11" t="s">
         <v>18</v>
       </c>
@@ -34314,8 +34738,11 @@
       <c r="X236" s="14">
         <v>1.5438777646960857</v>
       </c>
+      <c r="Y236" s="14">
+        <v>1.4235594871230379</v>
+      </c>
     </row>
-    <row r="237" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>17</v>
       </c>
@@ -34388,8 +34815,11 @@
       <c r="X237" s="14">
         <v>7.5122302845732207</v>
       </c>
+      <c r="Y237" s="14">
+        <v>7.4379480650127174</v>
+      </c>
     </row>
-    <row r="238" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>16</v>
       </c>
@@ -34462,8 +34892,11 @@
       <c r="X238" s="14">
         <v>1.8530170103344119</v>
       </c>
+      <c r="Y238" s="14">
+        <v>2.0170877900445681</v>
+      </c>
     </row>
-    <row r="239" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>15</v>
       </c>
@@ -34536,8 +34969,11 @@
       <c r="X239" s="14">
         <v>1.6690607693101112</v>
       </c>
+      <c r="Y239" s="14">
+        <v>1.6601530318162891</v>
+      </c>
     </row>
-    <row r="240" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>14</v>
       </c>
@@ -34610,8 +35046,11 @@
       <c r="X240" s="14">
         <v>0.33019972903843198</v>
       </c>
+      <c r="Y240" s="14">
+        <v>0.3285482813036959</v>
+      </c>
     </row>
-    <row r="241" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>13</v>
       </c>
@@ -34684,8 +35123,11 @@
       <c r="X241" s="14">
         <v>1.1048390042087679</v>
       </c>
+      <c r="Y241" s="14">
+        <v>1.0906293011458463</v>
+      </c>
     </row>
-    <row r="242" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>12</v>
       </c>
@@ -34758,8 +35200,11 @@
       <c r="X242" s="14">
         <v>0.55058014269745348</v>
       </c>
+      <c r="Y242" s="14">
+        <v>0.49674790792971935</v>
+      </c>
     </row>
-    <row r="243" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>11</v>
       </c>
@@ -34832,8 +35277,11 @@
       <c r="X243" s="14">
         <v>0.11447578791203911</v>
       </c>
+      <c r="Y243" s="14">
+        <v>0.1158944298210534</v>
+      </c>
     </row>
-    <row r="244" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>10</v>
       </c>
@@ -34906,8 +35354,11 @@
       <c r="X244" s="14">
         <v>9.7307017722142952E-2</v>
       </c>
+      <c r="Y244" s="14">
+        <v>9.6865365232505579E-2</v>
+      </c>
     </row>
-    <row r="245" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>9</v>
       </c>
@@ -34980,8 +35431,11 @@
       <c r="X245" s="14">
         <v>9.8825904824750468E-2</v>
       </c>
+      <c r="Y245" s="14">
+        <v>0.11398858042863819</v>
+      </c>
     </row>
-    <row r="246" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>8</v>
       </c>
@@ -35054,8 +35508,11 @@
       <c r="X246" s="14">
         <v>5.1664709823417061</v>
       </c>
+      <c r="Y246" s="14">
+        <v>5.0694801939041838</v>
+      </c>
     </row>
-    <row r="247" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>7</v>
       </c>
@@ -35128,8 +35585,11 @@
       <c r="X247" s="14">
         <v>10.264505879119936</v>
       </c>
+      <c r="Y247" s="14">
+        <v>10.443957283851812</v>
+      </c>
     </row>
-    <row r="248" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>6</v>
       </c>
@@ -35202,8 +35662,11 @@
       <c r="X248" s="14">
         <v>10.471252375477597</v>
       </c>
+      <c r="Y248" s="14">
+        <v>10.759188213801767</v>
+      </c>
     </row>
-    <row r="249" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>5</v>
       </c>
@@ -35276,8 +35739,11 @@
       <c r="X249" s="14">
         <v>4.047990985306547</v>
       </c>
+      <c r="Y249" s="14">
+        <v>4.1266735986603926</v>
+      </c>
     </row>
-    <row r="250" spans="1:24" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>4</v>
       </c>
@@ -35350,8 +35816,11 @@
       <c r="X250" s="14">
         <v>0.1517643612004016</v>
       </c>
+      <c r="Y250" s="14">
+        <v>0.11575821709352917</v>
+      </c>
     </row>
-    <row r="251" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>3</v>
       </c>
@@ -35424,8 +35893,11 @@
       <c r="X251" s="14">
         <v>12.086059163722945</v>
       </c>
+      <c r="Y251" s="14">
+        <v>11.279657165315877</v>
+      </c>
     </row>
-    <row r="252" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>2</v>
       </c>
@@ -35498,11 +35970,14 @@
       <c r="X252" s="14">
         <v>11.142088913054504</v>
       </c>
+      <c r="Y252" s="14">
+        <v>11.517801460450801</v>
+      </c>
     </row>
-    <row r="253" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:24" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="11" t="s">
         <v>1</v>
       </c>
@@ -35575,8 +36050,11 @@
       <c r="X254" s="14">
         <v>100</v>
       </c>
+      <c r="Y254" s="14">
+        <v>100</v>
+      </c>
     </row>
-    <row r="255" spans="1:24" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:25" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="12"/>
       <c r="B255" s="12"/>
       <c r="C255" s="12"/>
@@ -35601,8 +36079,9 @@
       <c r="V255" s="12"/>
       <c r="W255" s="12"/>
       <c r="X255" s="12"/>
+      <c r="Y255" s="12"/>
     </row>
-    <row r="256" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>0</v>
       </c>

--- a/Data/National Accounts/PSA-08AFF_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-08AFF_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E6B281-BE96-425C-969D-26E0F157AA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11178D24-1B1B-4F9D-81B5-CDFE0B77A552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFF" sheetId="1" r:id="rId1"/>
@@ -655,13 +655,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of January 2024</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2023</t>
   </si>
   <si>
     <t>Annual 2001 to 2023</t>
+  </si>
+  <si>
+    <t>As of April 2024</t>
   </si>
 </sst>
 </file>
@@ -23586,51 +23586,51 @@
   <dimension ref="A1:Y256"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" style="1" customWidth="1"/>
-    <col min="2" max="25" width="10.21875" style="9" customWidth="1"/>
-    <col min="26" max="16384" width="7.77734375" style="9"/>
+    <col min="1" max="1" width="40.81640625" style="1" customWidth="1"/>
+    <col min="2" max="25" width="10.1796875" style="9" customWidth="1"/>
+    <col min="26" max="16384" width="7.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>23</v>
@@ -23659,7 +23659,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
@@ -23736,10 +23736,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -23810,13 +23810,13 @@
         <v>345840.42592162965</v>
       </c>
       <c r="X12" s="8">
-        <v>357179.83892840211</v>
+        <v>357181.76352662302</v>
       </c>
       <c r="Y12" s="8">
-        <v>415362.11285413319</v>
+        <v>415364.39652491623</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -23893,7 +23893,7 @@
         <v>142219.0313550953</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -23967,10 +23967,10 @@
         <v>98114.213561903831</v>
       </c>
       <c r="Y14" s="8">
-        <v>91010.435712141436</v>
+        <v>91010.435712485691</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
@@ -24047,7 +24047,7 @@
         <v>41754.016963909402</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -24121,10 +24121,10 @@
         <v>138718.93219190009</v>
       </c>
       <c r="Y16" s="8">
-        <v>150474.23075960058</v>
+        <v>150474.23075908824</v>
       </c>
     </row>
-    <row r="17" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -24198,10 +24198,10 @@
         <v>37584.062590927904</v>
       </c>
       <c r="Y17" s="8">
-        <v>44251.694294036111</v>
+        <v>44251.694293530571</v>
       </c>
     </row>
-    <row r="18" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -24275,10 +24275,10 @@
         <v>30251.798575179804</v>
       </c>
       <c r="Y18" s="8">
-        <v>34623.019666545923</v>
+        <v>34623.01966604482</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -24352,10 +24352,10 @@
         <v>6474.9008879042985</v>
       </c>
       <c r="Y19" s="8">
-        <v>7358.1904449824588</v>
+        <v>7358.1904448176947</v>
       </c>
     </row>
-    <row r="20" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -24429,10 +24429,10 @@
         <v>24496.647324262281</v>
       </c>
       <c r="Y20" s="8">
-        <v>28711.552520509082</v>
+        <v>28711.55252094274</v>
       </c>
     </row>
-    <row r="21" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -24509,7 +24509,7 @@
         <v>9032.4017640297188</v>
       </c>
     </row>
-    <row r="22" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -24583,10 +24583,10 @@
         <v>1716.0826899361323</v>
       </c>
       <c r="Y22" s="8">
-        <v>2107.0510991714668</v>
+        <v>2107.0510991798837</v>
       </c>
     </row>
-    <row r="23" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -24657,13 +24657,13 @@
         <v>1506.5762435550848</v>
       </c>
       <c r="X23" s="8">
-        <v>1689.1264763330616</v>
+        <v>1689.1264763330614</v>
       </c>
       <c r="Y23" s="8">
-        <v>1541.9775760358139</v>
+        <v>1541.9775760358134</v>
       </c>
     </row>
-    <row r="24" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -24740,7 +24740,7 @@
         <v>2709.1127588553386</v>
       </c>
     </row>
-    <row r="25" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -24811,13 +24811,13 @@
         <v>96277.787208325477</v>
       </c>
       <c r="X25" s="8">
-        <v>103352.24337818011</v>
+        <v>103616.51054342854</v>
       </c>
       <c r="Y25" s="8">
-        <v>121398.32565943612</v>
+        <v>121262.3728108269</v>
       </c>
     </row>
-    <row r="26" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -24891,10 +24891,10 @@
         <v>299676.36287433829</v>
       </c>
       <c r="Y26" s="8">
-        <v>304829.54070418654</v>
+        <v>304852.42296476604</v>
       </c>
     </row>
-    <row r="27" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -24965,13 +24965,13 @@
         <v>201537.43066244532</v>
       </c>
       <c r="X27" s="8">
-        <v>236142.04416248604</v>
+        <v>236595.25007568498</v>
       </c>
       <c r="Y27" s="8">
-        <v>259356.16815747684</v>
+        <v>259849.49658743993</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -25048,7 +25048,7 @@
         <v>78127.992954693415</v>
       </c>
     </row>
-    <row r="29" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -25119,13 +25119,13 @@
         <v>1383.4624608284107</v>
       </c>
       <c r="X29" s="8">
-        <v>1206.9313653727734</v>
+        <v>1219.6581931041087</v>
       </c>
       <c r="Y29" s="8">
-        <v>831.4981748970132</v>
+        <v>850.88734435614992</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -25196,13 +25196,13 @@
         <v>248266.14937397069</v>
       </c>
       <c r="X30" s="8">
-        <v>269643.56183451181</v>
+        <v>269803.25457634113</v>
       </c>
       <c r="Y30" s="8">
-        <v>273909.38132016605</v>
+        <v>274001.93686271593</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -25276,13 +25276,13 @@
         <v>245414.87836510679</v>
       </c>
       <c r="Y31" s="8">
-        <v>275056.93929628655</v>
+        <v>275056.9392956543</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>1</v>
       </c>
@@ -25353,13 +25353,13 @@
         <v>1954486.610016682</v>
       </c>
       <c r="X33" s="10">
-        <v>2103198.0426698038</v>
+        <v>2104089.8599160332</v>
       </c>
       <c r="Y33" s="10">
-        <v>2284664.6740361885</v>
+        <v>2285159.1602593842</v>
       </c>
     </row>
-    <row r="34" spans="1:25" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -25386,50 +25386,50 @@
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
     </row>
-    <row r="35" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="13" t="s">
         <v>23</v>
@@ -25458,7 +25458,7 @@
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
     </row>
-    <row r="47" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>22</v>
       </c>
@@ -25535,10 +25535,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="48" spans="1:25" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -25609,13 +25609,13 @@
         <v>381565.32181581261</v>
       </c>
       <c r="X49" s="8">
-        <v>377706.52232064994</v>
+        <v>377708.80898922088</v>
       </c>
       <c r="Y49" s="8">
-        <v>384034.41340672912</v>
+        <v>384036.70505752828</v>
       </c>
     </row>
-    <row r="50" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -25692,7 +25692,7 @@
         <v>107178.80339277041</v>
       </c>
     </row>
-    <row r="51" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
@@ -25769,7 +25769,7 @@
         <v>84699.126066611934</v>
       </c>
     </row>
-    <row r="52" spans="1:25" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>18</v>
       </c>
@@ -25846,7 +25846,7 @@
         <v>25695.602579257044</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
@@ -25920,10 +25920,10 @@
         <v>133980.5487144271</v>
       </c>
       <c r="Y53" s="8">
-        <v>134256.81133281789</v>
+        <v>134256.81133448373</v>
       </c>
     </row>
-    <row r="54" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
@@ -26000,7 +26000,7 @@
         <v>36408.93597302647</v>
       </c>
     </row>
-    <row r="55" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>15</v>
       </c>
@@ -26071,13 +26071,13 @@
         <v>29090.57270236377</v>
       </c>
       <c r="X55" s="8">
-        <v>29767.681399372432</v>
+        <v>29767.681399372428</v>
       </c>
       <c r="Y55" s="8">
         <v>29966.174868119906</v>
       </c>
     </row>
-    <row r="56" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>14</v>
       </c>
@@ -26154,7 +26154,7 @@
         <v>5930.3781407401457</v>
       </c>
     </row>
-    <row r="57" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>13</v>
       </c>
@@ -26231,7 +26231,7 @@
         <v>19686.129970004109</v>
       </c>
     </row>
-    <row r="58" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -26308,7 +26308,7 @@
         <v>8966.4232086538905</v>
       </c>
     </row>
-    <row r="59" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -26385,7 +26385,7 @@
         <v>2091.9232647240951</v>
       </c>
     </row>
-    <row r="60" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
@@ -26456,13 +26456,13 @@
         <v>1624.1777540216349</v>
       </c>
       <c r="X60" s="8">
-        <v>1735.4696454060925</v>
+        <v>1735.4696454060927</v>
       </c>
       <c r="Y60" s="8">
         <v>1748.443919080089</v>
       </c>
     </row>
-    <row r="61" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -26539,7 +26539,7 @@
         <v>2057.5222094774399</v>
       </c>
     </row>
-    <row r="62" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -26610,13 +26610,13 @@
         <v>92805.217502777421</v>
       </c>
       <c r="X62" s="8">
-        <v>92143.956043625483</v>
+        <v>92348.344280244783</v>
       </c>
       <c r="Y62" s="8">
-        <v>91505.377558358537</v>
+        <v>91407.502355712611</v>
       </c>
     </row>
-    <row r="63" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -26690,10 +26690,10 @@
         <v>183067.35521554653</v>
       </c>
       <c r="Y63" s="8">
-        <v>188516.02489963133</v>
+        <v>188523.41703175244</v>
       </c>
     </row>
-    <row r="64" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -26770,7 +26770,7 @@
         <v>194206.02153830609</v>
       </c>
     </row>
-    <row r="65" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -26847,7 +26847,7 @@
         <v>74487.484172359793</v>
       </c>
     </row>
-    <row r="66" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>4</v>
       </c>
@@ -26918,13 +26918,13 @@
         <v>2709.5537773236611</v>
       </c>
       <c r="X66" s="8">
-        <v>2706.7157979275776</v>
+        <v>2735.740113090932</v>
       </c>
       <c r="Y66" s="8">
-        <v>2089.4645911355592</v>
+        <v>2135.4309943799053</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
@@ -26998,10 +26998,10 @@
         <v>215554.73903348591</v>
       </c>
       <c r="Y67" s="8">
-        <v>203600.6154797065</v>
+        <v>203525.0389615653</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
@@ -27072,16 +27072,16 @@
         <v>190936.65693799988</v>
       </c>
       <c r="X68" s="8">
-        <v>198719.03946575918</v>
+        <v>198719.03946575921</v>
       </c>
       <c r="Y68" s="8">
-        <v>207899.17919949256</v>
+        <v>207899.17919768416</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>1</v>
       </c>
@@ -27152,13 +27152,13 @@
         <v>1775210.3171187984</v>
       </c>
       <c r="X70" s="10">
-        <v>1783498.9562229416</v>
+        <v>1783734.6554432954</v>
       </c>
       <c r="Y70" s="10">
-        <v>1805024.8557710028</v>
+        <v>1804907.0542362377</v>
       </c>
     </row>
-    <row r="71" spans="1:25" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -27185,50 +27185,50 @@
       <c r="X71" s="12"/>
       <c r="Y71" s="12"/>
     </row>
-    <row r="72" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="13" t="s">
         <v>23</v>
@@ -27257,7 +27257,7 @@
       <c r="X83" s="13"/>
       <c r="Y83" s="13"/>
     </row>
-    <row r="84" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>22</v>
       </c>
@@ -27332,10 +27332,10 @@
       </c>
       <c r="Y84" s="5"/>
     </row>
-    <row r="85" spans="1:25" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
     </row>
-    <row r="86" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>21</v>
       </c>
@@ -27403,14 +27403,14 @@
         <v>4.6957557862363331</v>
       </c>
       <c r="W86" s="14">
-        <v>3.2787991677242729</v>
+        <v>3.2793556666401429</v>
       </c>
       <c r="X86" s="14">
-        <v>16.289349953314101</v>
+        <v>16.289362710970678</v>
       </c>
       <c r="Y86" s="14"/>
     </row>
-    <row r="87" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>20</v>
       </c>
@@ -27485,7 +27485,7 @@
       </c>
       <c r="Y87" s="14"/>
     </row>
-    <row r="88" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>19</v>
       </c>
@@ -27556,11 +27556,11 @@
         <v>7.6188453724914496</v>
       </c>
       <c r="X88" s="14">
-        <v>-7.2403147228819762</v>
+        <v>-7.2403147225311102</v>
       </c>
       <c r="Y88" s="14"/>
     </row>
-    <row r="89" spans="1:25" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>18</v>
       </c>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="Y89" s="14"/>
     </row>
-    <row r="90" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>17</v>
       </c>
@@ -27706,11 +27706,11 @@
         <v>-22.335025099994425</v>
       </c>
       <c r="X90" s="14">
-        <v>8.4741847287567822</v>
+        <v>8.4741847283874563</v>
       </c>
       <c r="Y90" s="14"/>
     </row>
-    <row r="91" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>16</v>
       </c>
@@ -27781,11 +27781,11 @@
         <v>0.34694384234698816</v>
       </c>
       <c r="X91" s="14">
-        <v>17.740582692403379</v>
+        <v>17.740582691058265</v>
       </c>
       <c r="Y91" s="14"/>
     </row>
-    <row r="92" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>15</v>
       </c>
@@ -27856,11 +27856,11 @@
         <v>14.201501560144948</v>
       </c>
       <c r="X92" s="14">
-        <v>14.44945853550837</v>
+        <v>14.449458533851939</v>
       </c>
       <c r="Y92" s="14"/>
     </row>
-    <row r="93" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>14</v>
       </c>
@@ -27931,11 +27931,11 @@
         <v>14.072210832567222</v>
       </c>
       <c r="X93" s="14">
-        <v>13.641746373727898</v>
+        <v>13.641746371183245</v>
       </c>
       <c r="Y93" s="14"/>
     </row>
-    <row r="94" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>13</v>
       </c>
@@ -28006,11 +28006,11 @@
         <v>3.1865472622213815</v>
       </c>
       <c r="X94" s="14">
-        <v>17.206049221569273</v>
+        <v>17.206049223339548</v>
       </c>
       <c r="Y94" s="14"/>
     </row>
-    <row r="95" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>12</v>
       </c>
@@ -28085,7 +28085,7 @@
       </c>
       <c r="Y95" s="14"/>
     </row>
-    <row r="96" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>11</v>
       </c>
@@ -28156,11 +28156,11 @@
         <v>7.8046173733567628</v>
       </c>
       <c r="X96" s="14">
-        <v>22.78260899245393</v>
+        <v>22.782608992944404</v>
       </c>
       <c r="Y96" s="14"/>
     </row>
-    <row r="97" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
@@ -28228,14 +28228,14 @@
         <v>-14.955906788056609</v>
       </c>
       <c r="W97" s="14">
-        <v>12.116893091796726</v>
+        <v>12.116893091796712</v>
       </c>
       <c r="X97" s="14">
         <v>-8.7115383222631522</v>
       </c>
       <c r="Y97" s="14"/>
     </row>
-    <row r="98" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
@@ -28310,7 +28310,7 @@
       </c>
       <c r="Y98" s="14"/>
     </row>
-    <row r="99" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
@@ -28378,14 +28378,14 @@
         <v>-1.2230608487609231</v>
       </c>
       <c r="W99" s="14">
-        <v>7.3479629881261701</v>
+        <v>7.6224470336273527</v>
       </c>
       <c r="X99" s="14">
-        <v>17.460755268971667</v>
+        <v>17.029971550723559</v>
       </c>
       <c r="Y99" s="14"/>
     </row>
-    <row r="100" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>7</v>
       </c>
@@ -28456,11 +28456,11 @@
         <v>11.879235553807675</v>
       </c>
       <c r="X100" s="14">
-        <v>1.7195810108016758</v>
+        <v>1.7272166682689658</v>
       </c>
       <c r="Y100" s="14"/>
     </row>
-    <row r="101" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>6</v>
       </c>
@@ -28528,14 +28528,14 @@
         <v>7.1162107385493272</v>
       </c>
       <c r="W101" s="14">
-        <v>17.170315899283224</v>
+        <v>17.395190212560536</v>
       </c>
       <c r="X101" s="14">
-        <v>9.8305763708124374</v>
+        <v>9.8287038747887294</v>
       </c>
       <c r="Y101" s="14"/>
     </row>
-    <row r="102" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>5</v>
       </c>
@@ -28610,7 +28610,7 @@
       </c>
       <c r="Y102" s="14"/>
     </row>
-    <row r="103" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>4</v>
       </c>
@@ -28678,14 +28678,14 @@
         <v>-28.402050333728027</v>
       </c>
       <c r="W103" s="14">
-        <v>-12.760092915707403</v>
+        <v>-11.840167143112566</v>
       </c>
       <c r="X103" s="14">
-        <v>-31.106424213261192</v>
+        <v>-30.235589842545409</v>
       </c>
       <c r="Y103" s="14"/>
     </row>
-    <row r="104" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
@@ -28753,14 +28753,14 @@
         <v>10.487494527350265</v>
       </c>
       <c r="W104" s="14">
-        <v>8.6106835404047217</v>
+        <v>8.6750067444468613</v>
       </c>
       <c r="X104" s="14">
-        <v>1.5820216350176821</v>
+        <v>1.5562014968899263</v>
       </c>
       <c r="Y104" s="14"/>
     </row>
-    <row r="105" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>2</v>
       </c>
@@ -28831,14 +28831,14 @@
         <v>12.648242551455112</v>
       </c>
       <c r="X105" s="14">
-        <v>12.078347135531402</v>
+        <v>12.078347135273788</v>
       </c>
       <c r="Y105" s="14"/>
     </row>
-    <row r="106" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106"/>
     </row>
-    <row r="107" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>1</v>
       </c>
@@ -28906,14 +28906,14 @@
         <v>6.8946280591658962</v>
       </c>
       <c r="W107" s="14">
-        <v>7.6087209751645588</v>
+        <v>7.6543502080105981</v>
       </c>
       <c r="X107" s="14">
-        <v>8.628128577755362</v>
+        <v>8.6055878027270722</v>
       </c>
       <c r="Y107" s="14"/>
     </row>
-    <row r="108" spans="1:25" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -28940,50 +28940,50 @@
       <c r="X108" s="12"/>
       <c r="Y108" s="12"/>
     </row>
-    <row r="109" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="115" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="118" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="13" t="s">
         <v>23</v>
@@ -29012,7 +29012,7 @@
       <c r="X120" s="13"/>
       <c r="Y120" s="13"/>
     </row>
-    <row r="121" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>22</v>
       </c>
@@ -29087,10 +29087,10 @@
       </c>
       <c r="Y121" s="5"/>
     </row>
-    <row r="122" spans="1:25" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
     </row>
-    <row r="123" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>21</v>
       </c>
@@ -29158,14 +29158,14 @@
         <v>3.3479249726054121</v>
       </c>
       <c r="W123" s="14">
-        <v>-1.0113077039599006</v>
+        <v>-1.0107084176935075</v>
       </c>
       <c r="X123" s="14">
-        <v>1.6753459927565615</v>
+        <v>1.6753371691916215</v>
       </c>
       <c r="Y123" s="14"/>
     </row>
-    <row r="124" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>20</v>
       </c>
@@ -29240,7 +29240,7 @@
       </c>
       <c r="Y124" s="14"/>
     </row>
-    <row r="125" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>19</v>
       </c>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="Y125" s="14"/>
     </row>
-    <row r="126" spans="1:25" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>18</v>
       </c>
@@ -29390,7 +29390,7 @@
       </c>
       <c r="Y126" s="14"/>
     </row>
-    <row r="127" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>17</v>
       </c>
@@ -29461,11 +29461,11 @@
         <v>-0.58775389503081499</v>
       </c>
       <c r="X127" s="14">
-        <v>0.20619606431051807</v>
+        <v>0.20619606555388259</v>
       </c>
       <c r="Y127" s="14"/>
     </row>
-    <row r="128" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>16</v>
       </c>
@@ -29540,7 +29540,7 @@
       </c>
       <c r="Y128" s="14"/>
     </row>
-    <row r="129" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>15</v>
       </c>
@@ -29608,14 +29608,14 @@
         <v>4.8037232727661063</v>
       </c>
       <c r="W129" s="14">
-        <v>2.3275880606972237</v>
+        <v>2.3275880606971953</v>
       </c>
       <c r="X129" s="14">
         <v>0.66680863075771413</v>
       </c>
       <c r="Y129" s="14"/>
     </row>
-    <row r="130" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>14</v>
       </c>
@@ -29690,7 +29690,7 @@
       </c>
       <c r="Y130" s="14"/>
     </row>
-    <row r="131" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>13</v>
       </c>
@@ -29765,7 +29765,7 @@
       </c>
       <c r="Y131" s="14"/>
     </row>
-    <row r="132" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
@@ -29840,7 +29840,7 @@
       </c>
       <c r="Y132" s="14"/>
     </row>
-    <row r="133" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
@@ -29915,7 +29915,7 @@
       </c>
       <c r="Y133" s="14"/>
     </row>
-    <row r="134" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>10</v>
       </c>
@@ -29983,14 +29983,14 @@
         <v>-11.062599377504228</v>
       </c>
       <c r="W134" s="14">
-        <v>6.8521989732273596</v>
+        <v>6.8521989732273738</v>
       </c>
       <c r="X134" s="14">
-        <v>0.74759438797103428</v>
+        <v>0.74759438797100586</v>
       </c>
       <c r="Y134" s="14"/>
     </row>
-    <row r="135" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>9</v>
       </c>
@@ -30065,7 +30065,7 @@
       </c>
       <c r="Y135" s="14"/>
     </row>
-    <row r="136" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
@@ -30133,14 +30133,14 @@
         <v>-0.49752927539149994</v>
       </c>
       <c r="W136" s="14">
-        <v>-0.71252616711140604</v>
+        <v>-0.49229260468999314</v>
       </c>
       <c r="X136" s="14">
-        <v>-0.69302264921707035</v>
+        <v>-1.0187967438561145</v>
       </c>
       <c r="Y136" s="14"/>
     </row>
-    <row r="137" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
@@ -30211,11 +30211,11 @@
         <v>2.2562580206787288</v>
       </c>
       <c r="X137" s="14">
-        <v>2.9763196598702422</v>
+        <v>2.9803575901240436</v>
       </c>
       <c r="Y137" s="14"/>
     </row>
-    <row r="138" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>6</v>
       </c>
@@ -30290,7 +30290,7 @@
       </c>
       <c r="Y138" s="14"/>
     </row>
-    <row r="139" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>5</v>
       </c>
@@ -30365,7 +30365,7 @@
       </c>
       <c r="Y139" s="14"/>
     </row>
-    <row r="140" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>4</v>
       </c>
@@ -30433,14 +30433,14 @@
         <v>4.5061851836510698</v>
       </c>
       <c r="W140" s="14">
-        <v>-0.10473973315586704</v>
+        <v>0.96644458531973498</v>
       </c>
       <c r="X140" s="14">
-        <v>-22.804433596782587</v>
+        <v>-21.943207099185202</v>
       </c>
       <c r="Y140" s="14"/>
     </row>
-    <row r="141" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>3</v>
       </c>
@@ -30511,11 +30511,11 @@
         <v>-3.5676510745293939</v>
       </c>
       <c r="X141" s="14">
-        <v>-5.5457484290903807</v>
+        <v>-5.5808098332052083</v>
       </c>
       <c r="Y141" s="14"/>
     </row>
-    <row r="142" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>2</v>
       </c>
@@ -30583,17 +30583,17 @@
         <v>6.595487031509137</v>
       </c>
       <c r="W142" s="14">
-        <v>4.0758975529179509</v>
+        <v>4.0758975529179793</v>
       </c>
       <c r="X142" s="14">
-        <v>4.6196578638933943</v>
+        <v>4.6196578629833454</v>
       </c>
       <c r="Y142" s="14"/>
     </row>
-    <row r="143" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
         <v>1</v>
       </c>
@@ -30661,14 +30661,14 @@
         <v>-0.2909612687144687</v>
       </c>
       <c r="W144" s="14">
-        <v>0.46691025982745771</v>
+        <v>0.48018751594077003</v>
       </c>
       <c r="X144" s="14">
-        <v>1.2069476953128202</v>
+        <v>1.1869701992015536</v>
       </c>
       <c r="Y144" s="14"/>
     </row>
-    <row r="145" spans="1:25" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -30695,45 +30695,45 @@
       <c r="X145" s="12"/>
       <c r="Y145" s="12"/>
     </row>
-    <row r="146" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148"/>
     </row>
-    <row r="149" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="151" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="154" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="13" t="s">
         <v>23</v>
@@ -30762,7 +30762,7 @@
       <c r="X156" s="13"/>
       <c r="Y156" s="13"/>
     </row>
-    <row r="157" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>22</v>
       </c>
@@ -30839,10 +30839,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="158" spans="1:25" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
     </row>
-    <row r="159" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>21</v>
       </c>
@@ -30913,13 +30913,13 @@
         <v>90.637279162536714</v>
       </c>
       <c r="X159" s="14">
-        <v>94.565441108580615</v>
+        <v>94.565378150027826</v>
       </c>
       <c r="Y159" s="14">
-        <v>108.15752400142979</v>
+        <v>108.15747324534905</v>
       </c>
     </row>
-    <row r="160" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>20</v>
       </c>
@@ -30996,7 +30996,7 @@
         <v>132.69324423591061</v>
       </c>
     </row>
-    <row r="161" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>19</v>
       </c>
@@ -31070,10 +31070,10 @@
         <v>116.63964617882159</v>
       </c>
       <c r="Y161" s="14">
-        <v>107.45144600496343</v>
+        <v>107.45144600536989</v>
       </c>
     </row>
-    <row r="162" spans="1:25" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
         <v>18</v>
       </c>
@@ -31150,7 +31150,7 @@
         <v>162.49479589015604</v>
       </c>
     </row>
-    <row r="163" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>17</v>
       </c>
@@ -31224,10 +31224,10 @@
         <v>103.53662044448902</v>
       </c>
       <c r="Y163" s="14">
-        <v>112.07940160784861</v>
+        <v>112.07940160607635</v>
       </c>
     </row>
-    <row r="164" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>16</v>
       </c>
@@ -31301,10 +31301,10 @@
         <v>113.72382466823183</v>
       </c>
       <c r="Y164" s="14">
-        <v>121.5407512233259</v>
+        <v>121.5407512219374</v>
       </c>
     </row>
-    <row r="165" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>15</v>
       </c>
@@ -31378,10 +31378,10 @@
         <v>101.62631805048001</v>
       </c>
       <c r="Y165" s="14">
-        <v>115.54033779393143</v>
+        <v>115.54033779225918</v>
       </c>
     </row>
-    <row r="166" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>14</v>
       </c>
@@ -31455,10 +31455,10 @@
         <v>109.94704283483144</v>
       </c>
       <c r="Y166" s="14">
-        <v>124.07624388120576</v>
+        <v>124.07624387842746</v>
       </c>
     </row>
-    <row r="167" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>13</v>
       </c>
@@ -31532,10 +31532,10 @@
         <v>124.31822264345396</v>
       </c>
       <c r="Y167" s="14">
-        <v>145.84660654103712</v>
+        <v>145.84660654323997</v>
       </c>
     </row>
-    <row r="168" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>12</v>
       </c>
@@ -31612,7 +31612,7 @@
         <v>100.73584029930853</v>
       </c>
     </row>
-    <row r="169" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>11</v>
       </c>
@@ -31686,10 +31686,10 @@
         <v>84.052707942054553</v>
       </c>
       <c r="Y169" s="14">
-        <v>100.72315436720223</v>
+        <v>100.72315436760458</v>
       </c>
     </row>
-    <row r="170" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>10</v>
       </c>
@@ -31760,13 +31760,13 @@
         <v>92.759320205232683</v>
       </c>
       <c r="X170" s="14">
-        <v>97.329646807957474</v>
+        <v>97.329646807957431</v>
       </c>
       <c r="Y170" s="14">
-        <v>88.191423196867319</v>
+        <v>88.191423196867305</v>
       </c>
     </row>
-    <row r="171" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>9</v>
       </c>
@@ -31843,7 +31843,7 @@
         <v>131.66870065248952</v>
       </c>
     </row>
-    <row r="172" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>8</v>
       </c>
@@ -31914,13 +31914,13 @@
         <v>103.74178284259085</v>
       </c>
       <c r="X172" s="14">
-        <v>112.16388769899142</v>
+        <v>112.201806487173</v>
       </c>
       <c r="Y172" s="14">
-        <v>132.66796870163509</v>
+        <v>132.6612911256824</v>
       </c>
     </row>
-    <row r="173" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>7</v>
       </c>
@@ -31994,10 +31994,10 @@
         <v>163.69732469314062</v>
       </c>
       <c r="Y173" s="14">
-        <v>161.6995376740424</v>
+        <v>161.70533494702181</v>
       </c>
     </row>
-    <row r="174" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>6</v>
       </c>
@@ -32068,13 +32068,13 @@
         <v>115.17738658730249</v>
       </c>
       <c r="X174" s="14">
-        <v>126.44504982862858</v>
+        <v>126.68772429382309</v>
       </c>
       <c r="Y174" s="14">
-        <v>133.54692408768605</v>
+        <v>133.80094732860076</v>
       </c>
     </row>
-    <row r="175" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>5</v>
       </c>
@@ -32151,7 +32151,7 @@
         <v>104.8874100431553</v>
       </c>
     </row>
-    <row r="176" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>4</v>
       </c>
@@ -32222,13 +32222,13 @@
         <v>51.058682518378141</v>
       </c>
       <c r="X176" s="14">
-        <v>44.5902508973004</v>
+        <v>44.582385120131072</v>
       </c>
       <c r="Y176" s="14">
-        <v>39.794796160920811</v>
+        <v>39.84616438534151</v>
       </c>
     </row>
-    <row r="177" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>3</v>
       </c>
@@ -32299,13 +32299,13 @@
         <v>111.06639571071824</v>
       </c>
       <c r="X177" s="14">
-        <v>125.09284789726813</v>
+        <v>125.16693243957297</v>
       </c>
       <c r="Y177" s="14">
-        <v>134.53268826069313</v>
+        <v>134.62812156221221</v>
       </c>
     </row>
-    <row r="178" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>2</v>
       </c>
@@ -32376,16 +32376,16 @@
         <v>114.10039647703418</v>
       </c>
       <c r="X178" s="14">
-        <v>123.49842220699425</v>
+        <v>123.49842220699423</v>
       </c>
       <c r="Y178" s="14">
-        <v>132.30304244364132</v>
+        <v>132.30304244448803</v>
       </c>
     </row>
-    <row r="179" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
         <v>1</v>
       </c>
@@ -32456,13 +32456,13 @@
         <v>110.09887623844212</v>
       </c>
       <c r="X180" s="14">
-        <v>117.92538679831439</v>
+        <v>117.95980155989754</v>
       </c>
       <c r="Y180" s="14">
-        <v>126.57247720061513</v>
+        <v>126.6081350225743</v>
       </c>
     </row>
-    <row r="181" spans="1:25" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -32489,44 +32489,44 @@
       <c r="X181" s="12"/>
       <c r="Y181" s="12"/>
     </row>
-    <row r="182" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="188" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="191" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="13" t="s">
         <v>23</v>
@@ -32555,7 +32555,7 @@
       <c r="X193" s="13"/>
       <c r="Y193" s="13"/>
     </row>
-    <row r="194" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>22</v>
       </c>
@@ -32632,10 +32632,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="195" spans="1:25" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
     </row>
-    <row r="196" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>21</v>
       </c>
@@ -32706,13 +32706,13 @@
         <v>17.694694051584108</v>
       </c>
       <c r="X196" s="14">
-        <v>16.982701185619081</v>
+        <v>16.975594547130076</v>
       </c>
       <c r="Y196" s="14">
-        <v>18.180440988757283</v>
+        <v>18.176606852967257</v>
       </c>
     </row>
-    <row r="197" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>20</v>
       </c>
@@ -32783,13 +32783,13 @@
         <v>5.3317201012652697</v>
       </c>
       <c r="X197" s="14">
-        <v>6.0236765802886945</v>
+        <v>6.0211234485226282</v>
       </c>
       <c r="Y197" s="14">
-        <v>6.2249411465641895</v>
+        <v>6.2235941298264885</v>
       </c>
     </row>
-    <row r="198" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>19</v>
       </c>
@@ -32860,13 +32860,13 @@
         <v>4.6645623158682845</v>
       </c>
       <c r="X198" s="14">
-        <v>4.6650011825494779</v>
+        <v>4.6630239245494591</v>
       </c>
       <c r="Y198" s="14">
-        <v>3.9835358224083897</v>
+        <v>3.9826738240042445</v>
       </c>
     </row>
-    <row r="199" spans="1:25" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11" t="s">
         <v>18</v>
       </c>
@@ -32937,13 +32937,13 @@
         <v>1.3494034858159969</v>
       </c>
       <c r="X199" s="14">
-        <v>1.800092760061851</v>
+        <v>1.7993297918071114</v>
       </c>
       <c r="Y199" s="14">
-        <v>1.8275774750849949</v>
+        <v>1.8271820050893075</v>
       </c>
     </row>
-    <row r="200" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>17</v>
       </c>
@@ -33014,13 +33014,13 @@
         <v>9.1385613430248487</v>
       </c>
       <c r="X200" s="14">
-        <v>6.5956191180080213</v>
+        <v>6.5928235687346488</v>
       </c>
       <c r="Y200" s="14">
-        <v>6.5862720455061892</v>
+        <v>6.5848468402528333</v>
       </c>
     </row>
-    <row r="201" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>16</v>
       </c>
@@ -33091,13 +33091,13 @@
         <v>1.9163148851182432</v>
       </c>
       <c r="X201" s="14">
-        <v>1.7869958904687178</v>
+        <v>1.7862384733144312</v>
       </c>
       <c r="Y201" s="14">
-        <v>1.9369010602268879</v>
+        <v>1.9364819336482295</v>
       </c>
     </row>
-    <row r="202" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>15</v>
       </c>
@@ -33168,13 +33168,13 @@
         <v>1.3553351022735711</v>
       </c>
       <c r="X202" s="14">
-        <v>1.4383713735668044</v>
+        <v>1.4377617207084039</v>
       </c>
       <c r="Y202" s="14">
-        <v>1.5154530141781981</v>
+        <v>1.5151250848590707</v>
       </c>
     </row>
-    <row r="203" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>14</v>
       </c>
@@ -33245,13 +33245,13 @@
         <v>0.29041601832740382</v>
       </c>
       <c r="X203" s="14">
-        <v>0.30785978098786393</v>
+        <v>0.30772929480125383</v>
       </c>
       <c r="Y203" s="14">
-        <v>0.32206872757318727</v>
+        <v>0.32199903502487237</v>
       </c>
     </row>
-    <row r="204" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>13</v>
       </c>
@@ -33322,13 +33322,13 @@
         <v>1.214649203044138</v>
       </c>
       <c r="X204" s="14">
-        <v>1.1647332693960759</v>
+        <v>1.1642395978867488</v>
       </c>
       <c r="Y204" s="14">
-        <v>1.2567075092812634</v>
+        <v>1.2564355700144643</v>
       </c>
     </row>
-    <row r="205" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>12</v>
       </c>
@@ -33399,13 +33399,13 @@
         <v>0.56282567971852548</v>
       </c>
       <c r="X205" s="14">
-        <v>0.49908010395811747</v>
+        <v>0.49886856915038946</v>
       </c>
       <c r="Y205" s="14">
-        <v>0.39534912351372253</v>
+        <v>0.39526357380745714</v>
       </c>
     </row>
-    <row r="206" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>11</v>
       </c>
@@ -33476,13 +33476,13 @@
         <v>8.144569782100966E-2</v>
       </c>
       <c r="X206" s="14">
-        <v>8.1593965718878933E-2</v>
+        <v>8.1559382164629379E-2</v>
       </c>
       <c r="Y206" s="14">
-        <v>9.2225836163915387E-2</v>
+        <v>9.2205879390069106E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>10</v>
       </c>
@@ -33553,13 +33553,13 @@
         <v>7.7082965717643157E-2</v>
       </c>
       <c r="X207" s="14">
-        <v>8.0312288337282836E-2</v>
+        <v>8.0278248021235579E-2</v>
       </c>
       <c r="Y207" s="14">
-        <v>6.7492511857842524E-2</v>
+        <v>6.7477907134520398E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>9</v>
       </c>
@@ -33630,13 +33630,13 @@
         <v>7.7880611108184963E-2</v>
       </c>
       <c r="X208" s="14">
-        <v>6.6912165496990916E-2</v>
+        <v>6.6883804815106765E-2</v>
       </c>
       <c r="Y208" s="14">
-        <v>0.11857813488529595</v>
+        <v>0.11855247572986698</v>
       </c>
     </row>
-    <row r="209" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>8</v>
       </c>
@@ -33707,13 +33707,13 @@
         <v>4.925988580065213</v>
       </c>
       <c r="X209" s="14">
-        <v>4.91405190007616</v>
+        <v>4.9245287721487099</v>
       </c>
       <c r="Y209" s="14">
-        <v>5.3136167875773435</v>
+        <v>5.3065175905324082</v>
       </c>
     </row>
-    <row r="210" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>7</v>
       </c>
@@ -33784,13 +33784,13 @@
         <v>13.70472417878614</v>
       </c>
       <c r="X210" s="14">
-        <v>14.248604115945662</v>
+        <v>14.242564853494294</v>
       </c>
       <c r="Y210" s="14">
-        <v>13.342419312925314</v>
+        <v>13.340533485210843</v>
       </c>
     </row>
-    <row r="211" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>6</v>
       </c>
@@ -33861,13 +33861,13 @@
         <v>10.311527826774171</v>
       </c>
       <c r="X211" s="14">
-        <v>11.227760742051988</v>
+        <v>11.244541147359868</v>
       </c>
       <c r="Y211" s="14">
-        <v>11.35204527407897</v>
+        <v>11.371177163779913</v>
       </c>
     </row>
-    <row r="212" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>5</v>
       </c>
@@ -33938,13 +33938,13 @@
         <v>3.3830778653294113</v>
       </c>
       <c r="X212" s="14">
-        <v>3.5699498562509593</v>
+        <v>3.5684367351097799</v>
       </c>
       <c r="Y212" s="14">
-        <v>3.4196700217134746</v>
+        <v>3.4189300383709487</v>
       </c>
     </row>
-    <row r="213" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>4</v>
       </c>
@@ -34015,13 +34015,13 @@
         <v>7.0783931378102544E-2</v>
       </c>
       <c r="X213" s="14">
-        <v>5.7385531028770469E-2</v>
+        <v>5.796606962179747E-2</v>
       </c>
       <c r="Y213" s="14">
-        <v>3.639475781047781E-2</v>
+        <v>3.723536457126108E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>3</v>
       </c>
@@ -34092,13 +34092,13 @@
         <v>12.702371461723736</v>
       </c>
       <c r="X214" s="14">
-        <v>12.82064533933408</v>
+        <v>12.822800951434083</v>
       </c>
       <c r="Y214" s="14">
-        <v>11.989040861574917</v>
+        <v>11.990496838374028</v>
       </c>
     </row>
-    <row r="215" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>2</v>
       </c>
@@ -34169,16 +34169,16 @@
         <v>11.14663469525601</v>
       </c>
       <c r="X215" s="14">
-        <v>11.668652850854533</v>
+        <v>11.663707099225336</v>
       </c>
       <c r="Y215" s="14">
-        <v>12.039269588318136</v>
+        <v>12.036664407411916</v>
       </c>
     </row>
-    <row r="216" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216"/>
     </row>
-    <row r="217" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
         <v>1</v>
       </c>
@@ -34255,7 +34255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="218" spans="1:25" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -34282,50 +34282,50 @@
       <c r="X218" s="12"/>
       <c r="Y218" s="12"/>
     </row>
-    <row r="219" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220"/>
     </row>
-    <row r="221" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="225" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="228" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="13" t="s">
         <v>23</v>
@@ -34354,7 +34354,7 @@
       <c r="X230" s="13"/>
       <c r="Y230" s="13"/>
     </row>
-    <row r="231" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>22</v>
       </c>
@@ -34431,10 +34431,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="232" spans="1:25" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
     </row>
-    <row r="233" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>21</v>
       </c>
@@ -34505,13 +34505,13 @@
         <v>21.494091045792292</v>
       </c>
       <c r="X233" s="14">
-        <v>21.177838148027249</v>
+        <v>21.175167945332785</v>
       </c>
       <c r="Y233" s="14">
-        <v>21.275851807740992</v>
+        <v>21.277367394413382</v>
       </c>
     </row>
-    <row r="234" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>20</v>
       </c>
@@ -34582,13 +34582,13 @@
         <v>5.8920319813409554</v>
       </c>
       <c r="X234" s="14">
-        <v>5.9011914139697144</v>
+        <v>5.9004116420394066</v>
       </c>
       <c r="Y234" s="14">
-        <v>5.9378020779104332</v>
+        <v>5.9381896226298512</v>
       </c>
     </row>
-    <row r="235" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>19</v>
       </c>
@@ -34659,13 +34659,13 @@
         <v>4.6692666955837483</v>
       </c>
       <c r="X235" s="14">
-        <v>4.7164243624619946</v>
+        <v>4.7158011433404194</v>
       </c>
       <c r="Y235" s="14">
-        <v>4.6924077414121443</v>
+        <v>4.6927140025198204</v>
       </c>
     </row>
-    <row r="236" spans="1:25" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="11" t="s">
         <v>18</v>
       </c>
@@ -34736,13 +34736,13 @@
         <v>1.8806753288397249</v>
       </c>
       <c r="X236" s="14">
-        <v>1.5438777646960857</v>
+        <v>1.5436737596977246</v>
       </c>
       <c r="Y236" s="14">
-        <v>1.4235594871230379</v>
+        <v>1.4236523991054133</v>
       </c>
     </row>
-    <row r="237" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>17</v>
       </c>
@@ -34813,13 +34813,13 @@
         <v>7.5919275081508308</v>
       </c>
       <c r="X237" s="14">
-        <v>7.5122302845732207</v>
+        <v>7.5112376331069335</v>
       </c>
       <c r="Y237" s="14">
-        <v>7.4379480650127174</v>
+        <v>7.4384335204061625</v>
       </c>
     </row>
-    <row r="238" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>16</v>
       </c>
@@ -34890,13 +34890,13 @@
         <v>1.944180455956722</v>
       </c>
       <c r="X238" s="14">
-        <v>1.8530170103344119</v>
+        <v>1.8527721562787345</v>
       </c>
       <c r="Y238" s="14">
-        <v>2.0170877900445681</v>
+        <v>2.0172194400577168</v>
       </c>
     </row>
-    <row r="239" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>15</v>
       </c>
@@ -34967,13 +34967,13 @@
         <v>1.6387113358815055</v>
       </c>
       <c r="X239" s="14">
-        <v>1.6690607693101112</v>
+        <v>1.6688402228735382</v>
       </c>
       <c r="Y239" s="14">
-        <v>1.6601530318162891</v>
+        <v>1.6602613856368551</v>
       </c>
     </row>
-    <row r="240" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>14</v>
       </c>
@@ -35044,13 +35044,13 @@
         <v>0.33719699065071024</v>
       </c>
       <c r="X240" s="14">
-        <v>0.33019972903843198</v>
+        <v>0.33015609708989191</v>
       </c>
       <c r="Y240" s="14">
-        <v>0.3285482813036959</v>
+        <v>0.32856972478561436</v>
       </c>
     </row>
-    <row r="241" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>13</v>
       </c>
@@ -35121,13 +35121,13 @@
         <v>1.1099078159922762</v>
       </c>
       <c r="X241" s="14">
-        <v>1.1048390042087679</v>
+        <v>1.1046930129364037</v>
       </c>
       <c r="Y241" s="14">
-        <v>1.0906293011458463</v>
+        <v>1.090700483650914</v>
       </c>
     </row>
-    <row r="242" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>12</v>
       </c>
@@ -35198,13 +35198,13 @@
         <v>0.56873756940713727</v>
       </c>
       <c r="X242" s="14">
-        <v>0.55058014269745348</v>
+        <v>0.55050739011063798</v>
       </c>
       <c r="Y242" s="14">
-        <v>0.49674790792971935</v>
+        <v>0.49678032935873867</v>
       </c>
     </row>
-    <row r="243" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>11</v>
       </c>
@@ -35275,13 +35275,13 @@
         <v>0.11042560885290895</v>
       </c>
       <c r="X243" s="14">
-        <v>0.11447578791203911</v>
+        <v>0.11446066130457096</v>
       </c>
       <c r="Y243" s="14">
-        <v>0.1158944298210534</v>
+        <v>0.1159019939455725</v>
       </c>
     </row>
-    <row r="244" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>10</v>
       </c>
@@ -35352,13 +35352,13 @@
         <v>9.1492131290545203E-2</v>
       </c>
       <c r="X244" s="14">
-        <v>9.7307017722142952E-2</v>
+        <v>9.7294159762500776E-2</v>
       </c>
       <c r="Y244" s="14">
-        <v>9.6865365232505579E-2</v>
+        <v>9.687168738004398E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>9</v>
       </c>
@@ -35429,13 +35429,13 @@
         <v>9.9999049566224185E-2</v>
       </c>
       <c r="X245" s="14">
-        <v>9.8825904824750468E-2</v>
+        <v>9.88128461623273E-2</v>
       </c>
       <c r="Y245" s="14">
-        <v>0.11398858042863819</v>
+        <v>0.11399602016338169</v>
       </c>
     </row>
-    <row r="246" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>8</v>
       </c>
@@ -35506,13 +35506,13 @@
         <v>5.2278435184740326</v>
       </c>
       <c r="X246" s="14">
-        <v>5.1664709823417061</v>
+        <v>5.1772467389379893</v>
       </c>
       <c r="Y246" s="14">
-        <v>5.0694801939041838</v>
+        <v>5.0643883374034742</v>
       </c>
     </row>
-    <row r="247" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>7</v>
       </c>
@@ -35583,13 +35583,13 @@
         <v>10.084890753683467</v>
       </c>
       <c r="X247" s="14">
-        <v>10.264505879119936</v>
+        <v>10.26314954732157</v>
       </c>
       <c r="Y247" s="14">
-        <v>10.443957283851812</v>
+        <v>10.445048490961092</v>
       </c>
     </row>
-    <row r="248" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>6</v>
       </c>
@@ -35660,13 +35660,13 @@
         <v>9.8568621816117759</v>
       </c>
       <c r="X248" s="14">
-        <v>10.471252375477597</v>
+        <v>10.469868724600211</v>
       </c>
       <c r="Y248" s="14">
-        <v>10.759188213801767</v>
+        <v>10.759890437709331</v>
       </c>
     </row>
-    <row r="249" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>5</v>
       </c>
@@ -35737,13 +35737,13 @@
         <v>3.9016880641946354</v>
       </c>
       <c r="X249" s="14">
-        <v>4.047990985306547</v>
+        <v>4.0474560916684572</v>
       </c>
       <c r="Y249" s="14">
-        <v>4.1266735986603926</v>
+        <v>4.1269429357890024</v>
       </c>
     </row>
-    <row r="250" spans="1:25" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>4</v>
       </c>
@@ -35814,13 +35814,13 @@
         <v>0.15263283179433751</v>
       </c>
       <c r="X250" s="14">
-        <v>0.1517643612004016</v>
+        <v>0.15337147286691269</v>
       </c>
       <c r="Y250" s="14">
-        <v>0.11575821709352917</v>
+        <v>0.11831251860686708</v>
       </c>
     </row>
-    <row r="251" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>3</v>
       </c>
@@ -35891,13 +35891,13 @@
         <v>12.59171880522346</v>
       </c>
       <c r="X251" s="14">
-        <v>12.086059163722945</v>
+        <v>12.084462135424287</v>
       </c>
       <c r="Y251" s="14">
-        <v>11.279657165315877</v>
+        <v>11.27620607852789</v>
       </c>
     </row>
-    <row r="252" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>2</v>
       </c>
@@ -35968,16 +35968,16 @@
         <v>10.755720327712712</v>
       </c>
       <c r="X252" s="14">
-        <v>11.142088913054504</v>
+        <v>11.1406166191447</v>
       </c>
       <c r="Y252" s="14">
-        <v>11.517801460450801</v>
+        <v>11.518553196948888</v>
       </c>
     </row>
-    <row r="253" spans="1:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="11" t="s">
         <v>1</v>
       </c>
@@ -36054,7 +36054,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="255" spans="1:25" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:25" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="12"/>
       <c r="B255" s="12"/>
       <c r="C255" s="12"/>
@@ -36081,7 +36081,7 @@
       <c r="X255" s="12"/>
       <c r="Y255" s="12"/>
     </row>
-    <row r="256" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>0</v>
       </c>

--- a/Data/National Accounts/PSA-08AFF_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-08AFF_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11178D24-1B1B-4F9D-81B5-CDFE0B77A552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF7F818-99E8-47F7-80EF-C8EF6AB30AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFF" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="68">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -655,13 +655,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2000 to 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2001 to 2023</t>
+    <t>Annual 2000 to 2024</t>
   </si>
   <si>
-    <t>As of April 2024</t>
+    <t>Annual 2001 to 2024</t>
+  </si>
+  <si>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -23583,7 +23586,7 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Y256"/>
+  <dimension ref="A1:Z256"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
@@ -23591,46 +23594,46 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.81640625" style="1" customWidth="1"/>
-    <col min="2" max="25" width="10.1796875" style="9" customWidth="1"/>
-    <col min="26" max="16384" width="7.81640625" style="9"/>
+    <col min="1" max="1" width="40.77734375" style="1" customWidth="1"/>
+    <col min="2" max="26" width="10.21875" style="9" customWidth="1"/>
+    <col min="27" max="16384" width="7.77734375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>23</v>
@@ -23658,8 +23661,9 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
@@ -23735,11 +23739,14 @@
       <c r="Y10" s="6">
         <v>2023</v>
       </c>
+      <c r="Z10" s="6">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -23815,8 +23822,11 @@
       <c r="Y12" s="8">
         <v>415364.39652491623</v>
       </c>
+      <c r="Z12" s="8">
+        <v>454878.79744454299</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -23892,8 +23902,11 @@
       <c r="Y13" s="8">
         <v>142219.0313550953</v>
       </c>
+      <c r="Z13" s="8">
+        <v>116294.06744695638</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -23969,8 +23982,11 @@
       <c r="Y14" s="8">
         <v>91010.435712485691</v>
       </c>
+      <c r="Z14" s="8">
+        <v>125467.96462217779</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
@@ -24046,8 +24062,11 @@
       <c r="Y15" s="8">
         <v>41754.016963909402</v>
       </c>
+      <c r="Z15" s="8">
+        <v>34726.55828768119</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -24123,8 +24142,11 @@
       <c r="Y16" s="8">
         <v>150474.23075908824</v>
       </c>
+      <c r="Z16" s="8">
+        <v>159470.18647393276</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -24200,8 +24222,11 @@
       <c r="Y17" s="8">
         <v>44251.694293530571</v>
       </c>
+      <c r="Z17" s="8">
+        <v>36329.600999374976</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -24277,8 +24302,11 @@
       <c r="Y18" s="8">
         <v>34623.01966604482</v>
       </c>
+      <c r="Z18" s="8">
+        <v>50796.257863874314</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -24354,8 +24382,11 @@
       <c r="Y19" s="8">
         <v>7358.1904448176947</v>
       </c>
+      <c r="Z19" s="8">
+        <v>11808.755582254305</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -24431,8 +24462,11 @@
       <c r="Y20" s="8">
         <v>28711.55252094274</v>
       </c>
+      <c r="Z20" s="8">
+        <v>33741.187156617896</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -24508,8 +24542,11 @@
       <c r="Y21" s="8">
         <v>9032.4017640297188</v>
       </c>
+      <c r="Z21" s="8">
+        <v>12511.106595911344</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -24585,8 +24622,11 @@
       <c r="Y22" s="8">
         <v>2107.0510991798837</v>
       </c>
+      <c r="Z22" s="8">
+        <v>3225.123238315965</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -24662,8 +24702,11 @@
       <c r="Y23" s="8">
         <v>1541.9775760358134</v>
       </c>
+      <c r="Z23" s="8">
+        <v>1633.5247821425264</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -24739,8 +24782,11 @@
       <c r="Y24" s="8">
         <v>2709.1127588553386</v>
       </c>
+      <c r="Z24" s="8">
+        <v>2183.6032923714356</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -24816,8 +24862,11 @@
       <c r="Y25" s="8">
         <v>121262.3728108269</v>
       </c>
+      <c r="Z25" s="8">
+        <v>128122.50919895864</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -24893,8 +24942,11 @@
       <c r="Y26" s="8">
         <v>304852.42296476604</v>
       </c>
+      <c r="Z26" s="8">
+        <v>319334.37336213037</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -24970,8 +25022,11 @@
       <c r="Y27" s="8">
         <v>259849.49658743993</v>
       </c>
+      <c r="Z27" s="8">
+        <v>278935.97547739191</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -25047,8 +25102,11 @@
       <c r="Y28" s="8">
         <v>78127.992954693415</v>
       </c>
+      <c r="Z28" s="8">
+        <v>83286.21874272589</v>
+      </c>
     </row>
-    <row r="29" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -25124,8 +25182,11 @@
       <c r="Y29" s="8">
         <v>850.88734435614992</v>
       </c>
+      <c r="Z29" s="8">
+        <v>976.75296665509404</v>
+      </c>
     </row>
-    <row r="30" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -25201,8 +25262,11 @@
       <c r="Y30" s="8">
         <v>274001.93686271593</v>
       </c>
+      <c r="Z30" s="8">
+        <v>253544.20223407255</v>
+      </c>
     </row>
-    <row r="31" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -25278,11 +25342,14 @@
       <c r="Y31" s="8">
         <v>275056.9392956543</v>
       </c>
+      <c r="Z31" s="8">
+        <v>293400.34601918032</v>
+      </c>
     </row>
-    <row r="32" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>1</v>
       </c>
@@ -25358,8 +25425,11 @@
       <c r="Y33" s="10">
         <v>2285159.1602593842</v>
       </c>
+      <c r="Z33" s="10">
+        <v>2400667.1117872684</v>
+      </c>
     </row>
-    <row r="34" spans="1:25" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -25385,51 +25455,52 @@
       <c r="W34" s="12"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
     </row>
-    <row r="35" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="13" t="s">
         <v>23</v>
@@ -25457,8 +25528,9 @@
       <c r="W46" s="13"/>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
+      <c r="Z46" s="13"/>
     </row>
-    <row r="47" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>22</v>
       </c>
@@ -25534,11 +25606,14 @@
       <c r="Y47" s="5">
         <v>2023</v>
       </c>
+      <c r="Z47" s="5">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="48" spans="1:25" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -25614,8 +25689,11 @@
       <c r="Y49" s="8">
         <v>384036.70505752828</v>
       </c>
+      <c r="Z49" s="8">
+        <v>365531.34336379182</v>
+      </c>
     </row>
-    <row r="50" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -25691,8 +25769,11 @@
       <c r="Y50" s="8">
         <v>107178.80339277041</v>
       </c>
+      <c r="Z50" s="8">
+        <v>104192.48991100464</v>
+      </c>
     </row>
-    <row r="51" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
@@ -25768,8 +25849,11 @@
       <c r="Y51" s="8">
         <v>84699.126066611934</v>
       </c>
+      <c r="Z51" s="8">
+        <v>82360.919594271254</v>
+      </c>
     </row>
-    <row r="52" spans="1:25" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>18</v>
       </c>
@@ -25845,8 +25929,11 @@
       <c r="Y52" s="8">
         <v>25695.602579257044</v>
       </c>
+      <c r="Z52" s="8">
+        <v>23309.915510621235</v>
+      </c>
     </row>
-    <row r="53" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
@@ -25922,8 +26009,11 @@
       <c r="Y53" s="8">
         <v>134256.81133448373</v>
       </c>
+      <c r="Z53" s="8">
+        <v>129403.7488248563</v>
+      </c>
     </row>
-    <row r="54" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
@@ -25999,8 +26089,11 @@
       <c r="Y54" s="8">
         <v>36408.93597302647</v>
       </c>
+      <c r="Z54" s="8">
+        <v>35688.135150813527</v>
+      </c>
     </row>
-    <row r="55" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>15</v>
       </c>
@@ -26076,8 +26169,11 @@
       <c r="Y55" s="8">
         <v>29966.174868119906</v>
       </c>
+      <c r="Z55" s="8">
+        <v>29619.247519675417</v>
+      </c>
     </row>
-    <row r="56" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>14</v>
       </c>
@@ -26153,8 +26249,11 @@
       <c r="Y56" s="8">
         <v>5930.3781407401457</v>
       </c>
+      <c r="Z56" s="8">
+        <v>6424.9962798801134</v>
+      </c>
     </row>
-    <row r="57" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>13</v>
       </c>
@@ -26230,8 +26329,11 @@
       <c r="Y57" s="8">
         <v>19686.129970004109</v>
       </c>
+      <c r="Z57" s="8">
+        <v>18291.428066251265</v>
+      </c>
     </row>
-    <row r="58" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -26307,8 +26409,11 @@
       <c r="Y58" s="8">
         <v>8966.4232086538905</v>
       </c>
+      <c r="Z58" s="8">
+        <v>8546.3084923767965</v>
+      </c>
     </row>
-    <row r="59" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -26384,8 +26489,11 @@
       <c r="Y59" s="8">
         <v>2091.9232647240951</v>
       </c>
+      <c r="Z59" s="8">
+        <v>2116.7348706213502</v>
+      </c>
     </row>
-    <row r="60" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
@@ -26461,8 +26569,11 @@
       <c r="Y60" s="8">
         <v>1748.443919080089</v>
       </c>
+      <c r="Z60" s="8">
+        <v>1691.2620369203555</v>
+      </c>
     </row>
-    <row r="61" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -26538,8 +26649,11 @@
       <c r="Y61" s="8">
         <v>2057.5222094774399</v>
       </c>
+      <c r="Z61" s="8">
+        <v>2357.4414375116162</v>
+      </c>
     </row>
-    <row r="62" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -26615,8 +26729,11 @@
       <c r="Y62" s="8">
         <v>91407.502355712611</v>
       </c>
+      <c r="Z62" s="8">
+        <v>89969.863430793106</v>
+      </c>
     </row>
-    <row r="63" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -26692,8 +26809,11 @@
       <c r="Y63" s="8">
         <v>188523.41703175244</v>
       </c>
+      <c r="Z63" s="8">
+        <v>180949.23835216611</v>
+      </c>
     </row>
-    <row r="64" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -26769,8 +26889,11 @@
       <c r="Y64" s="8">
         <v>194206.02153830609</v>
       </c>
+      <c r="Z64" s="8">
+        <v>206805.96827842956</v>
+      </c>
     </row>
-    <row r="65" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -26846,8 +26969,11 @@
       <c r="Y65" s="8">
         <v>74487.484172359793</v>
       </c>
+      <c r="Z65" s="8">
+        <v>75339.057425612438</v>
+      </c>
     </row>
-    <row r="66" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>4</v>
       </c>
@@ -26923,8 +27049,11 @@
       <c r="Y66" s="8">
         <v>2135.4309943799053</v>
       </c>
+      <c r="Z66" s="8">
+        <v>2557.479583247652</v>
+      </c>
     </row>
-    <row r="67" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
@@ -27000,8 +27129,11 @@
       <c r="Y67" s="8">
         <v>203525.0389615653</v>
       </c>
+      <c r="Z67" s="8">
+        <v>201066.145572868</v>
+      </c>
     </row>
-    <row r="68" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
@@ -27077,11 +27209,14 @@
       <c r="Y68" s="8">
         <v>207899.17919768416</v>
       </c>
+      <c r="Z68" s="8">
+        <v>210536.69168608001</v>
+      </c>
     </row>
-    <row r="69" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>1</v>
       </c>
@@ -27157,8 +27292,11 @@
       <c r="Y70" s="10">
         <v>1804907.0542362377</v>
       </c>
+      <c r="Z70" s="10">
+        <v>1776758.4153877923</v>
+      </c>
     </row>
-    <row r="71" spans="1:25" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -27184,51 +27322,52 @@
       <c r="W71" s="12"/>
       <c r="X71" s="12"/>
       <c r="Y71" s="12"/>
+      <c r="Z71" s="12"/>
     </row>
-    <row r="72" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="13" t="s">
         <v>23</v>
@@ -27256,8 +27395,9 @@
       <c r="W83" s="13"/>
       <c r="X83" s="13"/>
       <c r="Y83" s="13"/>
+      <c r="Z83" s="13"/>
     </row>
-    <row r="84" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>22</v>
       </c>
@@ -27330,12 +27470,15 @@
       <c r="X84" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="Y84" s="5"/>
+      <c r="Y84" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z84" s="5"/>
     </row>
-    <row r="85" spans="1:25" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
     </row>
-    <row r="86" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>21</v>
       </c>
@@ -27408,9 +27551,12 @@
       <c r="X86" s="14">
         <v>16.289362710970678</v>
       </c>
-      <c r="Y86" s="14"/>
+      <c r="Y86" s="14">
+        <v>9.5131892021121729</v>
+      </c>
+      <c r="Z86" s="14"/>
     </row>
-    <row r="87" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>20</v>
       </c>
@@ -27483,9 +27629,12 @@
       <c r="X87" s="14">
         <v>12.257638378308556</v>
       </c>
-      <c r="Y87" s="14"/>
+      <c r="Y87" s="14">
+        <v>-18.228899227564668</v>
+      </c>
+      <c r="Z87" s="14"/>
     </row>
-    <row r="88" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>19</v>
       </c>
@@ -27558,9 +27707,12 @@
       <c r="X88" s="14">
         <v>-7.2403147225311102</v>
       </c>
-      <c r="Y88" s="14"/>
+      <c r="Y88" s="14">
+        <v>37.86107454594341</v>
+      </c>
+      <c r="Z88" s="14"/>
     </row>
-    <row r="89" spans="1:25" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>18</v>
       </c>
@@ -27633,9 +27785,12 @@
       <c r="X89" s="14">
         <v>10.286717081469149</v>
       </c>
-      <c r="Y89" s="14"/>
+      <c r="Y89" s="14">
+        <v>-16.83061699740766</v>
+      </c>
+      <c r="Z89" s="14"/>
     </row>
-    <row r="90" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>17</v>
       </c>
@@ -27708,9 +27863,12 @@
       <c r="X90" s="14">
         <v>8.4741847283874563</v>
       </c>
-      <c r="Y90" s="14"/>
+      <c r="Y90" s="14">
+        <v>5.9784028597210011</v>
+      </c>
+      <c r="Z90" s="14"/>
     </row>
-    <row r="91" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>16</v>
       </c>
@@ -27783,9 +27941,12 @@
       <c r="X91" s="14">
         <v>17.740582691058265</v>
       </c>
-      <c r="Y91" s="14"/>
+      <c r="Y91" s="14">
+        <v>-17.902350227782748</v>
+      </c>
+      <c r="Z91" s="14"/>
     </row>
-    <row r="92" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>15</v>
       </c>
@@ -27858,9 +28019,12 @@
       <c r="X92" s="14">
         <v>14.449458533851939</v>
       </c>
-      <c r="Y92" s="14"/>
+      <c r="Y92" s="14">
+        <v>46.712384863677187</v>
+      </c>
+      <c r="Z92" s="14"/>
     </row>
-    <row r="93" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>14</v>
       </c>
@@ -27933,9 +28097,12 @@
       <c r="X93" s="14">
         <v>13.641746371183245</v>
       </c>
-      <c r="Y93" s="14"/>
+      <c r="Y93" s="14">
+        <v>60.484505950387614</v>
+      </c>
+      <c r="Z93" s="14"/>
     </row>
-    <row r="94" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>13</v>
       </c>
@@ -28008,9 +28175,12 @@
       <c r="X94" s="14">
         <v>17.206049223339548</v>
       </c>
-      <c r="Y94" s="14"/>
+      <c r="Y94" s="14">
+        <v>17.517807969480032</v>
+      </c>
+      <c r="Z94" s="14"/>
     </row>
-    <row r="95" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>12</v>
       </c>
@@ -28083,9 +28253,12 @@
       <c r="X95" s="14">
         <v>-13.949614337349843</v>
       </c>
-      <c r="Y95" s="14"/>
+      <c r="Y95" s="14">
+        <v>38.513619331406204</v>
+      </c>
+      <c r="Z95" s="14"/>
     </row>
-    <row r="96" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>11</v>
       </c>
@@ -28158,9 +28331,12 @@
       <c r="X96" s="14">
         <v>22.782608992944404</v>
       </c>
-      <c r="Y96" s="14"/>
+      <c r="Y96" s="14">
+        <v>53.063361376060726</v>
+      </c>
+      <c r="Z96" s="14"/>
     </row>
-    <row r="97" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
@@ -28233,9 +28409,12 @@
       <c r="X97" s="14">
         <v>-8.7115383222631522</v>
       </c>
-      <c r="Y97" s="14"/>
+      <c r="Y97" s="14">
+        <v>5.9369998325180973</v>
+      </c>
+      <c r="Z97" s="14"/>
     </row>
-    <row r="98" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
@@ -28308,9 +28487,12 @@
       <c r="X98" s="14">
         <v>92.50491726216228</v>
       </c>
-      <c r="Y98" s="14"/>
+      <c r="Y98" s="14">
+        <v>-19.397843990293808</v>
+      </c>
+      <c r="Z98" s="14"/>
     </row>
-    <row r="99" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
@@ -28383,9 +28565,12 @@
       <c r="X99" s="14">
         <v>17.029971550723559</v>
       </c>
-      <c r="Y99" s="14"/>
+      <c r="Y99" s="14">
+        <v>5.6572671547783244</v>
+      </c>
+      <c r="Z99" s="14"/>
     </row>
-    <row r="100" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>7</v>
       </c>
@@ -28458,9 +28643,12 @@
       <c r="X100" s="14">
         <v>1.7272166682689658</v>
       </c>
-      <c r="Y100" s="14"/>
+      <c r="Y100" s="14">
+        <v>4.7504790208074326</v>
+      </c>
+      <c r="Z100" s="14"/>
     </row>
-    <row r="101" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>6</v>
       </c>
@@ -28533,9 +28721,12 @@
       <c r="X101" s="14">
         <v>9.8287038747887294</v>
       </c>
-      <c r="Y101" s="14"/>
+      <c r="Y101" s="14">
+        <v>7.345205259433456</v>
+      </c>
+      <c r="Z101" s="14"/>
     </row>
-    <row r="102" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>5</v>
       </c>
@@ -28608,9 +28799,12 @@
       <c r="X102" s="14">
         <v>4.0553424473851294</v>
       </c>
-      <c r="Y102" s="14"/>
+      <c r="Y102" s="14">
+        <v>6.6022760766729789</v>
+      </c>
+      <c r="Z102" s="14"/>
     </row>
-    <row r="103" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>4</v>
       </c>
@@ -28683,9 +28877,12 @@
       <c r="X103" s="14">
         <v>-30.235589842545409</v>
       </c>
-      <c r="Y103" s="14"/>
+      <c r="Y103" s="14">
+        <v>14.792278100479223</v>
+      </c>
+      <c r="Z103" s="14"/>
     </row>
-    <row r="104" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
@@ -28758,9 +28955,12 @@
       <c r="X104" s="14">
         <v>1.5562014968899263</v>
       </c>
-      <c r="Y104" s="14"/>
+      <c r="Y104" s="14">
+        <v>-7.4662737288946062</v>
+      </c>
+      <c r="Z104" s="14"/>
     </row>
-    <row r="105" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>2</v>
       </c>
@@ -28833,12 +29033,15 @@
       <c r="X105" s="14">
         <v>12.078347135273788</v>
       </c>
-      <c r="Y105" s="14"/>
+      <c r="Y105" s="14">
+        <v>6.6689488985438601</v>
+      </c>
+      <c r="Z105" s="14"/>
     </row>
-    <row r="106" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106"/>
     </row>
-    <row r="107" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
         <v>1</v>
       </c>
@@ -28911,9 +29114,12 @@
       <c r="X107" s="14">
         <v>8.6055878027270722</v>
       </c>
-      <c r="Y107" s="14"/>
+      <c r="Y107" s="14">
+        <v>5.054700501245307</v>
+      </c>
+      <c r="Z107" s="14"/>
     </row>
-    <row r="108" spans="1:25" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -28939,51 +29145,52 @@
       <c r="W108" s="12"/>
       <c r="X108" s="12"/>
       <c r="Y108" s="12"/>
+      <c r="Z108" s="12"/>
     </row>
-    <row r="109" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="115" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="118" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="13" t="s">
         <v>23</v>
@@ -29011,8 +29218,9 @@
       <c r="W120" s="13"/>
       <c r="X120" s="13"/>
       <c r="Y120" s="13"/>
+      <c r="Z120" s="13"/>
     </row>
-    <row r="121" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>22</v>
       </c>
@@ -29085,12 +29293,15 @@
       <c r="X121" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="Y121" s="5"/>
+      <c r="Y121" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z121" s="5"/>
     </row>
-    <row r="122" spans="1:25" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
     </row>
-    <row r="123" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>21</v>
       </c>
@@ -29163,9 +29374,12 @@
       <c r="X123" s="14">
         <v>1.6753371691916215</v>
       </c>
-      <c r="Y123" s="14"/>
+      <c r="Y123" s="14">
+        <v>-4.8186440124165557</v>
+      </c>
+      <c r="Z123" s="14"/>
     </row>
-    <row r="124" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>20</v>
       </c>
@@ -29238,9 +29452,12 @@
       <c r="X124" s="14">
         <v>1.8348299805353889</v>
       </c>
-      <c r="Y124" s="14"/>
+      <c r="Y124" s="14">
+        <v>-2.7862911202899454</v>
+      </c>
+      <c r="Z124" s="14"/>
     </row>
-    <row r="125" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>19</v>
       </c>
@@ -29313,9 +29530,12 @@
       <c r="X125" s="14">
         <v>0.69158929589569595</v>
       </c>
-      <c r="Y125" s="14"/>
+      <c r="Y125" s="14">
+        <v>-2.7606028313701785</v>
+      </c>
+      <c r="Z125" s="14"/>
     </row>
-    <row r="126" spans="1:25" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
         <v>18</v>
       </c>
@@ -29388,9 +29608,12 @@
       <c r="X126" s="14">
         <v>-6.6803643079937558</v>
       </c>
-      <c r="Y126" s="14"/>
+      <c r="Y126" s="14">
+        <v>-9.2844176791622317</v>
+      </c>
+      <c r="Z126" s="14"/>
     </row>
-    <row r="127" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>17</v>
       </c>
@@ -29463,9 +29686,12 @@
       <c r="X127" s="14">
         <v>0.20619606555388259</v>
       </c>
-      <c r="Y127" s="14"/>
+      <c r="Y127" s="14">
+        <v>-3.6147607420353864</v>
+      </c>
+      <c r="Z127" s="14"/>
     </row>
-    <row r="128" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>16</v>
       </c>
@@ -29538,9 +29764,12 @@
       <c r="X128" s="14">
         <v>10.168065012556582</v>
       </c>
-      <c r="Y128" s="14"/>
+      <c r="Y128" s="14">
+        <v>-1.9797360261968322</v>
+      </c>
+      <c r="Z128" s="14"/>
     </row>
-    <row r="129" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>15</v>
       </c>
@@ -29613,9 +29842,12 @@
       <c r="X129" s="14">
         <v>0.66680863075771413</v>
       </c>
-      <c r="Y129" s="14"/>
+      <c r="Y129" s="14">
+        <v>-1.1577298402992824</v>
+      </c>
+      <c r="Z129" s="14"/>
     </row>
-    <row r="130" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>14</v>
       </c>
@@ -29688,9 +29920,12 @@
       <c r="X130" s="14">
         <v>0.70077530989721026</v>
       </c>
-      <c r="Y130" s="14"/>
+      <c r="Y130" s="14">
+        <v>8.3404148504809541</v>
+      </c>
+      <c r="Z130" s="14"/>
     </row>
-    <row r="131" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>13</v>
       </c>
@@ -29763,9 +29998,12 @@
       <c r="X131" s="14">
         <v>-9.4708626718400524E-2</v>
       </c>
-      <c r="Y131" s="14"/>
+      <c r="Y131" s="14">
+        <v>-7.0846931615201214</v>
+      </c>
+      <c r="Z131" s="14"/>
     </row>
-    <row r="132" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
@@ -29838,9 +30076,12 @@
       <c r="X132" s="14">
         <v>-8.6884258315411529</v>
       </c>
-      <c r="Y132" s="14"/>
+      <c r="Y132" s="14">
+        <v>-4.6854214495655668</v>
+      </c>
+      <c r="Z132" s="14"/>
     </row>
-    <row r="133" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
@@ -29913,9 +30154,12 @@
       <c r="X133" s="14">
         <v>2.4611554199568388</v>
       </c>
-      <c r="Y133" s="14"/>
+      <c r="Y133" s="14">
+        <v>1.1860667317798317</v>
+      </c>
+      <c r="Z133" s="14"/>
     </row>
-    <row r="134" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>10</v>
       </c>
@@ -29988,9 +30232,12 @@
       <c r="X134" s="14">
         <v>0.74759438797100586</v>
       </c>
-      <c r="Y134" s="14"/>
+      <c r="Y134" s="14">
+        <v>-3.2704441667090265</v>
+      </c>
+      <c r="Z134" s="14"/>
     </row>
-    <row r="135" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>9</v>
       </c>
@@ -30063,9 +30310,12 @@
       <c r="X135" s="14">
         <v>16.734942298397243</v>
       </c>
-      <c r="Y135" s="14"/>
+      <c r="Y135" s="14">
+        <v>14.576718863722419</v>
+      </c>
+      <c r="Z135" s="14"/>
     </row>
-    <row r="136" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
@@ -30138,9 +30388,12 @@
       <c r="X136" s="14">
         <v>-1.0187967438561145</v>
       </c>
-      <c r="Y136" s="14"/>
+      <c r="Y136" s="14">
+        <v>-1.5727800102500566</v>
+      </c>
+      <c r="Z136" s="14"/>
     </row>
-    <row r="137" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
@@ -30213,9 +30466,12 @@
       <c r="X137" s="14">
         <v>2.9803575901240436</v>
       </c>
-      <c r="Y137" s="14"/>
+      <c r="Y137" s="14">
+        <v>-4.0176328218741304</v>
+      </c>
+      <c r="Z137" s="14"/>
     </row>
-    <row r="138" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>6</v>
       </c>
@@ -30288,9 +30544,12 @@
       <c r="X138" s="14">
         <v>3.9899106384203122</v>
       </c>
-      <c r="Y138" s="14"/>
+      <c r="Y138" s="14">
+        <v>6.487927943901667</v>
+      </c>
+      <c r="Z138" s="14"/>
     </row>
-    <row r="139" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>5</v>
       </c>
@@ -30363,9 +30622,12 @@
       <c r="X139" s="14">
         <v>3.1741524551895708</v>
       </c>
-      <c r="Y139" s="14"/>
+      <c r="Y139" s="14">
+        <v>1.1432434088955716</v>
+      </c>
+      <c r="Z139" s="14"/>
     </row>
-    <row r="140" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>4</v>
       </c>
@@ -30438,9 +30700,12 @@
       <c r="X140" s="14">
         <v>-21.943207099185202</v>
       </c>
-      <c r="Y140" s="14"/>
+      <c r="Y140" s="14">
+        <v>19.764093992196791</v>
+      </c>
+      <c r="Z140" s="14"/>
     </row>
-    <row r="141" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>3</v>
       </c>
@@ -30513,9 +30778,12 @@
       <c r="X141" s="14">
         <v>-5.5808098332052083</v>
       </c>
-      <c r="Y141" s="14"/>
+      <c r="Y141" s="14">
+        <v>-1.2081527664818026</v>
+      </c>
+      <c r="Z141" s="14"/>
     </row>
-    <row r="142" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>2</v>
       </c>
@@ -30588,12 +30856,15 @@
       <c r="X142" s="14">
         <v>4.6196578629833454</v>
       </c>
-      <c r="Y142" s="14"/>
+      <c r="Y142" s="14">
+        <v>1.2686497842725686</v>
+      </c>
+      <c r="Z142" s="14"/>
     </row>
-    <row r="143" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
         <v>1</v>
       </c>
@@ -30666,9 +30937,12 @@
       <c r="X144" s="14">
         <v>1.1869701992015536</v>
       </c>
-      <c r="Y144" s="14"/>
+      <c r="Y144" s="14">
+        <v>-1.5595616839315198</v>
+      </c>
+      <c r="Z144" s="14"/>
     </row>
-    <row r="145" spans="1:25" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -30694,46 +30968,47 @@
       <c r="W145" s="12"/>
       <c r="X145" s="12"/>
       <c r="Y145" s="12"/>
+      <c r="Z145" s="12"/>
     </row>
-    <row r="146" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148"/>
     </row>
-    <row r="149" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="151" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="154" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="13" t="s">
         <v>23</v>
@@ -30761,8 +31036,9 @@
       <c r="W156" s="13"/>
       <c r="X156" s="13"/>
       <c r="Y156" s="13"/>
+      <c r="Z156" s="13"/>
     </row>
-    <row r="157" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>22</v>
       </c>
@@ -30838,11 +31114,14 @@
       <c r="Y157" s="5">
         <v>2023</v>
       </c>
+      <c r="Z157" s="5">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="158" spans="1:25" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7"/>
     </row>
-    <row r="159" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>21</v>
       </c>
@@ -30918,8 +31197,11 @@
       <c r="Y159" s="14">
         <v>108.15747324534905</v>
       </c>
+      <c r="Z159" s="14">
+        <v>124.44317175608903</v>
+      </c>
     </row>
-    <row r="160" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>20</v>
       </c>
@@ -30995,8 +31277,11 @@
       <c r="Y160" s="14">
         <v>132.69324423591061</v>
       </c>
+      <c r="Z160" s="14">
+        <v>111.61463512992944</v>
+      </c>
     </row>
-    <row r="161" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>19</v>
       </c>
@@ -31072,8 +31357,11 @@
       <c r="Y161" s="14">
         <v>107.45144600536989</v>
       </c>
+      <c r="Z161" s="14">
+        <v>152.3391982997054</v>
+      </c>
     </row>
-    <row r="162" spans="1:25" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
         <v>18</v>
       </c>
@@ -31149,8 +31437,11 @@
       <c r="Y162" s="14">
         <v>162.49479589015604</v>
       </c>
+      <c r="Z162" s="14">
+        <v>148.97762401523045</v>
+      </c>
     </row>
-    <row r="163" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>17</v>
       </c>
@@ -31226,8 +31517,11 @@
       <c r="Y163" s="14">
         <v>112.07940160607635</v>
       </c>
+      <c r="Z163" s="14">
+        <v>123.23459553692713</v>
+      </c>
     </row>
-    <row r="164" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>16</v>
       </c>
@@ -31303,8 +31597,11 @@
       <c r="Y164" s="14">
         <v>121.5407512219374</v>
       </c>
+      <c r="Z164" s="14">
+        <v>101.79742047560258</v>
+      </c>
     </row>
-    <row r="165" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>15</v>
       </c>
@@ -31380,8 +31677,11 @@
       <c r="Y165" s="14">
         <v>115.54033779225918</v>
       </c>
+      <c r="Z165" s="14">
+        <v>171.49746235157215</v>
+      </c>
     </row>
-    <row r="166" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>14</v>
       </c>
@@ -31457,8 +31757,11 @@
       <c r="Y166" s="14">
         <v>124.07624387842746</v>
       </c>
+      <c r="Z166" s="14">
+        <v>183.79396762039292</v>
+      </c>
     </row>
-    <row r="167" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>13</v>
       </c>
@@ -31534,8 +31837,11 @@
       <c r="Y167" s="14">
         <v>145.84660654323997</v>
       </c>
+      <c r="Z167" s="14">
+        <v>184.46447720980476</v>
+      </c>
     </row>
-    <row r="168" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>12</v>
       </c>
@@ -31611,8 +31917,11 @@
       <c r="Y168" s="14">
         <v>100.73584029930853</v>
       </c>
+      <c r="Z168" s="14">
+        <v>146.39193760757757</v>
+      </c>
     </row>
-    <row r="169" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>11</v>
       </c>
@@ -31688,8 +31997,11 @@
       <c r="Y169" s="14">
         <v>100.72315436760458</v>
       </c>
+      <c r="Z169" s="14">
+        <v>152.36311751075641</v>
+      </c>
     </row>
-    <row r="170" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>10</v>
       </c>
@@ -31765,8 +32077,11 @@
       <c r="Y170" s="14">
         <v>88.191423196867305</v>
       </c>
+      <c r="Z170" s="14">
+        <v>96.586143748430388</v>
+      </c>
     </row>
-    <row r="171" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>9</v>
       </c>
@@ -31842,8 +32157,11 @@
       <c r="Y171" s="14">
         <v>131.66870065248952</v>
       </c>
+      <c r="Z171" s="14">
+        <v>92.625982458182534</v>
+      </c>
     </row>
-    <row r="172" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>8</v>
       </c>
@@ -31919,8 +32237,11 @@
       <c r="Y172" s="14">
         <v>132.6612911256824</v>
       </c>
+      <c r="Z172" s="14">
+        <v>142.4060283224876</v>
+      </c>
     </row>
-    <row r="173" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>7</v>
       </c>
@@ -31996,8 +32317,11 @@
       <c r="Y173" s="14">
         <v>161.70533494702181</v>
       </c>
+      <c r="Z173" s="14">
+        <v>176.47732384517531</v>
+      </c>
     </row>
-    <row r="174" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>6</v>
       </c>
@@ -32073,8 +32397,11 @@
       <c r="Y174" s="14">
         <v>133.80094732860076</v>
       </c>
+      <c r="Z174" s="14">
+        <v>134.87810714526933</v>
+      </c>
     </row>
-    <row r="175" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>5</v>
       </c>
@@ -32150,8 +32477,11 @@
       <c r="Y175" s="14">
         <v>104.8874100431553</v>
       </c>
+      <c r="Z175" s="14">
+        <v>110.54852766768451</v>
+      </c>
     </row>
-    <row r="176" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>4</v>
       </c>
@@ -32227,8 +32557,11 @@
       <c r="Y176" s="14">
         <v>39.84616438534151</v>
       </c>
+      <c r="Z176" s="14">
+        <v>38.192014241409908</v>
+      </c>
     </row>
-    <row r="177" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>3</v>
       </c>
@@ -32304,8 +32637,11 @@
       <c r="Y177" s="14">
         <v>134.62812156221221</v>
       </c>
+      <c r="Z177" s="14">
+        <v>126.09989688303149</v>
+      </c>
     </row>
-    <row r="178" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>2</v>
       </c>
@@ -32381,11 +32717,14 @@
       <c r="Y178" s="14">
         <v>132.30304244448803</v>
       </c>
+      <c r="Z178" s="14">
+        <v>139.35829601457493</v>
+      </c>
     </row>
-    <row r="179" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="s">
         <v>1</v>
       </c>
@@ -32461,8 +32800,11 @@
       <c r="Y180" s="14">
         <v>126.6081350225743</v>
       </c>
+      <c r="Z180" s="14">
+        <v>135.11499880884497</v>
+      </c>
     </row>
-    <row r="181" spans="1:25" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -32488,45 +32830,46 @@
       <c r="W181" s="12"/>
       <c r="X181" s="12"/>
       <c r="Y181" s="12"/>
+      <c r="Z181" s="12"/>
     </row>
-    <row r="182" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="188" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="191" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="13" t="s">
         <v>23</v>
@@ -32554,8 +32897,9 @@
       <c r="W193" s="13"/>
       <c r="X193" s="13"/>
       <c r="Y193" s="13"/>
+      <c r="Z193" s="13"/>
     </row>
-    <row r="194" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>22</v>
       </c>
@@ -32631,11 +32975,14 @@
       <c r="Y194" s="5">
         <v>2023</v>
       </c>
+      <c r="Z194" s="5">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="195" spans="1:25" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7"/>
     </row>
-    <row r="196" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>21</v>
       </c>
@@ -32711,8 +33058,11 @@
       <c r="Y196" s="14">
         <v>18.176606852967257</v>
       </c>
+      <c r="Z196" s="14">
+        <v>18.948016374743897</v>
+      </c>
     </row>
-    <row r="197" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>20</v>
       </c>
@@ -32788,8 +33138,11 @@
       <c r="Y197" s="14">
         <v>6.2235941298264885</v>
       </c>
+      <c r="Z197" s="14">
+        <v>4.844239623059476</v>
+      </c>
     </row>
-    <row r="198" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>19</v>
       </c>
@@ -32865,8 +33218,11 @@
       <c r="Y198" s="14">
         <v>3.9826738240042445</v>
       </c>
+      <c r="Z198" s="14">
+        <v>5.2263791179597732</v>
+      </c>
     </row>
-    <row r="199" spans="1:25" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
         <v>18</v>
       </c>
@@ -32942,8 +33298,11 @@
       <c r="Y199" s="14">
         <v>1.8271820050893075</v>
       </c>
+      <c r="Z199" s="14">
+        <v>1.4465378443006067</v>
+      </c>
     </row>
-    <row r="200" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>17</v>
       </c>
@@ -33019,8 +33378,11 @@
       <c r="Y200" s="14">
         <v>6.5848468402528333</v>
       </c>
+      <c r="Z200" s="14">
+        <v>6.6427446642199834</v>
+      </c>
     </row>
-    <row r="201" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>16</v>
       </c>
@@ -33096,8 +33458,11 @@
       <c r="Y201" s="14">
         <v>1.9364819336482295</v>
       </c>
+      <c r="Z201" s="14">
+        <v>1.5133127296573834</v>
+      </c>
     </row>
-    <row r="202" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>15</v>
       </c>
@@ -33173,8 +33538,11 @@
       <c r="Y202" s="14">
         <v>1.5151250848590707</v>
       </c>
+      <c r="Z202" s="14">
+        <v>2.1159225956178944</v>
+      </c>
     </row>
-    <row r="203" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>14</v>
       </c>
@@ -33250,8 +33618,11 @@
       <c r="Y203" s="14">
         <v>0.32199903502487237</v>
       </c>
+      <c r="Z203" s="14">
+        <v>0.49189475393207788</v>
+      </c>
     </row>
-    <row r="204" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>13</v>
       </c>
@@ -33327,8 +33698,11 @@
       <c r="Y204" s="14">
         <v>1.2564355700144643</v>
       </c>
+      <c r="Z204" s="14">
+        <v>1.4054921230414983</v>
+      </c>
     </row>
-    <row r="205" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>12</v>
       </c>
@@ -33404,8 +33778,11 @@
       <c r="Y205" s="14">
         <v>0.39526357380745714</v>
       </c>
+      <c r="Z205" s="14">
+        <v>0.52115124727130424</v>
+      </c>
     </row>
-    <row r="206" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>11</v>
       </c>
@@ -33481,8 +33858,11 @@
       <c r="Y206" s="14">
         <v>9.2205879390069106E-2</v>
       </c>
+      <c r="Z206" s="14">
+        <v>0.13434279257130732</v>
+      </c>
     </row>
-    <row r="207" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>10</v>
       </c>
@@ -33558,8 +33938,11 @@
       <c r="Y207" s="14">
         <v>6.7477907134520398E-2</v>
       </c>
+      <c r="Z207" s="14">
+        <v>6.8044618686277855E-2</v>
+      </c>
     </row>
-    <row r="208" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>9</v>
       </c>
@@ -33635,8 +34018,11 @@
       <c r="Y208" s="14">
         <v>0.11855247572986698</v>
       </c>
+      <c r="Z208" s="14">
+        <v>9.0958187482552244E-2</v>
+      </c>
     </row>
-    <row r="209" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>8</v>
       </c>
@@ -33712,8 +34098,11 @@
       <c r="Y209" s="14">
         <v>5.3065175905324082</v>
       </c>
+      <c r="Z209" s="14">
+        <v>5.3369544061264262</v>
+      </c>
     </row>
-    <row r="210" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>7</v>
       </c>
@@ -33789,8 +34178,11 @@
       <c r="Y210" s="14">
         <v>13.340533485210843</v>
       </c>
+      <c r="Z210" s="14">
+        <v>13.301901450400996</v>
+      </c>
     </row>
-    <row r="211" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>6</v>
       </c>
@@ -33866,8 +34258,11 @@
       <c r="Y211" s="14">
         <v>11.371177163779913</v>
       </c>
+      <c r="Z211" s="14">
+        <v>11.619102628091046</v>
+      </c>
     </row>
-    <row r="212" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>5</v>
       </c>
@@ -33943,8 +34338,11 @@
       <c r="Y212" s="14">
         <v>3.4189300383709487</v>
       </c>
+      <c r="Z212" s="14">
+        <v>3.4692947778469909</v>
+      </c>
     </row>
-    <row r="213" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>4</v>
       </c>
@@ -34020,8 +34418,11 @@
       <c r="Y213" s="14">
         <v>3.723536457126108E-2</v>
       </c>
+      <c r="Z213" s="14">
+        <v>4.0686730861569265E-2</v>
+      </c>
     </row>
-    <row r="214" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>3</v>
       </c>
@@ -34097,8 +34498,11 @@
       <c r="Y214" s="14">
         <v>11.990496838374028</v>
       </c>
+      <c r="Z214" s="14">
+        <v>10.561406077051302</v>
+      </c>
     </row>
-    <row r="215" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>2</v>
       </c>
@@ -34174,11 +34578,14 @@
       <c r="Y215" s="14">
         <v>12.036664407411916</v>
       </c>
+      <c r="Z215" s="14">
+        <v>12.221617257077646</v>
+      </c>
     </row>
-    <row r="216" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216"/>
     </row>
-    <row r="217" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="11" t="s">
         <v>1</v>
       </c>
@@ -34254,8 +34661,11 @@
       <c r="Y217" s="14">
         <v>100</v>
       </c>
+      <c r="Z217" s="14">
+        <v>100</v>
+      </c>
     </row>
-    <row r="218" spans="1:25" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -34281,51 +34691,52 @@
       <c r="W218" s="12"/>
       <c r="X218" s="12"/>
       <c r="Y218" s="12"/>
+      <c r="Z218" s="12"/>
     </row>
-    <row r="219" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220"/>
     </row>
-    <row r="221" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="225" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="228" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
       <c r="B230" s="13" t="s">
         <v>23</v>
@@ -34353,8 +34764,9 @@
       <c r="W230" s="13"/>
       <c r="X230" s="13"/>
       <c r="Y230" s="13"/>
+      <c r="Z230" s="13"/>
     </row>
-    <row r="231" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
         <v>22</v>
       </c>
@@ -34430,11 +34842,14 @@
       <c r="Y231" s="5">
         <v>2023</v>
       </c>
+      <c r="Z231" s="5">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="232" spans="1:25" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="7"/>
     </row>
-    <row r="233" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>21</v>
       </c>
@@ -34510,8 +34925,11 @@
       <c r="Y233" s="14">
         <v>21.277367394413382</v>
       </c>
+      <c r="Z233" s="14">
+        <v>20.572934406730337</v>
+      </c>
     </row>
-    <row r="234" spans="1:25" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>20</v>
       </c>
@@ -34587,8 +35005,11 @@
       <c r="Y234" s="14">
         <v>5.9381896226298512</v>
       </c>
+      <c r="Z234" s="14">
+        <v>5.8641900333008277</v>
+      </c>
     </row>
-    <row r="235" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>19</v>
       </c>
@@ -34664,8 +35085,11 @@
       <c r="Y235" s="14">
         <v>4.6927140025198204</v>
       </c>
+      <c r="Z235" s="14">
+        <v>4.6354596596237485</v>
+      </c>
     </row>
-    <row r="236" spans="1:25" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="11" t="s">
         <v>18</v>
       </c>
@@ -34741,8 +35165,11 @@
       <c r="Y236" s="14">
         <v>1.4236523991054133</v>
       </c>
+      <c r="Z236" s="14">
+        <v>1.3119349996456131</v>
+      </c>
     </row>
-    <row r="237" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>17</v>
       </c>
@@ -34818,8 +35245,11 @@
       <c r="Y237" s="14">
         <v>7.4384335204061625</v>
       </c>
+      <c r="Z237" s="14">
+        <v>7.2831369590903474</v>
+      </c>
     </row>
-    <row r="238" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>16</v>
       </c>
@@ -34895,8 +35325,11 @@
       <c r="Y238" s="14">
         <v>2.0172194400577168</v>
       </c>
+      <c r="Z238" s="14">
+        <v>2.0086093214323846</v>
+      </c>
     </row>
-    <row r="239" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>15</v>
       </c>
@@ -34972,8 +35405,11 @@
       <c r="Y239" s="14">
         <v>1.6602613856368551</v>
       </c>
+      <c r="Z239" s="14">
+        <v>1.6670385384504156</v>
+      </c>
     </row>
-    <row r="240" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>14</v>
       </c>
@@ -35049,8 +35485,11 @@
       <c r="Y240" s="14">
         <v>0.32856972478561436</v>
       </c>
+      <c r="Z240" s="14">
+        <v>0.36161338672921411</v>
+      </c>
     </row>
-    <row r="241" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>13</v>
       </c>
@@ -35126,8 +35565,11 @@
       <c r="Y241" s="14">
         <v>1.090700483650914</v>
       </c>
+      <c r="Z241" s="14">
+        <v>1.0294831254399326</v>
+      </c>
     </row>
-    <row r="242" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>12</v>
       </c>
@@ -35203,8 +35645,11 @@
       <c r="Y242" s="14">
         <v>0.49678032935873867</v>
       </c>
+      <c r="Z242" s="14">
+        <v>0.48100565717661137</v>
+      </c>
     </row>
-    <row r="243" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>11</v>
       </c>
@@ -35280,8 +35725,11 @@
       <c r="Y243" s="14">
         <v>0.1159019939455725</v>
       </c>
+      <c r="Z243" s="14">
+        <v>0.11913464724799715</v>
+      </c>
     </row>
-    <row r="244" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>10</v>
       </c>
@@ -35357,8 +35805,11 @@
       <c r="Y244" s="14">
         <v>9.687168738004398E-2</v>
       </c>
+      <c r="Z244" s="14">
+        <v>9.5188069591961008E-2</v>
+      </c>
     </row>
-    <row r="245" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>9</v>
       </c>
@@ -35434,8 +35885,11 @@
       <c r="Y245" s="14">
         <v>0.11399602016338169</v>
       </c>
+      <c r="Z245" s="14">
+        <v>0.13268215966193048</v>
+      </c>
     </row>
-    <row r="246" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>8</v>
       </c>
@@ -35511,8 +35965,11 @@
       <c r="Y246" s="14">
         <v>5.0643883374034742</v>
       </c>
+      <c r="Z246" s="14">
+        <v>5.0637083044943072</v>
+      </c>
     </row>
-    <row r="247" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>7</v>
       </c>
@@ -35588,8 +36045,11 @@
       <c r="Y247" s="14">
         <v>10.445048490961092</v>
       </c>
+      <c r="Z247" s="14">
+        <v>10.18423420905382</v>
+      </c>
     </row>
-    <row r="248" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>6</v>
       </c>
@@ -35665,8 +36125,11 @@
       <c r="Y248" s="14">
         <v>10.759890437709331</v>
       </c>
+      <c r="Z248" s="14">
+        <v>11.639509709781926</v>
+      </c>
     </row>
-    <row r="249" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>5</v>
       </c>
@@ -35742,8 +36205,11 @@
       <c r="Y249" s="14">
         <v>4.1269429357890024</v>
       </c>
+      <c r="Z249" s="14">
+        <v>4.2402533047335567</v>
+      </c>
     </row>
-    <row r="250" spans="1:25" s="10" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>4</v>
       </c>
@@ -35819,8 +36285,11 @@
       <c r="Y250" s="14">
         <v>0.11831251860686708</v>
       </c>
+      <c r="Z250" s="14">
+        <v>0.14394076094410735</v>
+      </c>
     </row>
-    <row r="251" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>3</v>
       </c>
@@ -35896,8 +36365,11 @@
       <c r="Y251" s="14">
         <v>11.27620607852789</v>
       </c>
+      <c r="Z251" s="14">
+        <v>11.316459448370399</v>
+      </c>
     </row>
-    <row r="252" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>2</v>
       </c>
@@ -35973,11 +36445,14 @@
       <c r="Y252" s="14">
         <v>11.518553196948888</v>
       </c>
+      <c r="Z252" s="14">
+        <v>11.84948329850058</v>
+      </c>
     </row>
-    <row r="253" spans="1:25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:25" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="11" t="s">
         <v>1</v>
       </c>
@@ -36053,8 +36528,11 @@
       <c r="Y254" s="14">
         <v>100</v>
       </c>
+      <c r="Z254" s="14">
+        <v>100</v>
+      </c>
     </row>
-    <row r="255" spans="1:25" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="12"/>
       <c r="B255" s="12"/>
       <c r="C255" s="12"/>
@@ -36080,8 +36558,9 @@
       <c r="W255" s="12"/>
       <c r="X255" s="12"/>
       <c r="Y255" s="12"/>
+      <c r="Z255" s="12"/>
     </row>
-    <row r="256" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>0</v>
       </c>

--- a/Data/National Accounts/PSA-08AFF_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-08AFF_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF7F818-99E8-47F7-80EF-C8EF6AB30AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F1BBFC-17AA-43B9-991E-4F8C74CFD799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFF" sheetId="1" r:id="rId1"/>
@@ -664,7 +664,7 @@
     <t>Annual 2001 to 2024</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>As of April 2025</t>
   </si>
 </sst>
 </file>
@@ -23589,9 +23589,9 @@
   <dimension ref="A1:Z256"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23983,7 +23983,7 @@
         <v>91010.435712485691</v>
       </c>
       <c r="Z14" s="8">
-        <v>125467.96462217779</v>
+        <v>125467.96462217778</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -24060,7 +24060,7 @@
         <v>37859.515695861701</v>
       </c>
       <c r="Y15" s="8">
-        <v>41754.016963909402</v>
+        <v>41754.016963909395</v>
       </c>
       <c r="Z15" s="8">
         <v>34726.55828768119</v>
@@ -24140,10 +24140,10 @@
         <v>138718.93219190009</v>
       </c>
       <c r="Y16" s="8">
-        <v>150474.23075908824</v>
+        <v>150479.67286387566</v>
       </c>
       <c r="Z16" s="8">
-        <v>159470.18647393276</v>
+        <v>159475.39370606886</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -24300,7 +24300,7 @@
         <v>30251.798575179804</v>
       </c>
       <c r="Y18" s="8">
-        <v>34623.01966604482</v>
+        <v>34623.019666044813</v>
       </c>
       <c r="Z18" s="8">
         <v>50796.257863874314</v>
@@ -24460,10 +24460,10 @@
         <v>24496.647324262281</v>
       </c>
       <c r="Y20" s="8">
-        <v>28711.55252094274</v>
+        <v>28711.552520942743</v>
       </c>
       <c r="Z20" s="8">
-        <v>33741.187156617896</v>
+        <v>33741.187156617903</v>
       </c>
     </row>
     <row r="21" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -24543,7 +24543,7 @@
         <v>9032.4017640297188</v>
       </c>
       <c r="Z21" s="8">
-        <v>12511.106595911344</v>
+        <v>12511.107066168199</v>
       </c>
     </row>
     <row r="22" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -24620,10 +24620,10 @@
         <v>1716.0826899361323</v>
       </c>
       <c r="Y22" s="8">
-        <v>2107.0510991798837</v>
+        <v>2134.0651212743724</v>
       </c>
       <c r="Z22" s="8">
-        <v>3225.123238315965</v>
+        <v>3267.9079106541531</v>
       </c>
     </row>
     <row r="23" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -24700,10 +24700,10 @@
         <v>1689.1264763330614</v>
       </c>
       <c r="Y23" s="8">
-        <v>1541.9775760358134</v>
+        <v>1542.0836068104472</v>
       </c>
       <c r="Z23" s="8">
-        <v>1633.5247821425264</v>
+        <v>1633.6467866751598</v>
       </c>
     </row>
     <row r="24" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -24783,7 +24783,7 @@
         <v>2709.1127588553386</v>
       </c>
       <c r="Z24" s="8">
-        <v>2183.6032923714356</v>
+        <v>2183.3441974187458</v>
       </c>
     </row>
     <row r="25" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -24860,10 +24860,10 @@
         <v>103616.51054342854</v>
       </c>
       <c r="Y25" s="8">
-        <v>121262.3728108269</v>
+        <v>121587.28017552564</v>
       </c>
       <c r="Z25" s="8">
-        <v>128122.50919895864</v>
+        <v>128625.95235675665</v>
       </c>
     </row>
     <row r="26" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -24940,10 +24940,10 @@
         <v>299676.36287433829</v>
       </c>
       <c r="Y26" s="8">
-        <v>304852.42296476604</v>
+        <v>304869.48535717546</v>
       </c>
       <c r="Z26" s="8">
-        <v>319334.37336213037</v>
+        <v>319478.94622352632</v>
       </c>
     </row>
     <row r="27" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -25023,7 +25023,7 @@
         <v>259849.49658743993</v>
       </c>
       <c r="Z27" s="8">
-        <v>278935.97547739191</v>
+        <v>278935.97547739197</v>
       </c>
     </row>
     <row r="28" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -25103,7 +25103,7 @@
         <v>78127.992954693415</v>
       </c>
       <c r="Z28" s="8">
-        <v>83286.21874272589</v>
+        <v>83286.218742725876</v>
       </c>
     </row>
     <row r="29" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -25180,10 +25180,10 @@
         <v>1219.6581931041087</v>
       </c>
       <c r="Y29" s="8">
-        <v>850.88734435614992</v>
+        <v>887.09521188396911</v>
       </c>
       <c r="Z29" s="8">
-        <v>976.75296665509404</v>
+        <v>1064.9948206643473</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -25260,10 +25260,10 @@
         <v>269803.25457634113</v>
       </c>
       <c r="Y30" s="8">
-        <v>274001.93686271593</v>
+        <v>273996.09334580658</v>
       </c>
       <c r="Z30" s="8">
-        <v>253544.20223407255</v>
+        <v>254091.57027241727</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -25423,10 +25423,10 @@
         <v>2104089.8599160332</v>
       </c>
       <c r="Y33" s="10">
-        <v>2285159.1602593842</v>
+        <v>2285564.0565247671</v>
       </c>
       <c r="Z33" s="10">
-        <v>2400667.1117872684</v>
+        <v>2401998.5929831276</v>
       </c>
     </row>
     <row r="34" spans="1:26" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -25690,7 +25690,7 @@
         <v>384036.70505752828</v>
       </c>
       <c r="Z49" s="8">
-        <v>365531.34336379182</v>
+        <v>365531.34336379194</v>
       </c>
     </row>
     <row r="50" spans="1:26" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -26007,10 +26007,10 @@
         <v>133980.5487144271</v>
       </c>
       <c r="Y53" s="8">
-        <v>134256.81133448373</v>
+        <v>134261.62390574504</v>
       </c>
       <c r="Z53" s="8">
-        <v>129403.7488248563</v>
+        <v>129408.28536869732</v>
       </c>
     </row>
     <row r="54" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -26167,10 +26167,10 @@
         <v>29767.681399372428</v>
       </c>
       <c r="Y55" s="8">
-        <v>29966.174868119906</v>
+        <v>29966.174868119902</v>
       </c>
       <c r="Z55" s="8">
-        <v>29619.247519675417</v>
+        <v>29619.247519675409</v>
       </c>
     </row>
     <row r="56" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -26250,7 +26250,7 @@
         <v>5930.3781407401457</v>
       </c>
       <c r="Z56" s="8">
-        <v>6424.9962798801134</v>
+        <v>6424.9962798801125</v>
       </c>
     </row>
     <row r="57" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -26327,10 +26327,10 @@
         <v>19704.792108007317</v>
       </c>
       <c r="Y57" s="8">
-        <v>19686.129970004109</v>
+        <v>19686.129970004113</v>
       </c>
       <c r="Z57" s="8">
-        <v>18291.428066251265</v>
+        <v>18291.428066251268</v>
       </c>
     </row>
     <row r="58" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -26410,7 +26410,7 @@
         <v>8966.4232086538905</v>
       </c>
       <c r="Z58" s="8">
-        <v>8546.3084923767965</v>
+        <v>8546.3072266816525</v>
       </c>
     </row>
     <row r="59" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -26487,10 +26487,10 @@
         <v>2041.6744825392059</v>
       </c>
       <c r="Y59" s="8">
-        <v>2091.9232647240951</v>
+        <v>2111.394595788317</v>
       </c>
       <c r="Z59" s="8">
-        <v>2116.7348706213502</v>
+        <v>2136.4998151467057</v>
       </c>
     </row>
     <row r="60" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -26567,10 +26567,10 @@
         <v>1735.4696454060927</v>
       </c>
       <c r="Y60" s="8">
-        <v>1748.443919080089</v>
+        <v>1748.5288105788777</v>
       </c>
       <c r="Z60" s="8">
-        <v>1691.2620369203555</v>
+        <v>1691.347251552472</v>
       </c>
     </row>
     <row r="61" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -26650,7 +26650,7 @@
         <v>2057.5222094774399</v>
       </c>
       <c r="Z61" s="8">
-        <v>2357.4414375116162</v>
+        <v>2356.990197765746</v>
       </c>
     </row>
     <row r="62" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -26727,10 +26727,10 @@
         <v>92348.344280244783</v>
       </c>
       <c r="Y62" s="8">
-        <v>91407.502355712611</v>
+        <v>91602.265725282254</v>
       </c>
       <c r="Z62" s="8">
-        <v>89969.863430793106</v>
+        <v>90260.184938752791</v>
       </c>
     </row>
     <row r="63" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -26807,10 +26807,10 @@
         <v>183067.35521554653</v>
       </c>
       <c r="Y63" s="8">
-        <v>188523.41703175244</v>
+        <v>188533.07679822066</v>
       </c>
       <c r="Z63" s="8">
-        <v>180949.23835216611</v>
+        <v>180975.45381511346</v>
       </c>
     </row>
     <row r="64" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -26967,7 +26967,7 @@
         <v>72195.876970941026</v>
       </c>
       <c r="Y65" s="8">
-        <v>74487.484172359793</v>
+        <v>74487.484172359778</v>
       </c>
       <c r="Z65" s="8">
         <v>75339.057425612438</v>
@@ -27047,10 +27047,10 @@
         <v>2735.740113090932</v>
       </c>
       <c r="Y66" s="8">
-        <v>2135.4309943799053</v>
+        <v>2220.5043487365606</v>
       </c>
       <c r="Z66" s="8">
-        <v>2557.479583247652</v>
+        <v>2781.7175750772194</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -27127,10 +27127,10 @@
         <v>215554.73903348591</v>
       </c>
       <c r="Y67" s="8">
-        <v>203525.0389615653</v>
+        <v>203520.89047987183</v>
       </c>
       <c r="Z67" s="8">
-        <v>201066.145572868</v>
+        <v>201977.55394357679</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -27290,10 +27290,10 @@
         <v>1783734.6554432954</v>
       </c>
       <c r="Y70" s="10">
-        <v>1804907.0542362377</v>
+        <v>1805216.771038763</v>
       </c>
       <c r="Z70" s="10">
-        <v>1776758.4153877923</v>
+        <v>1778234.5329187952</v>
       </c>
     </row>
     <row r="71" spans="1:26" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -27708,7 +27708,7 @@
         <v>-7.2403147225311102</v>
       </c>
       <c r="Y88" s="14">
-        <v>37.86107454594341</v>
+        <v>37.861074545943382</v>
       </c>
       <c r="Z88" s="14"/>
     </row>
@@ -27783,10 +27783,10 @@
         <v>43.54911750489066</v>
       </c>
       <c r="X89" s="14">
-        <v>10.286717081469149</v>
+        <v>10.286717081469135</v>
       </c>
       <c r="Y89" s="14">
-        <v>-16.83061699740766</v>
+        <v>-16.830616997407645</v>
       </c>
       <c r="Z89" s="14"/>
     </row>
@@ -27861,10 +27861,10 @@
         <v>-22.335025099994425</v>
       </c>
       <c r="X90" s="14">
-        <v>8.4741847283874563</v>
+        <v>8.4781078445053737</v>
       </c>
       <c r="Y90" s="14">
-        <v>5.9784028597210011</v>
+        <v>5.9780305678433905</v>
       </c>
       <c r="Z90" s="14"/>
     </row>
@@ -28017,10 +28017,10 @@
         <v>14.201501560144948</v>
       </c>
       <c r="X92" s="14">
-        <v>14.449458533851939</v>
+        <v>14.44945853385191</v>
       </c>
       <c r="Y92" s="14">
-        <v>46.712384863677187</v>
+        <v>46.712384863677215</v>
       </c>
       <c r="Z92" s="14"/>
     </row>
@@ -28173,10 +28173,10 @@
         <v>3.1865472622213815</v>
       </c>
       <c r="X94" s="14">
-        <v>17.206049223339548</v>
+        <v>17.206049223339576</v>
       </c>
       <c r="Y94" s="14">
-        <v>17.517807969480032</v>
+        <v>17.51780796948006</v>
       </c>
       <c r="Z94" s="14"/>
     </row>
@@ -28254,7 +28254,7 @@
         <v>-13.949614337349843</v>
       </c>
       <c r="Y95" s="14">
-        <v>38.513619331406204</v>
+        <v>38.513624537738565</v>
       </c>
       <c r="Z95" s="14"/>
     </row>
@@ -28329,10 +28329,10 @@
         <v>7.8046173733567628</v>
       </c>
       <c r="X96" s="14">
-        <v>22.782608992944404</v>
+        <v>24.356776849360102</v>
       </c>
       <c r="Y96" s="14">
-        <v>53.063361376060726</v>
+        <v>53.130655577309597</v>
       </c>
       <c r="Z96" s="14"/>
     </row>
@@ -28407,10 +28407,10 @@
         <v>12.116893091796712</v>
       </c>
       <c r="X97" s="14">
-        <v>-8.7115383222631522</v>
+        <v>-8.7052610673554085</v>
       </c>
       <c r="Y97" s="14">
-        <v>5.9369998325180973</v>
+        <v>5.9376274710614609</v>
       </c>
       <c r="Z97" s="14"/>
     </row>
@@ -28488,7 +28488,7 @@
         <v>92.50491726216228</v>
       </c>
       <c r="Y98" s="14">
-        <v>-19.397843990293808</v>
+        <v>-19.407407820807805</v>
       </c>
       <c r="Z98" s="14"/>
     </row>
@@ -28563,10 +28563,10 @@
         <v>7.6224470336273527</v>
       </c>
       <c r="X99" s="14">
-        <v>17.029971550723559</v>
+        <v>17.343538725486283</v>
       </c>
       <c r="Y99" s="14">
-        <v>5.6572671547783244</v>
+        <v>5.7889872781674541</v>
       </c>
       <c r="Z99" s="14"/>
     </row>
@@ -28641,10 +28641,10 @@
         <v>11.879235553807675</v>
       </c>
       <c r="X100" s="14">
-        <v>1.7272166682689658</v>
+        <v>1.7329102746134168</v>
       </c>
       <c r="Y100" s="14">
-        <v>4.7504790208074326</v>
+        <v>4.7920377630561717</v>
       </c>
       <c r="Z100" s="14"/>
     </row>
@@ -28722,7 +28722,7 @@
         <v>9.8287038747887294</v>
       </c>
       <c r="Y101" s="14">
-        <v>7.345205259433456</v>
+        <v>7.3452052594334702</v>
       </c>
       <c r="Z101" s="14"/>
     </row>
@@ -28800,7 +28800,7 @@
         <v>4.0553424473851294</v>
       </c>
       <c r="Y102" s="14">
-        <v>6.6022760766729789</v>
+        <v>6.6022760766729647</v>
       </c>
       <c r="Z102" s="14"/>
     </row>
@@ -28875,10 +28875,10 @@
         <v>-11.840167143112566</v>
       </c>
       <c r="X103" s="14">
-        <v>-30.235589842545409</v>
+        <v>-27.266900111886699</v>
       </c>
       <c r="Y103" s="14">
-        <v>14.792278100479223</v>
+        <v>20.054173035447207</v>
       </c>
       <c r="Z103" s="14"/>
     </row>
@@ -28953,10 +28953,10 @@
         <v>8.6750067444468613</v>
       </c>
       <c r="X104" s="14">
-        <v>1.5562014968899263</v>
+        <v>1.5540356531463146</v>
       </c>
       <c r="Y104" s="14">
-        <v>-7.4662737288946062</v>
+        <v>-7.26452805597782</v>
       </c>
       <c r="Z104" s="14"/>
     </row>
@@ -29112,10 +29112,10 @@
         <v>7.6543502080105981</v>
       </c>
       <c r="X107" s="14">
-        <v>8.6055878027270722</v>
+        <v>8.6248310999405646</v>
       </c>
       <c r="Y107" s="14">
-        <v>5.054700501245307</v>
+        <v>5.0943457973083923</v>
       </c>
       <c r="Z107" s="14"/>
     </row>
@@ -29375,7 +29375,7 @@
         <v>1.6753371691916215</v>
       </c>
       <c r="Y123" s="14">
-        <v>-4.8186440124165557</v>
+        <v>-4.8186440124165415</v>
       </c>
       <c r="Z123" s="14"/>
     </row>
@@ -29684,10 +29684,10 @@
         <v>-0.58775389503081499</v>
       </c>
       <c r="X127" s="14">
-        <v>0.20619606555388259</v>
+        <v>0.20978805805388845</v>
       </c>
       <c r="Y127" s="14">
-        <v>-3.6147607420353864</v>
+        <v>-3.6148367611395003</v>
       </c>
       <c r="Z127" s="14"/>
     </row>
@@ -29843,7 +29843,7 @@
         <v>0.66680863075771413</v>
       </c>
       <c r="Y129" s="14">
-        <v>-1.1577298402992824</v>
+        <v>-1.1577298402992966</v>
       </c>
       <c r="Z129" s="14"/>
     </row>
@@ -29921,7 +29921,7 @@
         <v>0.70077530989721026</v>
       </c>
       <c r="Y130" s="14">
-        <v>8.3404148504809541</v>
+        <v>8.3404148504809399</v>
       </c>
       <c r="Z130" s="14"/>
     </row>
@@ -29996,7 +29996,7 @@
         <v>8.090300872211742E-3</v>
       </c>
       <c r="X131" s="14">
-        <v>-9.4708626718400524E-2</v>
+        <v>-9.4708626718372102E-2</v>
       </c>
       <c r="Y131" s="14">
         <v>-7.0846931615201214</v>
@@ -30077,7 +30077,7 @@
         <v>-8.6884258315411529</v>
       </c>
       <c r="Y132" s="14">
-        <v>-4.6854214495655668</v>
+        <v>-4.6854355655080582</v>
       </c>
       <c r="Z132" s="14"/>
     </row>
@@ -30152,10 +30152,10 @@
         <v>4.1518252020840123</v>
       </c>
       <c r="X133" s="14">
-        <v>2.4611554199568388</v>
+        <v>3.4148496170849398</v>
       </c>
       <c r="Y133" s="14">
-        <v>1.1860667317798317</v>
+        <v>1.1890349349414464</v>
       </c>
       <c r="Z133" s="14"/>
     </row>
@@ -30230,10 +30230,10 @@
         <v>6.8521989732273738</v>
       </c>
       <c r="X134" s="14">
-        <v>0.74759438797100586</v>
+        <v>0.75248594565474036</v>
       </c>
       <c r="Y134" s="14">
-        <v>-3.2704441667090265</v>
+        <v>-3.2702669055521483</v>
       </c>
       <c r="Z134" s="14"/>
     </row>
@@ -30311,7 +30311,7 @@
         <v>16.734942298397243</v>
       </c>
       <c r="Y135" s="14">
-        <v>14.576718863722419</v>
+        <v>14.55478764257731</v>
       </c>
       <c r="Z135" s="14"/>
     </row>
@@ -30386,10 +30386,10 @@
         <v>-0.49229260468999314</v>
       </c>
       <c r="X136" s="14">
-        <v>-1.0187967438561145</v>
+        <v>-0.80789597342258901</v>
       </c>
       <c r="Y136" s="14">
-        <v>-1.5727800102500566</v>
+        <v>-1.4651174574157295</v>
       </c>
       <c r="Z136" s="14"/>
     </row>
@@ -30464,10 +30464,10 @@
         <v>2.2562580206787288</v>
       </c>
       <c r="X137" s="14">
-        <v>2.9803575901240436</v>
+        <v>2.9856342089165508</v>
       </c>
       <c r="Y137" s="14">
-        <v>-4.0176328218741304</v>
+        <v>-4.0086456506493136</v>
       </c>
       <c r="Z137" s="14"/>
     </row>
@@ -30620,10 +30620,10 @@
         <v>4.2341520803585269</v>
       </c>
       <c r="X139" s="14">
-        <v>3.1741524551895708</v>
+        <v>3.1741524551895566</v>
       </c>
       <c r="Y139" s="14">
-        <v>1.1432434088955716</v>
+        <v>1.1432434088956001</v>
       </c>
       <c r="Z139" s="14"/>
     </row>
@@ -30698,10 +30698,10 @@
         <v>0.96644458531973498</v>
       </c>
       <c r="X140" s="14">
-        <v>-21.943207099185202</v>
+        <v>-18.833505488656982</v>
       </c>
       <c r="Y140" s="14">
-        <v>19.764093992196791</v>
+        <v>25.274133178797072</v>
       </c>
       <c r="Z140" s="14"/>
     </row>
@@ -30776,10 +30776,10 @@
         <v>-3.5676510745293939</v>
       </c>
       <c r="X141" s="14">
-        <v>-5.5808098332052083</v>
+        <v>-5.5827343938583738</v>
       </c>
       <c r="Y141" s="14">
-        <v>-1.2081527664818026</v>
+        <v>-0.75831848644926936</v>
       </c>
       <c r="Z141" s="14"/>
     </row>
@@ -30935,10 +30935,10 @@
         <v>0.48018751594077003</v>
       </c>
       <c r="X144" s="14">
-        <v>1.1869701992015536</v>
+        <v>1.2043335890745936</v>
       </c>
       <c r="Y144" s="14">
-        <v>-1.5595616839315198</v>
+        <v>-1.4946813342777432</v>
       </c>
       <c r="Z144" s="14"/>
     </row>
@@ -31198,7 +31198,7 @@
         <v>108.15747324534905</v>
       </c>
       <c r="Z159" s="14">
-        <v>124.44317175608903</v>
+        <v>124.44317175608899</v>
       </c>
     </row>
     <row r="160" spans="1:26" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -31358,7 +31358,7 @@
         <v>107.45144600536989</v>
       </c>
       <c r="Z161" s="14">
-        <v>152.3391982997054</v>
+        <v>152.33919829970537</v>
       </c>
     </row>
     <row r="162" spans="1:26" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -31435,7 +31435,7 @@
         <v>137.49575248590102</v>
       </c>
       <c r="Y162" s="14">
-        <v>162.49479589015604</v>
+        <v>162.49479589015601</v>
       </c>
       <c r="Z162" s="14">
         <v>148.97762401523045</v>
@@ -31515,10 +31515,10 @@
         <v>103.53662044448902</v>
       </c>
       <c r="Y163" s="14">
-        <v>112.07940160607635</v>
+        <v>112.07943750890135</v>
       </c>
       <c r="Z163" s="14">
-        <v>123.23459553692713</v>
+        <v>123.23429929676242</v>
       </c>
     </row>
     <row r="164" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -31678,7 +31678,7 @@
         <v>115.54033779225918</v>
       </c>
       <c r="Z165" s="14">
-        <v>171.49746235157215</v>
+        <v>171.49746235157218</v>
       </c>
     </row>
     <row r="166" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -31758,7 +31758,7 @@
         <v>124.07624387842746</v>
       </c>
       <c r="Z166" s="14">
-        <v>183.79396762039292</v>
+        <v>183.79396762039295</v>
       </c>
     </row>
     <row r="167" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -31918,7 +31918,7 @@
         <v>100.73584029930853</v>
       </c>
       <c r="Z168" s="14">
-        <v>146.39193760757757</v>
+        <v>146.3919647904583</v>
       </c>
     </row>
     <row r="169" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -31995,10 +31995,10 @@
         <v>84.052707942054553</v>
       </c>
       <c r="Y169" s="14">
-        <v>100.72315436760458</v>
+        <v>101.07372281482945</v>
       </c>
       <c r="Z169" s="14">
-        <v>152.36311751075641</v>
+        <v>152.95615227702501</v>
       </c>
     </row>
     <row r="170" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -32075,10 +32075,10 @@
         <v>97.329646807957431</v>
       </c>
       <c r="Y170" s="14">
-        <v>88.191423196867305</v>
+        <v>88.19320548112195</v>
       </c>
       <c r="Z170" s="14">
-        <v>96.586143748430388</v>
+        <v>96.588490930862974</v>
       </c>
     </row>
     <row r="171" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -32158,7 +32158,7 @@
         <v>131.66870065248952</v>
       </c>
       <c r="Z171" s="14">
-        <v>92.625982458182534</v>
+        <v>92.632722846637037</v>
       </c>
     </row>
     <row r="172" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -32235,10 +32235,10 @@
         <v>112.201806487173</v>
       </c>
       <c r="Y172" s="14">
-        <v>132.6612911256824</v>
+        <v>132.73392225926952</v>
       </c>
       <c r="Z172" s="14">
-        <v>142.4060283224876</v>
+        <v>142.50574873521194</v>
       </c>
     </row>
     <row r="173" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -32315,10 +32315,10 @@
         <v>163.69732469314062</v>
       </c>
       <c r="Y173" s="14">
-        <v>161.70533494702181</v>
+        <v>161.70609981794598</v>
       </c>
       <c r="Z173" s="14">
-        <v>176.47732384517531</v>
+        <v>176.53164530804798</v>
       </c>
     </row>
     <row r="174" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -32398,7 +32398,7 @@
         <v>133.80094732860076</v>
       </c>
       <c r="Z174" s="14">
-        <v>134.87810714526933</v>
+        <v>134.87810714526935</v>
       </c>
     </row>
     <row r="175" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -32475,7 +32475,7 @@
         <v>103.99917370791789</v>
       </c>
       <c r="Y175" s="14">
-        <v>104.8874100431553</v>
+        <v>104.88741004315531</v>
       </c>
       <c r="Z175" s="14">
         <v>110.54852766768451</v>
@@ -32555,10 +32555,10 @@
         <v>44.582385120131072</v>
       </c>
       <c r="Y176" s="14">
-        <v>39.84616438534151</v>
+        <v>39.950167735033496</v>
       </c>
       <c r="Z176" s="14">
-        <v>38.192014241409908</v>
+        <v>38.285512167236583</v>
       </c>
     </row>
     <row r="177" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -32635,10 +32635,10 @@
         <v>125.16693243957297</v>
       </c>
       <c r="Y177" s="14">
-        <v>134.62812156221221</v>
+        <v>134.62799455120543</v>
       </c>
       <c r="Z177" s="14">
-        <v>126.09989688303149</v>
+        <v>125.80188506659444</v>
       </c>
     </row>
     <row r="178" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -32798,10 +32798,10 @@
         <v>117.95980155989754</v>
       </c>
       <c r="Y180" s="14">
-        <v>126.6081350225743</v>
+        <v>126.60884239456745</v>
       </c>
       <c r="Z180" s="14">
-        <v>135.11499880884497</v>
+        <v>135.07771604460328</v>
       </c>
     </row>
     <row r="181" spans="1:26" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33056,10 +33056,10 @@
         <v>16.975594547130076</v>
       </c>
       <c r="Y196" s="14">
-        <v>18.176606852967257</v>
+        <v>18.173386798726774</v>
       </c>
       <c r="Z196" s="14">
-        <v>18.948016374743897</v>
+        <v>18.937513068215946</v>
       </c>
     </row>
     <row r="197" spans="1:26" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -33136,10 +33136,10 @@
         <v>6.0211234485226282</v>
       </c>
       <c r="Y197" s="14">
-        <v>6.2235941298264885</v>
+        <v>6.2224915967282657</v>
       </c>
       <c r="Z197" s="14">
-        <v>4.844239623059476</v>
+        <v>4.8415543533906336</v>
       </c>
     </row>
     <row r="198" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -33216,10 +33216,10 @@
         <v>4.6630239245494591</v>
       </c>
       <c r="Y198" s="14">
-        <v>3.9826738240042445</v>
+        <v>3.9819682783631261</v>
       </c>
       <c r="Z198" s="14">
-        <v>5.2263791179597732</v>
+        <v>5.2234820198772329</v>
       </c>
     </row>
     <row r="199" spans="1:26" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -33296,10 +33296,10 @@
         <v>1.7993297918071114</v>
       </c>
       <c r="Y199" s="14">
-        <v>1.8271820050893075</v>
+        <v>1.8268583129276619</v>
       </c>
       <c r="Z199" s="14">
-        <v>1.4465378443006067</v>
+        <v>1.4457359962294165</v>
       </c>
     </row>
     <row r="200" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -33376,10 +33376,10 @@
         <v>6.5928235687346488</v>
       </c>
       <c r="Y200" s="14">
-        <v>6.5848468402528333</v>
+        <v>6.5839184176129439</v>
       </c>
       <c r="Z200" s="14">
-        <v>6.6427446642199834</v>
+        <v>6.6392792307180617</v>
       </c>
     </row>
     <row r="201" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -33456,10 +33456,10 @@
         <v>1.7862384733144312</v>
       </c>
       <c r="Y201" s="14">
-        <v>1.9364819336482295</v>
+        <v>1.936138878593318</v>
       </c>
       <c r="Z201" s="14">
-        <v>1.5133127296573834</v>
+        <v>1.5124738667834086</v>
       </c>
     </row>
     <row r="202" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -33536,10 +33536,10 @@
         <v>1.4377617207084039</v>
       </c>
       <c r="Y202" s="14">
-        <v>1.5151250848590707</v>
+        <v>1.5148566747540477</v>
       </c>
       <c r="Z202" s="14">
-        <v>2.1159225956178944</v>
+        <v>2.1147496927043838</v>
       </c>
     </row>
     <row r="203" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -33616,10 +33616,10 @@
         <v>0.30772929480125383</v>
       </c>
       <c r="Y203" s="14">
-        <v>0.32199903502487237</v>
+        <v>0.32194199168523541</v>
       </c>
       <c r="Z203" s="14">
-        <v>0.49189475393207788</v>
+        <v>0.49162208573938387</v>
       </c>
     </row>
     <row r="204" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -33696,10 +33696,10 @@
         <v>1.1642395978867488</v>
       </c>
       <c r="Y204" s="14">
-        <v>1.2564355700144643</v>
+        <v>1.2562129877295616</v>
       </c>
       <c r="Z204" s="14">
-        <v>1.4054921230414983</v>
+        <v>1.4047130275256956</v>
       </c>
     </row>
     <row r="205" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -33776,10 +33776,10 @@
         <v>0.49886856915038946</v>
       </c>
       <c r="Y205" s="14">
-        <v>0.39526357380745714</v>
+        <v>0.39519355137933065</v>
       </c>
       <c r="Z205" s="14">
-        <v>0.52115124727130424</v>
+        <v>0.52086238113196437</v>
       </c>
     </row>
     <row r="206" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -33856,10 +33856,10 @@
         <v>8.1559382164629379E-2</v>
       </c>
       <c r="Y206" s="14">
-        <v>9.2205879390069106E-2</v>
+        <v>9.3371485921915007E-2</v>
       </c>
       <c r="Z206" s="14">
-        <v>0.13434279257130732</v>
+        <v>0.13604953475828735</v>
       </c>
     </row>
     <row r="207" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -33936,10 +33936,10 @@
         <v>8.0278248021235579E-2</v>
       </c>
       <c r="Y207" s="14">
-        <v>6.7477907134520398E-2</v>
+        <v>6.7470592320882372E-2</v>
       </c>
       <c r="Z207" s="14">
-        <v>6.8044618686277855E-2</v>
+        <v>6.8011979334520578E-2</v>
       </c>
     </row>
     <row r="208" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -34016,10 +34016,10 @@
         <v>6.6883804815106765E-2</v>
       </c>
       <c r="Y208" s="14">
-        <v>0.11855247572986698</v>
+        <v>0.11853147371308347</v>
       </c>
       <c r="Z208" s="14">
-        <v>9.0958187482552244E-2</v>
+        <v>9.0896980697527094E-2</v>
       </c>
     </row>
     <row r="209" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -34096,10 +34096,10 @@
         <v>4.9245287721487099</v>
       </c>
       <c r="Y209" s="14">
-        <v>5.3065175905324082</v>
+        <v>5.3197931525227453</v>
       </c>
       <c r="Z209" s="14">
-        <v>5.3369544061264262</v>
+        <v>5.3549553581133242</v>
       </c>
     </row>
     <row r="210" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -34176,10 +34176,10 @@
         <v>14.242564853494294</v>
       </c>
       <c r="Y210" s="14">
-        <v>13.340533485210843</v>
+        <v>13.338916688282797</v>
       </c>
       <c r="Z210" s="14">
-        <v>13.301901450400996</v>
+        <v>13.300546767879412</v>
       </c>
     </row>
     <row r="211" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -34256,10 +34256,10 @@
         <v>11.244541147359868</v>
       </c>
       <c r="Y211" s="14">
-        <v>11.371177163779913</v>
+        <v>11.369162716994458</v>
       </c>
       <c r="Z211" s="14">
-        <v>11.619102628091046</v>
+        <v>11.612661901311585</v>
       </c>
     </row>
     <row r="212" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -34336,10 +34336,10 @@
         <v>3.5684367351097799</v>
       </c>
       <c r="Y212" s="14">
-        <v>3.4189300383709487</v>
+        <v>3.4183243620608974</v>
       </c>
       <c r="Z212" s="14">
-        <v>3.4692947778469909</v>
+        <v>3.4673716706590474</v>
       </c>
     </row>
     <row r="213" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -34416,10 +34416,10 @@
         <v>5.796606962179747E-2</v>
       </c>
       <c r="Y213" s="14">
-        <v>3.723536457126108E-2</v>
+        <v>3.8812966512643279E-2</v>
       </c>
       <c r="Z213" s="14">
-        <v>4.0686730861569265E-2</v>
+        <v>4.4337861969423235E-2</v>
       </c>
     </row>
     <row r="214" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -34496,10 +34496,10 @@
         <v>12.822800951434083</v>
       </c>
       <c r="Y214" s="14">
-        <v>11.990496838374028</v>
+        <v>11.988117006111024</v>
       </c>
       <c r="Z214" s="14">
-        <v>10.561406077051302</v>
+        <v>10.578339679910133</v>
       </c>
     </row>
     <row r="215" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -34576,10 +34576,10 @@
         <v>11.663707099225336</v>
       </c>
       <c r="Y215" s="14">
-        <v>12.036664407411916</v>
+        <v>12.034532067059294</v>
       </c>
       <c r="Z215" s="14">
-        <v>12.221617257077646</v>
+        <v>12.214842543050617</v>
       </c>
     </row>
     <row r="216" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -34923,10 +34923,10 @@
         <v>21.175167945332785</v>
       </c>
       <c r="Y233" s="14">
-        <v>21.277367394413382</v>
+        <v>21.273716886451524</v>
       </c>
       <c r="Z233" s="14">
-        <v>20.572934406730337</v>
+        <v>20.555856755509556</v>
       </c>
     </row>
     <row r="234" spans="1:26" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -35003,10 +35003,10 @@
         <v>5.9004116420394066</v>
       </c>
       <c r="Y234" s="14">
-        <v>5.9381896226298512</v>
+        <v>5.9371708213799321</v>
       </c>
       <c r="Z234" s="14">
-        <v>5.8641900333008277</v>
+        <v>5.8593221525162384</v>
       </c>
     </row>
     <row r="235" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -35083,10 +35083,10 @@
         <v>4.7158011433404194</v>
       </c>
       <c r="Y235" s="14">
-        <v>4.6927140025198204</v>
+        <v>4.6919088845975061</v>
       </c>
       <c r="Z235" s="14">
-        <v>4.6354596596237485</v>
+        <v>4.6316117514085162</v>
       </c>
     </row>
     <row r="236" spans="1:26" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -35163,10 +35163,10 @@
         <v>1.5436737596977246</v>
       </c>
       <c r="Y236" s="14">
-        <v>1.4236523991054133</v>
+        <v>1.4234081464062183</v>
       </c>
       <c r="Z236" s="14">
-        <v>1.3119349996456131</v>
+        <v>1.3108459586801706</v>
       </c>
     </row>
     <row r="237" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -35243,10 +35243,10 @@
         <v>7.5112376331069335</v>
       </c>
       <c r="Y237" s="14">
-        <v>7.4384335204061625</v>
+        <v>7.4374239182637236</v>
       </c>
       <c r="Z237" s="14">
-        <v>7.2831369590903474</v>
+        <v>7.2773463214824918</v>
       </c>
     </row>
     <row r="238" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -35323,10 +35323,10 @@
         <v>1.8527721562787345</v>
       </c>
       <c r="Y238" s="14">
-        <v>2.0172194400577168</v>
+        <v>2.0168733504550778</v>
       </c>
       <c r="Z238" s="14">
-        <v>2.0086093214323846</v>
+        <v>2.0069419691358146</v>
       </c>
     </row>
     <row r="239" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -35403,10 +35403,10 @@
         <v>1.6688402228735382</v>
       </c>
       <c r="Y239" s="14">
-        <v>1.6602613856368551</v>
+        <v>1.6599765384894292</v>
       </c>
       <c r="Z239" s="14">
-        <v>1.6670385384504156</v>
+        <v>1.665654725029907</v>
       </c>
     </row>
     <row r="240" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -35483,10 +35483,10 @@
         <v>0.33015609708989191</v>
       </c>
       <c r="Y240" s="14">
-        <v>0.32856972478561436</v>
+        <v>0.32851335284945704</v>
       </c>
       <c r="Z240" s="14">
-        <v>0.36161338672921411</v>
+        <v>0.36131321043091652</v>
       </c>
     </row>
     <row r="241" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -35563,10 +35563,10 @@
         <v>1.1046930129364037</v>
       </c>
       <c r="Y241" s="14">
-        <v>1.090700483650914</v>
+        <v>1.0905133547300396</v>
       </c>
       <c r="Z241" s="14">
-        <v>1.0294831254399326</v>
+        <v>1.028628548576644</v>
       </c>
     </row>
     <row r="242" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -35643,10 +35643,10 @@
         <v>0.55050739011063798</v>
       </c>
       <c r="Y242" s="14">
-        <v>0.49678032935873867</v>
+        <v>0.49669509792413491</v>
       </c>
       <c r="Z242" s="14">
-        <v>0.48100565717661137</v>
+        <v>0.4806063018388097</v>
       </c>
     </row>
     <row r="243" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -35723,10 +35723,10 @@
         <v>0.11446066130457096</v>
       </c>
       <c r="Y243" s="14">
-        <v>0.1159019939455725</v>
+        <v>0.11696072347994931</v>
       </c>
       <c r="Z243" s="14">
-        <v>0.11913464724799715</v>
+        <v>0.12014724579889097</v>
       </c>
     </row>
     <row r="244" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -35803,10 +35803,10 @@
         <v>9.7294159762500776E-2</v>
       </c>
       <c r="Y244" s="14">
-        <v>9.687168738004398E-2</v>
+        <v>9.6859769897480741E-2</v>
       </c>
       <c r="Z244" s="14">
-        <v>9.5188069591961008E-2</v>
+        <v>9.5113845797173538E-2</v>
       </c>
     </row>
     <row r="245" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -35883,10 +35883,10 @@
         <v>9.88128461623273E-2</v>
       </c>
       <c r="Y245" s="14">
-        <v>0.11399602016338169</v>
+        <v>0.1139764621338796</v>
       </c>
       <c r="Z245" s="14">
-        <v>0.13268215966193048</v>
+        <v>0.13254664410869249</v>
       </c>
     </row>
     <row r="246" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -35963,10 +35963,10 @@
         <v>5.1772467389379893</v>
       </c>
       <c r="Y246" s="14">
-        <v>5.0643883374034742</v>
+        <v>5.0743083708762695</v>
       </c>
       <c r="Z246" s="14">
-        <v>5.0637083044943072</v>
+        <v>5.0758312960326819</v>
       </c>
     </row>
     <row r="247" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -36043,10 +36043,10 @@
         <v>10.26314954732157</v>
       </c>
       <c r="Y247" s="14">
-        <v>10.445048490961092</v>
+        <v>10.443791561372123</v>
       </c>
       <c r="Z247" s="14">
-        <v>10.18423420905382</v>
+        <v>10.177254488363818</v>
       </c>
     </row>
     <row r="248" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -36123,10 +36123,10 @@
         <v>10.469868724600211</v>
       </c>
       <c r="Y248" s="14">
-        <v>10.759890437709331</v>
+        <v>10.758044388572543</v>
       </c>
       <c r="Z248" s="14">
-        <v>11.639509709781926</v>
+        <v>11.629847719748089</v>
       </c>
     </row>
     <row r="249" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -36203,10 +36203,10 @@
         <v>4.0474560916684572</v>
       </c>
       <c r="Y249" s="14">
-        <v>4.1269429357890024</v>
+        <v>4.1262348858801028</v>
       </c>
       <c r="Z249" s="14">
-        <v>4.2402533047335567</v>
+        <v>4.2367334584348031</v>
       </c>
     </row>
     <row r="250" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -36283,10 +36283,10 @@
         <v>0.15337147286691269</v>
       </c>
       <c r="Y250" s="14">
-        <v>0.11831251860686708</v>
+        <v>0.12300485927010481</v>
       </c>
       <c r="Z250" s="14">
-        <v>0.14394076094410735</v>
+        <v>0.15643142249134631</v>
       </c>
     </row>
     <row r="251" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -36363,10 +36363,10 @@
         <v>12.084462135424287</v>
       </c>
       <c r="Y251" s="14">
-        <v>11.27620607852789</v>
+        <v>11.274041641146578</v>
       </c>
       <c r="Z251" s="14">
-        <v>11.316459448370399</v>
+        <v>11.358319175820453</v>
       </c>
     </row>
     <row r="252" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -36443,10 +36443,10 @@
         <v>11.1406166191447</v>
       </c>
       <c r="Y252" s="14">
-        <v>11.518553196948888</v>
+        <v>11.516576985823937</v>
       </c>
       <c r="Z252" s="14">
-        <v>11.84948329850058</v>
+        <v>11.839647008795007</v>
       </c>
     </row>
     <row r="253" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">

--- a/Data/National Accounts/PSA-08AFF_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-08AFF_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\QNAP\NAP Dissemination\As of January 2026\Tables\Prelim Q4 2025\NAP Q1 2000 to Q4 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F1BBFC-17AA-43B9-991E-4F8C74CFD799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F391A4AE-EEE6-4993-9AB3-A20947741BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFF" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AFF!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AFF!$A$1:$AA$256</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -459,7 +459,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="69">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -658,13 +658,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2000 to 2024</t>
+    <t>As of January 2026</t>
   </si>
   <si>
-    <t>Annual 2001 to 2024</t>
+    <t>Annual 2000 to 2025</t>
   </si>
   <si>
-    <t>As of April 2025</t>
+    <t>Annual 2001 to 2025</t>
+  </si>
+  <si>
+    <t>2024 - 2025</t>
   </si>
 </sst>
 </file>
@@ -23586,54 +23589,54 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Z256"/>
+  <dimension ref="A1:AA256"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A12" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.77734375" style="1" customWidth="1"/>
-    <col min="2" max="26" width="10.21875" style="9" customWidth="1"/>
-    <col min="27" max="16384" width="7.77734375" style="9"/>
+    <col min="2" max="27" width="10.21875" style="9" customWidth="1"/>
+    <col min="28" max="16384" width="7.77734375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>23</v>
@@ -23662,8 +23665,9 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
     </row>
-    <row r="10" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
@@ -23742,11 +23746,14 @@
       <c r="Z10" s="6">
         <v>2024</v>
       </c>
+      <c r="AA10" s="6">
+        <v>2025</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -23825,8 +23832,11 @@
       <c r="Z12" s="8">
         <v>454878.79744454299</v>
       </c>
+      <c r="AA12" s="8">
+        <v>361557.87915305112</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -23905,8 +23915,11 @@
       <c r="Z13" s="8">
         <v>116294.06744695638</v>
       </c>
+      <c r="AA13" s="8">
+        <v>116152.15496934913</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -23985,8 +23998,11 @@
       <c r="Z14" s="8">
         <v>125467.96462217778</v>
       </c>
+      <c r="AA14" s="8">
+        <v>138150.22280349029</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
@@ -24065,8 +24081,11 @@
       <c r="Z15" s="8">
         <v>34726.55828768119</v>
       </c>
+      <c r="AA15" s="8">
+        <v>39379.77012282268</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -24145,8 +24164,11 @@
       <c r="Z16" s="8">
         <v>159475.39370606886</v>
       </c>
+      <c r="AA16" s="8">
+        <v>134538.53285356949</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -24225,8 +24247,11 @@
       <c r="Z17" s="8">
         <v>36329.600999374976</v>
       </c>
+      <c r="AA17" s="8">
+        <v>43790.865322340855</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -24305,8 +24330,11 @@
       <c r="Z18" s="8">
         <v>50796.257863874314</v>
       </c>
+      <c r="AA18" s="8">
+        <v>46024.635529454768</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -24385,8 +24413,11 @@
       <c r="Z19" s="8">
         <v>11808.755582254305</v>
       </c>
+      <c r="AA19" s="8">
+        <v>21245.142162210734</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -24465,8 +24496,11 @@
       <c r="Z20" s="8">
         <v>33741.187156617903</v>
       </c>
+      <c r="AA20" s="8">
+        <v>31849.289422777598</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -24545,8 +24579,11 @@
       <c r="Z21" s="8">
         <v>12511.107066168199</v>
       </c>
+      <c r="AA21" s="8">
+        <v>14449.991242380858</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -24625,8 +24662,11 @@
       <c r="Z22" s="8">
         <v>3267.9079106541531</v>
       </c>
+      <c r="AA22" s="8">
+        <v>5242.7182286930711</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -24705,8 +24745,11 @@
       <c r="Z23" s="8">
         <v>1633.6467866751598</v>
       </c>
+      <c r="AA23" s="8">
+        <v>1464.420253510862</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -24785,8 +24828,11 @@
       <c r="Z24" s="8">
         <v>2183.3441974187458</v>
       </c>
+      <c r="AA24" s="8">
+        <v>1918.4700160708794</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -24865,8 +24911,11 @@
       <c r="Z25" s="8">
         <v>128625.95235675665</v>
       </c>
+      <c r="AA25" s="8">
+        <v>132999.84730796044</v>
+      </c>
     </row>
-    <row r="26" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -24945,8 +24994,11 @@
       <c r="Z26" s="8">
         <v>319478.94622352632</v>
       </c>
+      <c r="AA26" s="8">
+        <v>340551.05860484333</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -25025,8 +25077,11 @@
       <c r="Z27" s="8">
         <v>278935.97547739197</v>
       </c>
+      <c r="AA27" s="8">
+        <v>314734.50607646571</v>
+      </c>
     </row>
-    <row r="28" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -25105,8 +25160,11 @@
       <c r="Z28" s="8">
         <v>83286.218742725876</v>
       </c>
+      <c r="AA28" s="8">
+        <v>91985.785855798691</v>
+      </c>
     </row>
-    <row r="29" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -25185,8 +25243,11 @@
       <c r="Z29" s="8">
         <v>1064.9948206643473</v>
       </c>
+      <c r="AA29" s="8">
+        <v>1058.3572374770072</v>
+      </c>
     </row>
-    <row r="30" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -25265,8 +25326,11 @@
       <c r="Z30" s="8">
         <v>254091.57027241727</v>
       </c>
+      <c r="AA30" s="8">
+        <v>267301.73270928528</v>
+      </c>
     </row>
-    <row r="31" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -25345,11 +25409,14 @@
       <c r="Z31" s="8">
         <v>293400.34601918032</v>
       </c>
+      <c r="AA31" s="8">
+        <v>302981.78423598036</v>
+      </c>
     </row>
-    <row r="32" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:26" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>1</v>
       </c>
@@ -25428,8 +25495,11 @@
       <c r="Z33" s="10">
         <v>2401998.5929831276</v>
       </c>
+      <c r="AA33" s="10">
+        <v>2407377.1641075336</v>
+      </c>
     </row>
-    <row r="34" spans="1:26" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -25456,51 +25526,52 @@
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
     </row>
-    <row r="35" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="13" t="s">
         <v>23</v>
@@ -25529,8 +25600,9 @@
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
+      <c r="AA46" s="13"/>
     </row>
-    <row r="47" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>22</v>
       </c>
@@ -25609,11 +25681,14 @@
       <c r="Z47" s="5">
         <v>2024</v>
       </c>
+      <c r="AA47" s="5">
+        <v>2025</v>
+      </c>
     </row>
-    <row r="48" spans="1:26" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -25692,8 +25767,11 @@
       <c r="Z49" s="8">
         <v>365531.34336379194</v>
       </c>
+      <c r="AA49" s="8">
+        <v>378177.82972461358</v>
+      </c>
     </row>
-    <row r="50" spans="1:26" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -25772,8 +25850,11 @@
       <c r="Z50" s="8">
         <v>104192.48991100464</v>
       </c>
+      <c r="AA50" s="8">
+        <v>107768.11048849518</v>
+      </c>
     </row>
-    <row r="51" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
@@ -25852,8 +25933,11 @@
       <c r="Z51" s="8">
         <v>82360.919594271254</v>
       </c>
+      <c r="AA51" s="8">
+        <v>81998.92421730404</v>
+      </c>
     </row>
-    <row r="52" spans="1:26" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>18</v>
       </c>
@@ -25932,8 +26016,11 @@
       <c r="Z52" s="8">
         <v>23309.915510621235</v>
       </c>
+      <c r="AA52" s="8">
+        <v>36394.115900953584</v>
+      </c>
     </row>
-    <row r="53" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
@@ -26012,8 +26099,11 @@
       <c r="Z53" s="8">
         <v>129408.28536869732</v>
       </c>
+      <c r="AA53" s="8">
+        <v>129073.34857343303</v>
+      </c>
     </row>
-    <row r="54" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
@@ -26092,8 +26182,11 @@
       <c r="Z54" s="8">
         <v>35688.135150813527</v>
       </c>
+      <c r="AA54" s="8">
+        <v>33676.929904963545</v>
+      </c>
     </row>
-    <row r="55" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>15</v>
       </c>
@@ -26172,8 +26265,11 @@
       <c r="Z55" s="8">
         <v>29619.247519675409</v>
       </c>
+      <c r="AA55" s="8">
+        <v>29276.556215220233</v>
+      </c>
     </row>
-    <row r="56" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>14</v>
       </c>
@@ -26252,8 +26348,11 @@
       <c r="Z56" s="8">
         <v>6424.9962798801125</v>
       </c>
+      <c r="AA56" s="8">
+        <v>7111.6288329175686</v>
+      </c>
     </row>
-    <row r="57" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>13</v>
       </c>
@@ -26332,8 +26431,11 @@
       <c r="Z57" s="8">
         <v>18291.428066251268</v>
       </c>
+      <c r="AA57" s="8">
+        <v>17945.592632405274</v>
+      </c>
     </row>
-    <row r="58" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -26412,8 +26514,11 @@
       <c r="Z58" s="8">
         <v>8546.3072266816525</v>
       </c>
+      <c r="AA58" s="8">
+        <v>9157.7329526458925</v>
+      </c>
     </row>
-    <row r="59" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>11</v>
       </c>
@@ -26492,8 +26597,11 @@
       <c r="Z59" s="8">
         <v>2136.4998151467057</v>
       </c>
+      <c r="AA59" s="8">
+        <v>2369.1217335378669</v>
+      </c>
     </row>
-    <row r="60" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
@@ -26572,8 +26680,11 @@
       <c r="Z60" s="8">
         <v>1691.347251552472</v>
       </c>
+      <c r="AA60" s="8">
+        <v>1457.497379462146</v>
+      </c>
     </row>
-    <row r="61" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -26652,8 +26763,11 @@
       <c r="Z61" s="8">
         <v>2356.990197765746</v>
       </c>
+      <c r="AA61" s="8">
+        <v>2750.9944651586256</v>
+      </c>
     </row>
-    <row r="62" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -26732,8 +26846,11 @@
       <c r="Z62" s="8">
         <v>90260.184938752791</v>
       </c>
+      <c r="AA62" s="8">
+        <v>91228.152720935483</v>
+      </c>
     </row>
-    <row r="63" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -26812,8 +26929,11 @@
       <c r="Z63" s="8">
         <v>180975.45381511346</v>
       </c>
+      <c r="AA63" s="8">
+        <v>177370.00050749889</v>
+      </c>
     </row>
-    <row r="64" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -26892,8 +27012,11 @@
       <c r="Z64" s="8">
         <v>206805.96827842956</v>
       </c>
+      <c r="AA64" s="8">
+        <v>225609.80903958704</v>
+      </c>
     </row>
-    <row r="65" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -26972,8 +27095,11 @@
       <c r="Z65" s="8">
         <v>75339.057425612438</v>
       </c>
+      <c r="AA65" s="8">
+        <v>78095.710741157993</v>
+      </c>
     </row>
-    <row r="66" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>4</v>
       </c>
@@ -27052,8 +27178,11 @@
       <c r="Z66" s="8">
         <v>2781.7175750772194</v>
       </c>
+      <c r="AA66" s="8">
+        <v>2768.5326300638112</v>
+      </c>
     </row>
-    <row r="67" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
@@ -27132,8 +27261,11 @@
       <c r="Z67" s="8">
         <v>201977.55394357679</v>
       </c>
+      <c r="AA67" s="8">
+        <v>202139.12378497852</v>
+      </c>
     </row>
-    <row r="68" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
@@ -27212,11 +27344,14 @@
       <c r="Z68" s="8">
         <v>210536.69168608001</v>
       </c>
+      <c r="AA68" s="8">
+        <v>218740.99204411602</v>
+      </c>
     </row>
-    <row r="69" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:26" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>1</v>
       </c>
@@ -27295,8 +27430,11 @@
       <c r="Z70" s="10">
         <v>1778234.5329187952</v>
       </c>
+      <c r="AA70" s="10">
+        <v>1833110.7044894486</v>
+      </c>
     </row>
-    <row r="71" spans="1:26" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -27323,51 +27461,52 @@
       <c r="X71" s="12"/>
       <c r="Y71" s="12"/>
       <c r="Z71" s="12"/>
+      <c r="AA71" s="12"/>
     </row>
-    <row r="72" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="13" t="s">
         <v>23</v>
@@ -27396,8 +27535,9 @@
       <c r="X83" s="13"/>
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
+      <c r="AA83" s="13"/>
     </row>
-    <row r="84" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>22</v>
       </c>
@@ -27473,12 +27613,15 @@
       <c r="Y84" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="Z84" s="5"/>
+      <c r="Z84" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA84" s="5"/>
     </row>
-    <row r="85" spans="1:26" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
     </row>
-    <row r="86" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>21</v>
       </c>
@@ -27554,9 +27697,12 @@
       <c r="Y86" s="14">
         <v>9.5131892021121729</v>
       </c>
-      <c r="Z86" s="14"/>
+      <c r="Z86" s="14">
+        <v>-20.515556850694765</v>
+      </c>
+      <c r="AA86" s="14"/>
     </row>
-    <row r="87" spans="1:26" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>20</v>
       </c>
@@ -27632,9 +27778,12 @@
       <c r="Y87" s="14">
         <v>-18.228899227564668</v>
       </c>
-      <c r="Z87" s="14"/>
+      <c r="Z87" s="14">
+        <v>-0.12202899143757406</v>
+      </c>
+      <c r="AA87" s="14"/>
     </row>
-    <row r="88" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>19</v>
       </c>
@@ -27710,9 +27859,12 @@
       <c r="Y88" s="14">
         <v>37.861074545943382</v>
       </c>
-      <c r="Z88" s="14"/>
+      <c r="Z88" s="14">
+        <v>10.107965184182802</v>
+      </c>
+      <c r="AA88" s="14"/>
     </row>
-    <row r="89" spans="1:26" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>18</v>
       </c>
@@ -27788,9 +27940,12 @@
       <c r="Y89" s="14">
         <v>-16.830616997407645</v>
       </c>
-      <c r="Z89" s="14"/>
+      <c r="Z89" s="14">
+        <v>13.399576763678752</v>
+      </c>
+      <c r="AA89" s="14"/>
     </row>
-    <row r="90" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>17</v>
       </c>
@@ -27866,9 +28021,12 @@
       <c r="Y90" s="14">
         <v>5.9780305678433905</v>
       </c>
-      <c r="Z90" s="14"/>
+      <c r="Z90" s="14">
+        <v>-15.636807831596158</v>
+      </c>
+      <c r="AA90" s="14"/>
     </row>
-    <row r="91" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>16</v>
       </c>
@@ -27944,9 +28102,12 @@
       <c r="Y91" s="14">
         <v>-17.902350227782748</v>
       </c>
-      <c r="Z91" s="14"/>
+      <c r="Z91" s="14">
+        <v>20.537699610557908</v>
+      </c>
+      <c r="AA91" s="14"/>
     </row>
-    <row r="92" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>15</v>
       </c>
@@ -28022,9 +28183,12 @@
       <c r="Y92" s="14">
         <v>46.712384863677215</v>
       </c>
-      <c r="Z92" s="14"/>
+      <c r="Z92" s="14">
+        <v>-9.3936493259143532</v>
+      </c>
+      <c r="AA92" s="14"/>
     </row>
-    <row r="93" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>14</v>
       </c>
@@ -28100,9 +28264,12 @@
       <c r="Y93" s="14">
         <v>60.484505950387614</v>
       </c>
-      <c r="Z93" s="14"/>
+      <c r="Z93" s="14">
+        <v>79.910084633617345</v>
+      </c>
+      <c r="AA93" s="14"/>
     </row>
-    <row r="94" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>13</v>
       </c>
@@ -28178,9 +28345,12 @@
       <c r="Y94" s="14">
         <v>17.51780796948006</v>
       </c>
-      <c r="Z94" s="14"/>
+      <c r="Z94" s="14">
+        <v>-5.6070870448588579</v>
+      </c>
+      <c r="AA94" s="14"/>
     </row>
-    <row r="95" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>12</v>
       </c>
@@ -28256,9 +28426,12 @@
       <c r="Y95" s="14">
         <v>38.513624537738565</v>
       </c>
-      <c r="Z95" s="14"/>
+      <c r="Z95" s="14">
+        <v>15.497303044074158</v>
+      </c>
+      <c r="AA95" s="14"/>
     </row>
-    <row r="96" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>11</v>
       </c>
@@ -28334,9 +28507,12 @@
       <c r="Y96" s="14">
         <v>53.130655577309597</v>
       </c>
-      <c r="Z96" s="14"/>
+      <c r="Z96" s="14">
+        <v>60.430415177874778</v>
+      </c>
+      <c r="AA96" s="14"/>
     </row>
-    <row r="97" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
@@ -28412,9 +28588,12 @@
       <c r="Y97" s="14">
         <v>5.9376274710614609</v>
       </c>
-      <c r="Z97" s="14"/>
+      <c r="Z97" s="14">
+        <v>-10.358820189565705</v>
+      </c>
+      <c r="AA97" s="14"/>
     </row>
-    <row r="98" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
@@ -28490,9 +28669,12 @@
       <c r="Y98" s="14">
         <v>-19.407407820807805</v>
       </c>
-      <c r="Z98" s="14"/>
+      <c r="Z98" s="14">
+        <v>-12.131581528052848</v>
+      </c>
+      <c r="AA98" s="14"/>
     </row>
-    <row r="99" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>8</v>
       </c>
@@ -28568,9 +28750,12 @@
       <c r="Y99" s="14">
         <v>5.7889872781674541</v>
       </c>
-      <c r="Z99" s="14"/>
+      <c r="Z99" s="14">
+        <v>3.4004762422068353</v>
+      </c>
+      <c r="AA99" s="14"/>
     </row>
-    <row r="100" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>7</v>
       </c>
@@ -28646,9 +28831,12 @@
       <c r="Y100" s="14">
         <v>4.7920377630561717</v>
       </c>
-      <c r="Z100" s="14"/>
+      <c r="Z100" s="14">
+        <v>6.5957749737203955</v>
+      </c>
+      <c r="AA100" s="14"/>
     </row>
-    <row r="101" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>6</v>
       </c>
@@ -28724,9 +28912,12 @@
       <c r="Y101" s="14">
         <v>7.3452052594334702</v>
       </c>
-      <c r="Z101" s="14"/>
+      <c r="Z101" s="14">
+        <v>12.833959670424534</v>
+      </c>
+      <c r="AA101" s="14"/>
     </row>
-    <row r="102" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>5</v>
       </c>
@@ -28802,9 +28993,12 @@
       <c r="Y102" s="14">
         <v>6.6022760766729647</v>
       </c>
-      <c r="Z102" s="14"/>
+      <c r="Z102" s="14">
+        <v>10.445386096763599</v>
+      </c>
+      <c r="AA102" s="14"/>
     </row>
-    <row r="103" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>4</v>
       </c>
@@ -28880,9 +29074,12 @@
       <c r="Y103" s="14">
         <v>20.054173035447207</v>
       </c>
-      <c r="Z103" s="14"/>
+      <c r="Z103" s="14">
+        <v>-0.62325027864451954</v>
+      </c>
+      <c r="AA103" s="14"/>
     </row>
-    <row r="104" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
@@ -28958,9 +29155,12 @@
       <c r="Y104" s="14">
         <v>-7.26452805597782</v>
       </c>
-      <c r="Z104" s="14"/>
+      <c r="Z104" s="14">
+        <v>5.1989770548881609</v>
+      </c>
+      <c r="AA104" s="14"/>
     </row>
-    <row r="105" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>2</v>
       </c>
@@ -29036,12 +29236,15 @@
       <c r="Y105" s="14">
         <v>6.6689488985438601</v>
       </c>
-      <c r="Z105" s="14"/>
+      <c r="Z105" s="14">
+        <v>3.2656533459485786</v>
+      </c>
+      <c r="AA105" s="14"/>
     </row>
-    <row r="106" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106"/>
     </row>
-    <row r="107" spans="1:26" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
         <v>1</v>
       </c>
@@ -29117,9 +29320,12 @@
       <c r="Y107" s="14">
         <v>5.0943457973083923</v>
       </c>
-      <c r="Z107" s="14"/>
+      <c r="Z107" s="14">
+        <v>0.22392066090787921</v>
+      </c>
+      <c r="AA107" s="14"/>
     </row>
-    <row r="108" spans="1:26" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -29146,51 +29352,52 @@
       <c r="X108" s="12"/>
       <c r="Y108" s="12"/>
       <c r="Z108" s="12"/>
+      <c r="AA108" s="12"/>
     </row>
-    <row r="109" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="115" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="13" t="s">
         <v>23</v>
@@ -29219,8 +29426,9 @@
       <c r="X120" s="13"/>
       <c r="Y120" s="13"/>
       <c r="Z120" s="13"/>
+      <c r="AA120" s="13"/>
     </row>
-    <row r="121" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>22</v>
       </c>
@@ -29296,12 +29504,15 @@
       <c r="Y121" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="Z121" s="5"/>
+      <c r="Z121" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA121" s="5"/>
     </row>
-    <row r="122" spans="1:26" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
     </row>
-    <row r="123" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>21</v>
       </c>
@@ -29377,9 +29588,12 @@
       <c r="Y123" s="14">
         <v>-4.8186440124165415</v>
       </c>
-      <c r="Z123" s="14"/>
+      <c r="Z123" s="14">
+        <v>3.4597542975228066</v>
+      </c>
+      <c r="AA123" s="14"/>
     </row>
-    <row r="124" spans="1:26" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>20</v>
       </c>
@@ -29455,9 +29669,12 @@
       <c r="Y124" s="14">
         <v>-2.7862911202899454</v>
       </c>
-      <c r="Z124" s="14"/>
+      <c r="Z124" s="14">
+        <v>3.4317450140068928</v>
+      </c>
+      <c r="AA124" s="14"/>
     </row>
-    <row r="125" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>19</v>
       </c>
@@ -29533,9 +29750,12 @@
       <c r="Y125" s="14">
         <v>-2.7606028313701785</v>
       </c>
-      <c r="Z125" s="14"/>
+      <c r="Z125" s="14">
+        <v>-0.43952323353173028</v>
+      </c>
+      <c r="AA125" s="14"/>
     </row>
-    <row r="126" spans="1:26" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
         <v>18</v>
       </c>
@@ -29611,9 +29831,12 @@
       <c r="Y126" s="14">
         <v>-9.2844176791622317</v>
       </c>
-      <c r="Z126" s="14"/>
+      <c r="Z126" s="14">
+        <v>56.131479259847566</v>
+      </c>
+      <c r="AA126" s="14"/>
     </row>
-    <row r="127" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>17</v>
       </c>
@@ -29689,9 +29912,12 @@
       <c r="Y127" s="14">
         <v>-3.6148367611395003</v>
       </c>
-      <c r="Z127" s="14"/>
+      <c r="Z127" s="14">
+        <v>-0.25882175496725779</v>
+      </c>
+      <c r="AA127" s="14"/>
     </row>
-    <row r="128" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>16</v>
       </c>
@@ -29767,9 +29993,12 @@
       <c r="Y128" s="14">
         <v>-1.9797360261968322</v>
       </c>
-      <c r="Z128" s="14"/>
+      <c r="Z128" s="14">
+        <v>-5.6355010911914576</v>
+      </c>
+      <c r="AA128" s="14"/>
     </row>
-    <row r="129" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>15</v>
       </c>
@@ -29845,9 +30074,12 @@
       <c r="Y129" s="14">
         <v>-1.1577298402992966</v>
       </c>
-      <c r="Z129" s="14"/>
+      <c r="Z129" s="14">
+        <v>-1.156988556942693</v>
+      </c>
+      <c r="AA129" s="14"/>
     </row>
-    <row r="130" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>14</v>
       </c>
@@ -29923,9 +30155,12 @@
       <c r="Y130" s="14">
         <v>8.3404148504809399</v>
       </c>
-      <c r="Z130" s="14"/>
+      <c r="Z130" s="14">
+        <v>10.686894172805154</v>
+      </c>
+      <c r="AA130" s="14"/>
     </row>
-    <row r="131" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>13</v>
       </c>
@@ -30001,9 +30236,12 @@
       <c r="Y131" s="14">
         <v>-7.0846931615201214</v>
       </c>
-      <c r="Z131" s="14"/>
+      <c r="Z131" s="14">
+        <v>-1.8906967383486091</v>
+      </c>
+      <c r="AA131" s="14"/>
     </row>
-    <row r="132" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>12</v>
       </c>
@@ -30079,9 +30317,12 @@
       <c r="Y132" s="14">
         <v>-4.6854355655080582</v>
       </c>
-      <c r="Z132" s="14"/>
+      <c r="Z132" s="14">
+        <v>7.1542680335123379</v>
+      </c>
+      <c r="AA132" s="14"/>
     </row>
-    <row r="133" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
@@ -30157,9 +30398,12 @@
       <c r="Y133" s="14">
         <v>1.1890349349414464</v>
       </c>
-      <c r="Z133" s="14"/>
+      <c r="Z133" s="14">
+        <v>10.887991505638766</v>
+      </c>
+      <c r="AA133" s="14"/>
     </row>
-    <row r="134" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>10</v>
       </c>
@@ -30235,9 +30479,12 @@
       <c r="Y134" s="14">
         <v>-3.2702669055521483</v>
       </c>
-      <c r="Z134" s="14"/>
+      <c r="Z134" s="14">
+        <v>-13.826248387235523</v>
+      </c>
+      <c r="AA134" s="14"/>
     </row>
-    <row r="135" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>9</v>
       </c>
@@ -30313,9 +30560,12 @@
       <c r="Y135" s="14">
         <v>14.55478764257731</v>
       </c>
-      <c r="Z135" s="14"/>
+      <c r="Z135" s="14">
+        <v>16.716415187740978</v>
+      </c>
+      <c r="AA135" s="14"/>
     </row>
-    <row r="136" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
@@ -30391,9 +30641,12 @@
       <c r="Y136" s="14">
         <v>-1.4651174574157295</v>
       </c>
-      <c r="Z136" s="14"/>
+      <c r="Z136" s="14">
+        <v>1.0724194536489335</v>
+      </c>
+      <c r="AA136" s="14"/>
     </row>
-    <row r="137" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
@@ -30469,9 +30722,12 @@
       <c r="Y137" s="14">
         <v>-4.0086456506493136</v>
       </c>
-      <c r="Z137" s="14"/>
+      <c r="Z137" s="14">
+        <v>-1.9922333286689451</v>
+      </c>
+      <c r="AA137" s="14"/>
     </row>
-    <row r="138" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>6</v>
       </c>
@@ -30547,9 +30803,12 @@
       <c r="Y138" s="14">
         <v>6.487927943901667</v>
       </c>
-      <c r="Z138" s="14"/>
+      <c r="Z138" s="14">
+        <v>9.0925039145104591</v>
+      </c>
+      <c r="AA138" s="14"/>
     </row>
-    <row r="139" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>5</v>
       </c>
@@ -30625,9 +30884,12 @@
       <c r="Y139" s="14">
         <v>1.1432434088956001</v>
       </c>
-      <c r="Z139" s="14"/>
+      <c r="Z139" s="14">
+        <v>3.6589962892320358</v>
+      </c>
+      <c r="AA139" s="14"/>
     </row>
-    <row r="140" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>4</v>
       </c>
@@ -30703,9 +30965,12 @@
       <c r="Y140" s="14">
         <v>25.274133178797072</v>
       </c>
-      <c r="Z140" s="14"/>
+      <c r="Z140" s="14">
+        <v>-0.47398575367746787</v>
+      </c>
+      <c r="AA140" s="14"/>
     </row>
-    <row r="141" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>3</v>
       </c>
@@ -30781,9 +31046,12 @@
       <c r="Y141" s="14">
         <v>-0.75831848644926936</v>
       </c>
-      <c r="Z141" s="14"/>
+      <c r="Z141" s="14">
+        <v>7.9993958856874769E-2</v>
+      </c>
+      <c r="AA141" s="14"/>
     </row>
-    <row r="142" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>2</v>
       </c>
@@ -30859,12 +31127,15 @@
       <c r="Y142" s="14">
         <v>1.2686497842725686</v>
       </c>
-      <c r="Z142" s="14"/>
+      <c r="Z142" s="14">
+        <v>3.8968506118016677</v>
+      </c>
+      <c r="AA142" s="14"/>
     </row>
-    <row r="143" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:26" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
         <v>1</v>
       </c>
@@ -30940,9 +31211,12 @@
       <c r="Y144" s="14">
         <v>-1.4946813342777432</v>
       </c>
-      <c r="Z144" s="14"/>
+      <c r="Z144" s="14">
+        <v>3.0859917831299555</v>
+      </c>
+      <c r="AA144" s="14"/>
     </row>
-    <row r="145" spans="1:26" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="12"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -30969,46 +31243,47 @@
       <c r="X145" s="12"/>
       <c r="Y145" s="12"/>
       <c r="Z145" s="12"/>
+      <c r="AA145" s="12"/>
     </row>
-    <row r="146" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148"/>
     </row>
-    <row r="149" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="151" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="154" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="13" t="s">
         <v>23</v>
@@ -31037,8 +31312,9 @@
       <c r="X156" s="13"/>
       <c r="Y156" s="13"/>
       <c r="Z156" s="13"/>
+      <c r="AA156" s="13"/>
     </row>
-    <row r="157" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>22</v>
       </c>
@@ -31117,11 +31393,14 @@
       <c r="Z157" s="5">
         <v>2024</v>
       </c>
+      <c r="AA157" s="5">
+        <v>2025</v>
+      </c>
     </row>
-    <row r="158" spans="1:26" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7"/>
     </row>
-    <row r="159" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>21</v>
       </c>
@@ -31200,8 +31479,11 @@
       <c r="Z159" s="14">
         <v>124.44317175608899</v>
       </c>
+      <c r="AA159" s="14">
+        <v>95.605255182815725</v>
+      </c>
     </row>
-    <row r="160" spans="1:26" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>20</v>
       </c>
@@ -31280,8 +31562,11 @@
       <c r="Z160" s="14">
         <v>111.61463512992944</v>
       </c>
+      <c r="AA160" s="14">
+        <v>107.77970815564126</v>
+      </c>
     </row>
-    <row r="161" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>19</v>
       </c>
@@ -31360,8 +31645,11 @@
       <c r="Z161" s="14">
         <v>152.33919829970537</v>
       </c>
+      <c r="AA161" s="14">
+        <v>168.47809178249778</v>
+      </c>
     </row>
-    <row r="162" spans="1:26" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
         <v>18</v>
       </c>
@@ -31440,8 +31728,11 @@
       <c r="Z162" s="14">
         <v>148.97762401523045</v>
       </c>
+      <c r="AA162" s="14">
+        <v>108.20367289590035</v>
+      </c>
     </row>
-    <row r="163" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>17</v>
       </c>
@@ -31520,8 +31811,11 @@
       <c r="Z163" s="14">
         <v>123.23429929676242</v>
       </c>
+      <c r="AA163" s="14">
+        <v>104.23416943973307</v>
+      </c>
     </row>
-    <row r="164" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>16</v>
       </c>
@@ -31600,8 +31894,11 @@
       <c r="Z164" s="14">
         <v>101.79742047560258</v>
       </c>
+      <c r="AA164" s="14">
+        <v>130.03223704155599</v>
+      </c>
     </row>
-    <row r="165" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>15</v>
       </c>
@@ -31680,8 +31977,11 @@
       <c r="Z165" s="14">
         <v>171.49746235157218</v>
       </c>
+      <c r="AA165" s="14">
+        <v>157.20645280515467</v>
+      </c>
     </row>
-    <row r="166" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>14</v>
       </c>
@@ -31760,8 +32060,11 @@
       <c r="Z166" s="14">
         <v>183.79396762039295</v>
       </c>
+      <c r="AA166" s="14">
+        <v>298.73806214229609</v>
+      </c>
     </row>
-    <row r="167" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>13</v>
       </c>
@@ -31840,8 +32143,11 @@
       <c r="Z167" s="14">
         <v>184.46447720980476</v>
       </c>
+      <c r="AA167" s="14">
+        <v>177.47694420113888</v>
+      </c>
     </row>
-    <row r="168" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>12</v>
       </c>
@@ -31920,8 +32226,11 @@
       <c r="Z168" s="14">
         <v>146.3919647904583</v>
       </c>
+      <c r="AA168" s="14">
+        <v>157.79004822591932</v>
+      </c>
     </row>
-    <row r="169" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>11</v>
       </c>
@@ -32000,8 +32309,11 @@
       <c r="Z169" s="14">
         <v>152.95615227702501</v>
       </c>
+      <c r="AA169" s="14">
+        <v>221.29374588379608</v>
+      </c>
     </row>
-    <row r="170" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>10</v>
       </c>
@@ -32080,8 +32392,11 @@
       <c r="Z170" s="14">
         <v>96.588490930862974</v>
       </c>
+      <c r="AA170" s="14">
+        <v>100.47498363607836</v>
+      </c>
     </row>
-    <row r="171" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>9</v>
       </c>
@@ -32160,8 +32475,11 @@
       <c r="Z171" s="14">
         <v>92.632722846637037</v>
       </c>
+      <c r="AA171" s="14">
+        <v>69.737327369005015</v>
+      </c>
     </row>
-    <row r="172" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>8</v>
       </c>
@@ -32240,8 +32558,11 @@
       <c r="Z172" s="14">
         <v>142.50574873521194</v>
       </c>
+      <c r="AA172" s="14">
+        <v>145.78816225162805</v>
+      </c>
     </row>
-    <row r="173" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>7</v>
       </c>
@@ -32320,8 +32641,11 @@
       <c r="Z173" s="14">
         <v>176.53164530804798</v>
       </c>
+      <c r="AA173" s="14">
+        <v>192.00037076757263</v>
+      </c>
     </row>
-    <row r="174" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>6</v>
       </c>
@@ -32400,8 +32724,11 @@
       <c r="Z174" s="14">
         <v>134.87810714526935</v>
       </c>
+      <c r="AA174" s="14">
+        <v>139.50391049763277</v>
+      </c>
     </row>
-    <row r="175" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>5</v>
       </c>
@@ -32480,8 +32807,11 @@
       <c r="Z175" s="14">
         <v>110.54852766768451</v>
       </c>
+      <c r="AA175" s="14">
+        <v>117.78596414939899</v>
+      </c>
     </row>
-    <row r="176" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>4</v>
       </c>
@@ -32560,8 +32890,11 @@
       <c r="Z176" s="14">
         <v>38.285512167236583</v>
       </c>
+      <c r="AA176" s="14">
+        <v>38.228093322223671</v>
+      </c>
     </row>
-    <row r="177" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>3</v>
       </c>
@@ -32640,8 +32973,11 @@
       <c r="Z177" s="14">
         <v>125.80188506659444</v>
       </c>
+      <c r="AA177" s="14">
+        <v>132.23651498243467</v>
+      </c>
     </row>
-    <row r="178" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>2</v>
       </c>
@@ -32720,11 +33056,14 @@
       <c r="Z178" s="14">
         <v>139.35829601457493</v>
       </c>
+      <c r="AA178" s="14">
+        <v>138.51166231104708</v>
+      </c>
     </row>
-    <row r="179" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:26" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="s">
         <v>1</v>
       </c>
@@ -32803,8 +33142,11 @@
       <c r="Z180" s="14">
         <v>135.07771604460328</v>
       </c>
+      <c r="AA180" s="14">
+        <v>131.32742928245719</v>
+      </c>
     </row>
-    <row r="181" spans="1:26" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="12"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -32831,45 +33173,46 @@
       <c r="X181" s="12"/>
       <c r="Y181" s="12"/>
       <c r="Z181" s="12"/>
+      <c r="AA181" s="12"/>
     </row>
-    <row r="182" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="188" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="191" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="13" t="s">
         <v>23</v>
@@ -32898,8 +33241,9 @@
       <c r="X193" s="13"/>
       <c r="Y193" s="13"/>
       <c r="Z193" s="13"/>
+      <c r="AA193" s="13"/>
     </row>
-    <row r="194" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>22</v>
       </c>
@@ -32978,11 +33322,14 @@
       <c r="Z194" s="5">
         <v>2024</v>
       </c>
+      <c r="AA194" s="5">
+        <v>2025</v>
+      </c>
     </row>
-    <row r="195" spans="1:26" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7"/>
     </row>
-    <row r="196" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>21</v>
       </c>
@@ -33061,8 +33408,11 @@
       <c r="Z196" s="14">
         <v>18.937513068215946</v>
       </c>
+      <c r="AA196" s="14">
+        <v>15.018746731656748</v>
+      </c>
     </row>
-    <row r="197" spans="1:26" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>20</v>
       </c>
@@ -33141,8 +33491,11 @@
       <c r="Z197" s="14">
         <v>4.8415543533906336</v>
       </c>
+      <c r="AA197" s="14">
+        <v>4.8248424343764684</v>
+      </c>
     </row>
-    <row r="198" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>19</v>
       </c>
@@ -33221,8 +33574,11 @@
       <c r="Z198" s="14">
         <v>5.2234820198772329</v>
       </c>
+      <c r="AA198" s="14">
+        <v>5.7386198084464075</v>
+      </c>
     </row>
-    <row r="199" spans="1:26" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
         <v>18</v>
       </c>
@@ -33301,8 +33657,11 @@
       <c r="Z199" s="14">
         <v>1.4457359962294165</v>
       </c>
+      <c r="AA199" s="14">
+        <v>1.6357956164887693</v>
+      </c>
     </row>
-    <row r="200" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>17</v>
       </c>
@@ -33381,8 +33740,11 @@
       <c r="Z200" s="14">
         <v>6.6392792307180617</v>
       </c>
+      <c r="AA200" s="14">
+        <v>5.588593879656818</v>
+      </c>
     </row>
-    <row r="201" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>16</v>
       </c>
@@ -33461,8 +33823,11 @@
       <c r="Z201" s="14">
         <v>1.5124738667834086</v>
       </c>
+      <c r="AA201" s="14">
+        <v>1.8190280266521954</v>
+      </c>
     </row>
-    <row r="202" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>15</v>
       </c>
@@ -33541,8 +33906,11 @@
       <c r="Z202" s="14">
         <v>2.1147496927043838</v>
       </c>
+      <c r="AA202" s="14">
+        <v>1.9118165701516525</v>
+      </c>
     </row>
-    <row r="203" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>14</v>
       </c>
@@ -33621,8 +33989,11 @@
       <c r="Z203" s="14">
         <v>0.49162208573938387</v>
       </c>
+      <c r="AA203" s="14">
+        <v>0.88250160710013903</v>
+      </c>
     </row>
-    <row r="204" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>13</v>
       </c>
@@ -33701,8 +34072,11 @@
       <c r="Z204" s="14">
         <v>1.4047130275256956</v>
       </c>
+      <c r="AA204" s="14">
+        <v>1.3229871038751344</v>
+      </c>
     </row>
-    <row r="205" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>12</v>
       </c>
@@ -33781,8 +34155,11 @@
       <c r="Z205" s="14">
         <v>0.52086238113196437</v>
       </c>
+      <c r="AA205" s="14">
+        <v>0.60023794600285574</v>
+      </c>
     </row>
-    <row r="206" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>11</v>
       </c>
@@ -33861,8 +34238,11 @@
       <c r="Z206" s="14">
         <v>0.13604953475828735</v>
       </c>
+      <c r="AA206" s="14">
+        <v>0.21777718534755061</v>
+      </c>
     </row>
-    <row r="207" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>10</v>
       </c>
@@ -33941,8 +34321,11 @@
       <c r="Z207" s="14">
         <v>6.8011979334520578E-2</v>
       </c>
+      <c r="AA207" s="14">
+        <v>6.0830528566293597E-2</v>
+      </c>
     </row>
-    <row r="208" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>9</v>
       </c>
@@ -34021,8 +34404,11 @@
       <c r="Z208" s="14">
         <v>9.0896980697527094E-2</v>
       </c>
+      <c r="AA208" s="14">
+        <v>7.9691294105221661E-2</v>
+      </c>
     </row>
-    <row r="209" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>8</v>
       </c>
@@ -34101,8 +34487,11 @@
       <c r="Z209" s="14">
         <v>5.3549553581133242</v>
       </c>
+      <c r="AA209" s="14">
+        <v>5.5246784463566323</v>
+      </c>
     </row>
-    <row r="210" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>7</v>
       </c>
@@ -34181,8 +34570,11 @@
       <c r="Z210" s="14">
         <v>13.300546767879412</v>
       </c>
+      <c r="AA210" s="14">
+        <v>14.146144762118857</v>
+      </c>
     </row>
-    <row r="211" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>6</v>
       </c>
@@ -34261,8 +34653,11 @@
       <c r="Z211" s="14">
         <v>11.612661901311585</v>
       </c>
+      <c r="AA211" s="14">
+        <v>13.073751415812925</v>
+      </c>
     </row>
-    <row r="212" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>5</v>
       </c>
@@ -34341,8 +34736,11 @@
       <c r="Z212" s="14">
         <v>3.4673716706590474</v>
       </c>
+      <c r="AA212" s="14">
+        <v>3.8209960295066514</v>
+      </c>
     </row>
-    <row r="213" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>4</v>
       </c>
@@ -34421,8 +34819,11 @@
       <c r="Z213" s="14">
         <v>4.4337861969423235E-2</v>
       </c>
+      <c r="AA213" s="14">
+        <v>4.3963083693591608E-2</v>
+      </c>
     </row>
-    <row r="214" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>3</v>
       </c>
@@ -34501,8 +34902,11 @@
       <c r="Z214" s="14">
         <v>10.578339679910133</v>
       </c>
+      <c r="AA214" s="14">
+        <v>11.10344223142865</v>
+      </c>
     </row>
-    <row r="215" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>2</v>
       </c>
@@ -34581,11 +34985,14 @@
       <c r="Z215" s="14">
         <v>12.214842543050617</v>
       </c>
+      <c r="AA215" s="14">
+        <v>12.58555529865642</v>
+      </c>
     </row>
-    <row r="216" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216"/>
     </row>
-    <row r="217" spans="1:26" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="11" t="s">
         <v>1</v>
       </c>
@@ -34664,8 +35071,11 @@
       <c r="Z217" s="14">
         <v>100</v>
       </c>
+      <c r="AA217" s="14">
+        <v>100</v>
+      </c>
     </row>
-    <row r="218" spans="1:26" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="12"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -34692,51 +35102,52 @@
       <c r="X218" s="12"/>
       <c r="Y218" s="12"/>
       <c r="Z218" s="12"/>
+      <c r="AA218" s="12"/>
     </row>
-    <row r="219" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220"/>
     </row>
-    <row r="221" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="225" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="228" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
       <c r="B230" s="13" t="s">
         <v>23</v>
@@ -34765,8 +35176,9 @@
       <c r="X230" s="13"/>
       <c r="Y230" s="13"/>
       <c r="Z230" s="13"/>
+      <c r="AA230" s="13"/>
     </row>
-    <row r="231" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
         <v>22</v>
       </c>
@@ -34845,11 +35257,14 @@
       <c r="Z231" s="5">
         <v>2024</v>
       </c>
+      <c r="AA231" s="5">
+        <v>2025</v>
+      </c>
     </row>
-    <row r="232" spans="1:26" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="7"/>
     </row>
-    <row r="233" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>21</v>
       </c>
@@ -34928,8 +35343,11 @@
       <c r="Z233" s="14">
         <v>20.555856755509556</v>
       </c>
+      <c r="AA233" s="14">
+        <v>20.630386849982543</v>
+      </c>
     </row>
-    <row r="234" spans="1:26" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>20</v>
       </c>
@@ -35008,8 +35426,11 @@
       <c r="Z234" s="14">
         <v>5.8593221525162384</v>
       </c>
+      <c r="AA234" s="14">
+        <v>5.8789744789860015</v>
+      </c>
     </row>
-    <row r="235" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>19</v>
       </c>
@@ -35088,8 +35509,11 @@
       <c r="Z235" s="14">
         <v>4.6316117514085162</v>
       </c>
+      <c r="AA235" s="14">
+        <v>4.4732117932911253</v>
+      </c>
     </row>
-    <row r="236" spans="1:26" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="11" t="s">
         <v>18</v>
       </c>
@@ -35168,8 +35592,11 @@
       <c r="Z236" s="14">
         <v>1.3108459586801706</v>
       </c>
+      <c r="AA236" s="14">
+        <v>1.9853746864180768</v>
+      </c>
     </row>
-    <row r="237" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>17</v>
       </c>
@@ -35248,8 +35675,11 @@
       <c r="Z237" s="14">
         <v>7.2773463214824918</v>
       </c>
+      <c r="AA237" s="14">
+        <v>7.0412195104922528</v>
+      </c>
     </row>
-    <row r="238" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>16</v>
       </c>
@@ -35328,8 +35758,11 @@
       <c r="Z238" s="14">
         <v>2.0069419691358146</v>
       </c>
+      <c r="AA238" s="14">
+        <v>1.8371465412582992</v>
+      </c>
     </row>
-    <row r="239" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>15</v>
       </c>
@@ -35408,8 +35841,11 @@
       <c r="Z239" s="14">
         <v>1.665654725029907</v>
       </c>
+      <c r="AA239" s="14">
+        <v>1.5970970080268141</v>
+      </c>
     </row>
-    <row r="240" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>14</v>
       </c>
@@ -35488,8 +35924,11 @@
       <c r="Z240" s="14">
         <v>0.36131321043091652</v>
       </c>
+      <c r="AA240" s="14">
+        <v>0.38795413803981216</v>
+      </c>
     </row>
-    <row r="241" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>13</v>
       </c>
@@ -35568,8 +36007,11 @@
       <c r="Z241" s="14">
         <v>1.028628548576644</v>
       </c>
+      <c r="AA241" s="14">
+        <v>0.9789693873073213</v>
+      </c>
     </row>
-    <row r="242" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>12</v>
       </c>
@@ -35648,8 +36090,11 @@
       <c r="Z242" s="14">
         <v>0.4806063018388097</v>
       </c>
+      <c r="AA242" s="14">
+        <v>0.49957337165823112</v>
+      </c>
     </row>
-    <row r="243" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>11</v>
       </c>
@@ -35728,8 +36173,11 @@
       <c r="Z243" s="14">
         <v>0.12014724579889097</v>
       </c>
+      <c r="AA243" s="14">
+        <v>0.12924051601115419</v>
+      </c>
     </row>
-    <row r="244" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>10</v>
       </c>
@@ -35808,8 +36256,11 @@
       <c r="Z244" s="14">
         <v>9.5113845797173538E-2</v>
       </c>
+      <c r="AA244" s="14">
+        <v>7.9509512212907127E-2</v>
+      </c>
     </row>
-    <row r="245" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>9</v>
       </c>
@@ -35888,8 +36339,11 @@
       <c r="Z245" s="14">
         <v>0.13254664410869249</v>
       </c>
+      <c r="AA245" s="14">
+        <v>0.15007246744133887</v>
+      </c>
     </row>
-    <row r="246" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>8</v>
       </c>
@@ -35968,8 +36422,11 @@
       <c r="Z246" s="14">
         <v>5.0758312960326819</v>
       </c>
+      <c r="AA246" s="14">
+        <v>4.9766853958961539</v>
+      </c>
     </row>
-    <row r="247" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>7</v>
       </c>
@@ -36048,8 +36505,11 @@
       <c r="Z247" s="14">
         <v>10.177254488363818</v>
       </c>
+      <c r="AA247" s="14">
+        <v>9.6759022831029373</v>
+      </c>
     </row>
-    <row r="248" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>6</v>
       </c>
@@ -36128,8 +36588,11 @@
       <c r="Z248" s="14">
         <v>11.629847719748089</v>
       </c>
+      <c r="AA248" s="14">
+        <v>12.307484129957283</v>
+      </c>
     </row>
-    <row r="249" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>5</v>
       </c>
@@ -36208,8 +36671,11 @@
       <c r="Z249" s="14">
         <v>4.2367334584348031</v>
       </c>
+      <c r="AA249" s="14">
+        <v>4.2602833833163896</v>
+      </c>
     </row>
-    <row r="250" spans="1:26" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27" s="10" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>4</v>
       </c>
@@ -36288,8 +36754,11 @@
       <c r="Z250" s="14">
         <v>0.15643142249134631</v>
       </c>
+      <c r="AA250" s="14">
+        <v>0.1510292107990768</v>
+      </c>
     </row>
-    <row r="251" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>3</v>
       </c>
@@ -36368,8 +36837,11 @@
       <c r="Z251" s="14">
         <v>11.358319175820453</v>
       </c>
+      <c r="AA251" s="14">
+        <v>11.027109453341913</v>
+      </c>
     </row>
-    <row r="252" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>2</v>
       </c>
@@ -36448,11 +36920,14 @@
       <c r="Z252" s="14">
         <v>11.839647008795007</v>
       </c>
+      <c r="AA252" s="14">
+        <v>11.932775882460355</v>
+      </c>
     </row>
-    <row r="253" spans="1:26" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:26" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="11" t="s">
         <v>1</v>
       </c>
@@ -36531,8 +37006,11 @@
       <c r="Z254" s="14">
         <v>100</v>
       </c>
+      <c r="AA254" s="14">
+        <v>100</v>
+      </c>
     </row>
-    <row r="255" spans="1:26" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:27" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="12"/>
       <c r="B255" s="12"/>
       <c r="C255" s="12"/>
@@ -36559,8 +37037,9 @@
       <c r="X255" s="12"/>
       <c r="Y255" s="12"/>
       <c r="Z255" s="12"/>
+      <c r="AA255" s="12"/>
     </row>
-    <row r="256" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>0</v>
       </c>
@@ -36572,11 +37051,11 @@
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
     <brk id="37" max="16383" man="1"/>
-    <brk id="184" max="16383" man="1"/>
-    <brk id="221" max="16383" man="1"/>
     <brk id="74" max="16383" man="1"/>
     <brk id="111" max="16383" man="1"/>
     <brk id="148" max="16383" man="1"/>
+    <brk id="184" max="16383" man="1"/>
+    <brk id="221" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>